--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3FCAD-8F7A-4321-8680-5041AAD9F3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BDD9A-E657-4EA4-92C9-1A1DE60BA9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
   <si>
     <t>システム名</t>
   </si>
@@ -391,9 +391,6 @@
     <t>【「カート」ボタン押下時】</t>
   </si>
   <si>
-    <t>※</t>
-  </si>
-  <si>
     <t>当ボタンは未ログイン時は「ログイン」と表示され</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>3.2.決済画面へ遷移する。</t>
   </si>
   <si>
-    <t>1.2.2.ログイン画面へ遷移する。</t>
-  </si>
-  <si>
     <t>ログイン画面にてログイン後は、ログイン前に最後に押下したボタンに該当する</t>
   </si>
   <si>
@@ -473,45 +467,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>キョ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログインすると下に「ログアウト」と表示する。</t>
-    <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>処理概要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイヨウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -552,16 +507,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2019/１０/１０　JTM05対応　森野</t>
-    <rPh sb="16" eb="18">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モリノ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -617,20 +562,248 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>抽出テーブル　商品ID　商品名</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>２．商品マスタテーブル</t>
+    <rPh sb="2" eb="4">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検索KYE　なし</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>取得項目　商品ID　商品名</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
       <t>ショウヒンメイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>2019/１０/１０/ JTM07 森野</t>
+    <t>抽出条件　購入数が一番多い商品名と商品IDを抽出する。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウニュウスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>取得項目　在庫表示　キャッチコピー　</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ザイコヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>処理概要</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【処理概要】</t>
+    <rPh sb="1" eb="5">
+      <t>ショリガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>　【】</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【「ログアウトボタン挿入時」】</t>
+    <rPh sb="10" eb="13">
+      <t>ソウニュウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※当ボタンはログイン状態では「ユーザーネーム」が表示されるが、</t>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログアウト後はログインと表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>１、セッション情報の取得を行う。</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>１．１会員マスタより会員情報を取得する。</t>
+    <rPh sb="3" eb="5">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検索KYE　　：会員マスタ会員ID=セッション情報に格納されているログインID</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>取得項目　　：会員マスタ全項目</t>
+    <rPh sb="0" eb="4">
+      <t>シュトクコウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>２．ユーザーIDの取得を破棄する。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.2.2.ログイン画面へ遷移する。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>3. ホーム画面へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/10/11/ ＪＴＭ05 森野</t>
+    <rPh sb="18" eb="20">
+      <t>モリノ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/10/11/ JTM0６ 森野</t>
     <rPh sb="18" eb="20">
       <t>モリノ</t>
     </rPh>
@@ -641,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -669,6 +842,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -679,6 +853,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -696,6 +871,39 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1132,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1190,48 +1398,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1240,6 +1406,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2377,10 +2593,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ211"/>
+  <dimension ref="A1:BZ214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2390,188 +2606,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="58" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="58" t="s">
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="64" t="s">
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="56"/>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56"/>
-      <c r="BV1" s="56"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="69"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="65"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="62" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="62" t="s">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="62" t="s">
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="69"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="64"/>
+      <c r="BX2" s="65"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -6524,197 +6740,197 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="55" t="str">
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="78" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="56"/>
-      <c r="AQ52" s="56"/>
-      <c r="AR52" s="56"/>
-      <c r="AS52" s="56"/>
-      <c r="AT52" s="56"/>
-      <c r="AU52" s="56"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="58" t="s">
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="64"/>
+      <c r="AE52" s="64"/>
+      <c r="AF52" s="64"/>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="64"/>
+      <c r="AK52" s="64"/>
+      <c r="AL52" s="64"/>
+      <c r="AM52" s="64"/>
+      <c r="AN52" s="64"/>
+      <c r="AO52" s="64"/>
+      <c r="AP52" s="64"/>
+      <c r="AQ52" s="64"/>
+      <c r="AR52" s="64"/>
+      <c r="AS52" s="64"/>
+      <c r="AT52" s="64"/>
+      <c r="AU52" s="64"/>
+      <c r="AV52" s="71"/>
+      <c r="AW52" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AX52" s="56"/>
-      <c r="AY52" s="56"/>
-      <c r="AZ52" s="56"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="64" t="str">
+      <c r="AX52" s="64"/>
+      <c r="AY52" s="64"/>
+      <c r="AZ52" s="64"/>
+      <c r="BA52" s="71"/>
+      <c r="BB52" s="63" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC52" s="56"/>
-      <c r="BD52" s="56"/>
-      <c r="BE52" s="56"/>
-      <c r="BF52" s="56"/>
-      <c r="BG52" s="56"/>
-      <c r="BH52" s="56"/>
-      <c r="BI52" s="56"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="58" t="s">
+      <c r="BC52" s="64"/>
+      <c r="BD52" s="64"/>
+      <c r="BE52" s="64"/>
+      <c r="BF52" s="64"/>
+      <c r="BG52" s="64"/>
+      <c r="BH52" s="64"/>
+      <c r="BI52" s="64"/>
+      <c r="BJ52" s="71"/>
+      <c r="BK52" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="BL52" s="56"/>
-      <c r="BM52" s="56"/>
-      <c r="BN52" s="56"/>
-      <c r="BO52" s="57"/>
-      <c r="BP52" s="64" t="str">
+      <c r="BL52" s="64"/>
+      <c r="BM52" s="64"/>
+      <c r="BN52" s="64"/>
+      <c r="BO52" s="71"/>
+      <c r="BP52" s="63" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ52" s="56"/>
-      <c r="BR52" s="56"/>
-      <c r="BS52" s="56"/>
-      <c r="BT52" s="56"/>
-      <c r="BU52" s="56"/>
-      <c r="BV52" s="56"/>
-      <c r="BW52" s="56"/>
-      <c r="BX52" s="69"/>
+      <c r="BQ52" s="64"/>
+      <c r="BR52" s="64"/>
+      <c r="BS52" s="64"/>
+      <c r="BT52" s="64"/>
+      <c r="BU52" s="64"/>
+      <c r="BV52" s="64"/>
+      <c r="BW52" s="64"/>
+      <c r="BX52" s="65"/>
       <c r="BY52" s="1"/>
       <c r="BZ52" s="1"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="59" t="str">
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="72" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="62" t="s">
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA53" s="60"/>
-      <c r="AB53" s="60"/>
-      <c r="AC53" s="60"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="59" t="str">
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="72" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="60"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
-      <c r="AJ53" s="60"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="60"/>
-      <c r="AM53" s="60"/>
-      <c r="AN53" s="60"/>
-      <c r="AO53" s="60"/>
-      <c r="AP53" s="60"/>
-      <c r="AQ53" s="60"/>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="60"/>
-      <c r="AT53" s="60"/>
-      <c r="AU53" s="60"/>
-      <c r="AV53" s="61"/>
-      <c r="AW53" s="62" t="s">
+      <c r="AF53" s="67"/>
+      <c r="AG53" s="67"/>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="67"/>
+      <c r="AQ53" s="67"/>
+      <c r="AR53" s="67"/>
+      <c r="AS53" s="67"/>
+      <c r="AT53" s="67"/>
+      <c r="AU53" s="67"/>
+      <c r="AV53" s="73"/>
+      <c r="AW53" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="60"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="61"/>
-      <c r="BB53" s="63" t="str">
+      <c r="AX53" s="67"/>
+      <c r="AY53" s="67"/>
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="73"/>
+      <c r="BB53" s="66" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/10</v>
       </c>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="60"/>
-      <c r="BE53" s="60"/>
-      <c r="BF53" s="60"/>
-      <c r="BG53" s="60"/>
-      <c r="BH53" s="60"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="61"/>
-      <c r="BK53" s="62" t="s">
+      <c r="BC53" s="67"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="67"/>
+      <c r="BF53" s="67"/>
+      <c r="BG53" s="67"/>
+      <c r="BH53" s="67"/>
+      <c r="BI53" s="67"/>
+      <c r="BJ53" s="73"/>
+      <c r="BK53" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="60"/>
-      <c r="BN53" s="60"/>
-      <c r="BO53" s="61"/>
-      <c r="BP53" s="63" t="str">
+      <c r="BL53" s="67"/>
+      <c r="BM53" s="67"/>
+      <c r="BN53" s="67"/>
+      <c r="BO53" s="73"/>
+      <c r="BP53" s="66" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
-      <c r="BQ53" s="60"/>
-      <c r="BR53" s="60"/>
-      <c r="BS53" s="60"/>
-      <c r="BT53" s="60"/>
-      <c r="BU53" s="60"/>
-      <c r="BV53" s="60"/>
-      <c r="BW53" s="60"/>
-      <c r="BX53" s="70"/>
+      <c r="BQ53" s="67"/>
+      <c r="BR53" s="67"/>
+      <c r="BS53" s="67"/>
+      <c r="BT53" s="67"/>
+      <c r="BU53" s="67"/>
+      <c r="BV53" s="67"/>
+      <c r="BW53" s="67"/>
+      <c r="BX53" s="68"/>
       <c r="BY53" s="1"/>
       <c r="BZ53" s="1"/>
     </row>
@@ -10120,8 +10336,8 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="77" t="s">
-        <v>151</v>
+      <c r="E99" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -10169,10 +10385,10 @@
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E100" s="77"/>
+      <c r="D100" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="59"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -10219,8 +10435,8 @@
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="77"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="59"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -10267,10 +10483,10 @@
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="77"/>
+      <c r="D102" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" s="59"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -10317,9 +10533,9 @@
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="77" t="s">
-        <v>155</v>
+      <c r="D103" s="61"/>
+      <c r="E103" s="59" t="s">
+        <v>150</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -10367,9 +10583,9 @@
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="77" t="s">
-        <v>156</v>
+      <c r="D104" s="61"/>
+      <c r="E104" s="59" t="s">
+        <v>153</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -10417,17 +10633,17 @@
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="77"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="59" t="s">
+        <v>154</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="79" t="s">
-        <v>157</v>
-      </c>
+      <c r="L105" s="61"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -10467,8 +10683,8 @@
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="77"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -10515,8 +10731,10 @@
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="77"/>
+      <c r="D107" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="59"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -10563,8 +10781,10 @@
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="79"/>
-      <c r="E108" s="77"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="59" t="s">
+        <v>152</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -10611,8 +10831,10 @@
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="77"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="59" t="s">
+        <v>155</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -10655,12 +10877,12 @@
       <c r="BY109" s="4"/>
       <c r="BZ109" s="4"/>
     </row>
-    <row r="110" spans="1:78" ht="16.5" customHeight="1">
-      <c r="A110" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
+    <row r="110" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="59"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -10669,6 +10891,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
@@ -10690,261 +10913,159 @@
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
       <c r="AI110" s="4"/>
-      <c r="AJ110" s="14"/>
-      <c r="AK110" s="14"/>
-      <c r="AL110" s="14"/>
-      <c r="AM110" s="15"/>
-      <c r="AN110" s="14"/>
-      <c r="AO110" s="14"/>
-      <c r="AP110" s="14"/>
-      <c r="AQ110" s="14"/>
-      <c r="AR110" s="14"/>
-      <c r="AS110" s="14"/>
-      <c r="AT110" s="14"/>
-      <c r="AU110" s="14"/>
-      <c r="AV110" s="14"/>
-      <c r="AW110" s="14"/>
-      <c r="AX110" s="14"/>
-      <c r="AY110" s="14"/>
-      <c r="AZ110" s="14"/>
-      <c r="BA110" s="14"/>
-      <c r="BB110" s="14"/>
-      <c r="BC110" s="14"/>
-      <c r="BD110" s="14"/>
-      <c r="BE110" s="14"/>
-      <c r="BF110" s="14"/>
-      <c r="BG110" s="14"/>
-      <c r="BH110" s="14"/>
-      <c r="BI110" s="14"/>
-      <c r="BJ110" s="14"/>
-      <c r="BK110" s="14"/>
-      <c r="BL110" s="14"/>
-      <c r="BM110" s="14"/>
-      <c r="BN110" s="14"/>
-      <c r="BO110" s="14"/>
-      <c r="BP110" s="14"/>
-      <c r="BQ110" s="14"/>
-      <c r="BR110" s="14"/>
-      <c r="BS110" s="14"/>
-      <c r="BT110" s="14"/>
-      <c r="BU110" s="14"/>
-      <c r="BV110" s="14"/>
-      <c r="BW110" s="14"/>
-      <c r="BX110" s="16"/>
+      <c r="AJ110" s="4"/>
+      <c r="AK110" s="4"/>
+      <c r="AL110" s="4"/>
+      <c r="AM110" s="5"/>
+      <c r="BT110" s="4"/>
+      <c r="BU110" s="4"/>
+      <c r="BV110" s="4"/>
+      <c r="BW110" s="4"/>
+      <c r="BX110" s="6"/>
       <c r="BY110" s="4"/>
       <c r="BZ110" s="4"/>
     </row>
-    <row r="111" spans="1:78" ht="36" customHeight="1">
-      <c r="A111" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="55" t="str">
-        <f>IF($F$1="","",$F$1)</f>
-        <v>アイエスエイプランECサイト</v>
-      </c>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="56"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="56"/>
-      <c r="R111" s="56"/>
-      <c r="S111" s="56"/>
-      <c r="T111" s="56"/>
-      <c r="U111" s="56"/>
-      <c r="V111" s="56"/>
-      <c r="W111" s="56"/>
-      <c r="X111" s="56"/>
-      <c r="Y111" s="56"/>
-      <c r="Z111" s="56"/>
-      <c r="AA111" s="56"/>
-      <c r="AB111" s="56"/>
-      <c r="AC111" s="56"/>
-      <c r="AD111" s="56"/>
-      <c r="AE111" s="56"/>
-      <c r="AF111" s="56"/>
-      <c r="AG111" s="56"/>
-      <c r="AH111" s="56"/>
-      <c r="AI111" s="56"/>
-      <c r="AJ111" s="56"/>
-      <c r="AK111" s="56"/>
-      <c r="AL111" s="56"/>
-      <c r="AM111" s="56"/>
-      <c r="AN111" s="56"/>
-      <c r="AO111" s="56"/>
-      <c r="AP111" s="56"/>
-      <c r="AQ111" s="56"/>
-      <c r="AR111" s="56"/>
-      <c r="AS111" s="56"/>
-      <c r="AT111" s="56"/>
-      <c r="AU111" s="56"/>
-      <c r="AV111" s="57"/>
-      <c r="AW111" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX111" s="56"/>
-      <c r="AY111" s="56"/>
-      <c r="AZ111" s="56"/>
-      <c r="BA111" s="57"/>
-      <c r="BB111" s="64" t="str">
-        <f>IF($BB$1="","",$BB$1)</f>
-        <v>2017/8/18</v>
-      </c>
-      <c r="BC111" s="56"/>
-      <c r="BD111" s="56"/>
-      <c r="BE111" s="56"/>
-      <c r="BF111" s="56"/>
-      <c r="BG111" s="56"/>
-      <c r="BH111" s="56"/>
-      <c r="BI111" s="56"/>
-      <c r="BJ111" s="57"/>
-      <c r="BK111" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL111" s="56"/>
-      <c r="BM111" s="56"/>
-      <c r="BN111" s="56"/>
-      <c r="BO111" s="57"/>
-      <c r="BP111" s="64" t="str">
-        <f>IF($BP$1="","",$BP$1)</f>
-        <v>佐伯 悠里</v>
-      </c>
-      <c r="BQ111" s="56"/>
-      <c r="BR111" s="56"/>
-      <c r="BS111" s="56"/>
-      <c r="BT111" s="56"/>
-      <c r="BU111" s="56"/>
-      <c r="BV111" s="56"/>
-      <c r="BW111" s="56"/>
-      <c r="BX111" s="69"/>
-      <c r="BY111" s="1"/>
-      <c r="BZ111" s="1"/>
-    </row>
-    <row r="112" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A112" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="59" t="str">
-        <f>IF($F$2="","",$F$2)</f>
-        <v>ホーム</v>
-      </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-      <c r="P112" s="60"/>
-      <c r="Q112" s="60"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="60"/>
-      <c r="T112" s="60"/>
-      <c r="U112" s="60"/>
-      <c r="V112" s="60"/>
-      <c r="W112" s="60"/>
-      <c r="X112" s="60"/>
-      <c r="Y112" s="61"/>
-      <c r="Z112" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA112" s="60"/>
-      <c r="AB112" s="60"/>
-      <c r="AC112" s="60"/>
-      <c r="AD112" s="61"/>
-      <c r="AE112" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF112" s="60"/>
-      <c r="AG112" s="60"/>
-      <c r="AH112" s="60"/>
-      <c r="AI112" s="60"/>
-      <c r="AJ112" s="60"/>
-      <c r="AK112" s="60"/>
-      <c r="AL112" s="60"/>
-      <c r="AM112" s="60"/>
-      <c r="AN112" s="60"/>
-      <c r="AO112" s="60"/>
-      <c r="AP112" s="60"/>
-      <c r="AQ112" s="60"/>
-      <c r="AR112" s="60"/>
-      <c r="AS112" s="60"/>
-      <c r="AT112" s="60"/>
-      <c r="AU112" s="60"/>
-      <c r="AV112" s="61"/>
-      <c r="AW112" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX112" s="60"/>
-      <c r="AY112" s="60"/>
-      <c r="AZ112" s="60"/>
-      <c r="BA112" s="61"/>
-      <c r="BB112" s="63" t="str">
-        <f>IF($BB$2="","",$BB$2)</f>
-        <v>2019/10/10</v>
-      </c>
-      <c r="BC112" s="60"/>
-      <c r="BD112" s="60"/>
-      <c r="BE112" s="60"/>
-      <c r="BF112" s="60"/>
-      <c r="BG112" s="60"/>
-      <c r="BH112" s="60"/>
-      <c r="BI112" s="60"/>
-      <c r="BJ112" s="61"/>
-      <c r="BK112" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL112" s="60"/>
-      <c r="BM112" s="60"/>
-      <c r="BN112" s="60"/>
-      <c r="BO112" s="61"/>
-      <c r="BP112" s="63" t="str">
-        <f>IF($BP$2="","",$BP$2)</f>
-        <v>森野　仁巨</v>
-      </c>
-      <c r="BQ112" s="60"/>
-      <c r="BR112" s="60"/>
-      <c r="BS112" s="60"/>
-      <c r="BT112" s="60"/>
-      <c r="BU112" s="60"/>
-      <c r="BV112" s="60"/>
-      <c r="BW112" s="60"/>
-      <c r="BX112" s="70"/>
-      <c r="BY112" s="1"/>
-      <c r="BZ112" s="1"/>
-    </row>
-    <row r="113" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+    <row r="111" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4"/>
+      <c r="AF111" s="4"/>
+      <c r="AG111" s="4"/>
+      <c r="AH111" s="4"/>
+      <c r="AI111" s="4"/>
+      <c r="AJ111" s="4"/>
+      <c r="AK111" s="4"/>
+      <c r="AL111" s="4"/>
+      <c r="AM111" s="5"/>
+      <c r="BT111" s="4"/>
+      <c r="BU111" s="4"/>
+      <c r="BV111" s="4"/>
+      <c r="BW111" s="4"/>
+      <c r="BX111" s="6"/>
+      <c r="BY111" s="4"/>
+      <c r="BZ111" s="4"/>
+    </row>
+    <row r="112" spans="1:78" ht="16.5" customHeight="1">
+      <c r="A112" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
+      <c r="AG112" s="4"/>
+      <c r="AH112" s="4"/>
+      <c r="AI112" s="4"/>
+      <c r="AJ112" s="14"/>
+      <c r="AK112" s="14"/>
+      <c r="AL112" s="14"/>
+      <c r="AM112" s="15"/>
+      <c r="AN112" s="14"/>
+      <c r="AO112" s="14"/>
+      <c r="AP112" s="14"/>
+      <c r="AQ112" s="14"/>
+      <c r="AR112" s="14"/>
+      <c r="AS112" s="14"/>
+      <c r="AT112" s="14"/>
+      <c r="AU112" s="14"/>
+      <c r="AV112" s="14"/>
+      <c r="AW112" s="14"/>
+      <c r="AX112" s="14"/>
+      <c r="AY112" s="14"/>
+      <c r="AZ112" s="14"/>
+      <c r="BA112" s="14"/>
+      <c r="BB112" s="14"/>
+      <c r="BC112" s="14"/>
+      <c r="BD112" s="14"/>
+      <c r="BE112" s="14"/>
+      <c r="BF112" s="14"/>
+      <c r="BG112" s="14"/>
+      <c r="BH112" s="14"/>
+      <c r="BI112" s="14"/>
+      <c r="BJ112" s="14"/>
+      <c r="BK112" s="14"/>
+      <c r="BL112" s="14"/>
+      <c r="BM112" s="14"/>
+      <c r="BN112" s="14"/>
+      <c r="BO112" s="14"/>
+      <c r="BP112" s="14"/>
+      <c r="BQ112" s="14"/>
+      <c r="BR112" s="14"/>
+      <c r="BS112" s="14"/>
+      <c r="BT112" s="14"/>
+      <c r="BU112" s="14"/>
+      <c r="BV112" s="14"/>
+      <c r="BW112" s="14"/>
+      <c r="BX112" s="16"/>
+      <c r="BY112" s="4"/>
+      <c r="BZ112" s="4"/>
+    </row>
+    <row r="113" spans="1:78" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A113" s="85"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="88"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="K113" s="61"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
@@ -10966,222 +11087,252 @@
       <c r="AG113" s="4"/>
       <c r="AH113" s="4"/>
       <c r="AI113" s="4"/>
-      <c r="AJ113" s="4"/>
-      <c r="AK113" s="4"/>
-      <c r="AL113" s="4"/>
-      <c r="AM113" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN113" s="3"/>
-      <c r="AO113" s="3"/>
-      <c r="AP113" s="3"/>
-      <c r="AQ113" s="3"/>
-      <c r="AR113" s="3"/>
-      <c r="AS113" s="3"/>
-      <c r="AT113" s="3"/>
-      <c r="AU113" s="3"/>
-      <c r="AV113" s="3"/>
-      <c r="AW113" s="3"/>
-      <c r="AX113" s="3"/>
-      <c r="AY113" s="3"/>
-      <c r="AZ113" s="3"/>
-      <c r="BA113" s="3"/>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
-      <c r="BE113" s="3"/>
-      <c r="BF113" s="3"/>
-      <c r="BG113" s="3"/>
-      <c r="BH113" s="3"/>
-      <c r="BI113" s="3"/>
-      <c r="BJ113" s="3"/>
-      <c r="BK113" s="3"/>
-      <c r="BL113" s="3"/>
-      <c r="BM113" s="3"/>
-      <c r="BN113" s="3"/>
-      <c r="BO113" s="3"/>
-      <c r="BP113" s="3"/>
-      <c r="BQ113" s="3"/>
-      <c r="BR113" s="3"/>
-      <c r="BS113" s="3"/>
-      <c r="BT113" s="3"/>
-      <c r="BU113" s="3"/>
-      <c r="BV113" s="3"/>
-      <c r="BW113" s="3"/>
-      <c r="BX113" s="18"/>
+      <c r="AJ113" s="88"/>
+      <c r="AK113" s="88"/>
+      <c r="AL113" s="88"/>
+      <c r="AM113" s="88"/>
+      <c r="AN113" s="88"/>
+      <c r="AO113" s="88"/>
+      <c r="AP113" s="88"/>
+      <c r="AQ113" s="88"/>
+      <c r="AR113" s="88"/>
+      <c r="AS113" s="88"/>
+      <c r="AT113" s="88"/>
+      <c r="AU113" s="88"/>
+      <c r="AV113" s="88"/>
+      <c r="AW113" s="88"/>
+      <c r="AX113" s="88"/>
+      <c r="AY113" s="88"/>
+      <c r="AZ113" s="88"/>
+      <c r="BA113" s="88"/>
+      <c r="BB113" s="88"/>
+      <c r="BC113" s="88"/>
+      <c r="BD113" s="88"/>
+      <c r="BE113" s="88"/>
+      <c r="BF113" s="88"/>
+      <c r="BG113" s="88"/>
+      <c r="BH113" s="88"/>
+      <c r="BI113" s="88"/>
+      <c r="BJ113" s="88"/>
+      <c r="BK113" s="88"/>
+      <c r="BL113" s="88"/>
+      <c r="BM113" s="88"/>
+      <c r="BN113" s="88"/>
+      <c r="BO113" s="88"/>
+      <c r="BP113" s="88"/>
+      <c r="BQ113" s="88"/>
+      <c r="BR113" s="88"/>
+      <c r="BS113" s="88"/>
+      <c r="BT113" s="88"/>
+      <c r="BU113" s="88"/>
+      <c r="BV113" s="88"/>
+      <c r="BW113" s="88"/>
+      <c r="BX113" s="6"/>
       <c r="BY113" s="4"/>
       <c r="BZ113" s="4"/>
     </row>
-    <row r="114" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A114" s="7"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="4"/>
-      <c r="AA114" s="4"/>
-      <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="4"/>
-      <c r="AF114" s="4"/>
-      <c r="AG114" s="4"/>
-      <c r="AH114" s="4"/>
-      <c r="AI114" s="4"/>
-      <c r="AJ114" s="4"/>
-      <c r="AK114" s="4"/>
-      <c r="AL114" s="4"/>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="4"/>
-      <c r="AO114" s="4"/>
-      <c r="AP114" s="4"/>
-      <c r="AQ114" s="4"/>
-      <c r="AR114" s="4"/>
-      <c r="AS114" s="4"/>
-      <c r="AT114" s="4"/>
-      <c r="AU114" s="4"/>
-      <c r="AV114" s="4"/>
-      <c r="AW114" s="4"/>
-      <c r="AX114" s="4"/>
-      <c r="AY114" s="4"/>
-      <c r="AZ114" s="4"/>
-      <c r="BA114" s="4"/>
-      <c r="BB114" s="4"/>
-      <c r="BC114" s="4"/>
-      <c r="BD114" s="4"/>
-      <c r="BE114" s="4"/>
-      <c r="BF114" s="4"/>
-      <c r="BG114" s="4"/>
-      <c r="BH114" s="4"/>
-      <c r="BI114" s="4"/>
-      <c r="BJ114" s="4"/>
-      <c r="BK114" s="4"/>
-      <c r="BL114" s="4"/>
-      <c r="BM114" s="4"/>
-      <c r="BN114" s="4"/>
-      <c r="BO114" s="4"/>
-      <c r="BP114" s="4"/>
-      <c r="BQ114" s="4"/>
-      <c r="BR114" s="4"/>
-      <c r="BS114" s="4"/>
-      <c r="BT114" s="4"/>
-      <c r="BU114" s="4"/>
-      <c r="BV114" s="4"/>
-      <c r="BW114" s="4"/>
-      <c r="BX114" s="6"/>
-      <c r="BY114" s="4"/>
-      <c r="BZ114" s="4"/>
-    </row>
-    <row r="115" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-      <c r="AA115" s="4"/>
-      <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="4"/>
-      <c r="AF115" s="4"/>
-      <c r="AG115" s="4"/>
-      <c r="AH115" s="4"/>
-      <c r="AI115" s="4"/>
-      <c r="AJ115" s="4"/>
-      <c r="AK115" s="4"/>
-      <c r="AL115" s="4"/>
-      <c r="AM115" s="5"/>
-      <c r="AN115" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO115" s="4"/>
-      <c r="AP115" s="4"/>
-      <c r="AQ115" s="4"/>
-      <c r="AR115" s="4"/>
-      <c r="AS115" s="4"/>
-      <c r="AT115" s="4"/>
-      <c r="AU115" s="4"/>
-      <c r="AV115" s="4"/>
-      <c r="AW115" s="4"/>
-      <c r="AX115" s="4"/>
-      <c r="AY115" s="4"/>
-      <c r="AZ115" s="4"/>
-      <c r="BA115" s="4"/>
-      <c r="BB115" s="4"/>
-      <c r="BC115" s="4"/>
-      <c r="BD115" s="4"/>
-      <c r="BE115" s="4"/>
-      <c r="BF115" s="4"/>
-      <c r="BG115" s="4"/>
-      <c r="BH115" s="4"/>
-      <c r="BI115" s="4"/>
-      <c r="BJ115" s="4"/>
-      <c r="BK115" s="4"/>
-      <c r="BL115" s="4"/>
-      <c r="BM115" s="4"/>
-      <c r="BN115" s="4"/>
-      <c r="BO115" s="4"/>
-      <c r="BP115" s="4"/>
-      <c r="BQ115" s="4"/>
-      <c r="BR115" s="4"/>
-      <c r="BS115" s="4"/>
-      <c r="BT115" s="4"/>
-      <c r="BU115" s="4"/>
-      <c r="BV115" s="4"/>
-      <c r="BW115" s="4"/>
-      <c r="BX115" s="6"/>
-      <c r="BY115" s="4"/>
-      <c r="BZ115" s="4"/>
+    <row r="114" spans="1:78" ht="36" customHeight="1">
+      <c r="A114" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="78" t="str">
+        <f>IF($F$1="","",$F$1)</f>
+        <v>アイエスエイプランECサイト</v>
+      </c>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="64"/>
+      <c r="N114" s="64"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="64"/>
+      <c r="S114" s="64"/>
+      <c r="T114" s="64"/>
+      <c r="U114" s="64"/>
+      <c r="V114" s="64"/>
+      <c r="W114" s="64"/>
+      <c r="X114" s="64"/>
+      <c r="Y114" s="64"/>
+      <c r="Z114" s="64"/>
+      <c r="AA114" s="64"/>
+      <c r="AB114" s="64"/>
+      <c r="AC114" s="64"/>
+      <c r="AD114" s="64"/>
+      <c r="AE114" s="64"/>
+      <c r="AF114" s="64"/>
+      <c r="AG114" s="64"/>
+      <c r="AH114" s="64"/>
+      <c r="AI114" s="64"/>
+      <c r="AJ114" s="64"/>
+      <c r="AK114" s="64"/>
+      <c r="AL114" s="64"/>
+      <c r="AM114" s="64"/>
+      <c r="AN114" s="64"/>
+      <c r="AO114" s="64"/>
+      <c r="AP114" s="64"/>
+      <c r="AQ114" s="64"/>
+      <c r="AR114" s="64"/>
+      <c r="AS114" s="64"/>
+      <c r="AT114" s="64"/>
+      <c r="AU114" s="64"/>
+      <c r="AV114" s="71"/>
+      <c r="AW114" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX114" s="64"/>
+      <c r="AY114" s="64"/>
+      <c r="AZ114" s="64"/>
+      <c r="BA114" s="71"/>
+      <c r="BB114" s="63" t="str">
+        <f>IF($BB$1="","",$BB$1)</f>
+        <v>2017/8/18</v>
+      </c>
+      <c r="BC114" s="64"/>
+      <c r="BD114" s="64"/>
+      <c r="BE114" s="64"/>
+      <c r="BF114" s="64"/>
+      <c r="BG114" s="64"/>
+      <c r="BH114" s="64"/>
+      <c r="BI114" s="64"/>
+      <c r="BJ114" s="71"/>
+      <c r="BK114" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL114" s="64"/>
+      <c r="BM114" s="64"/>
+      <c r="BN114" s="64"/>
+      <c r="BO114" s="71"/>
+      <c r="BP114" s="63" t="str">
+        <f>IF($BP$1="","",$BP$1)</f>
+        <v>佐伯 悠里</v>
+      </c>
+      <c r="BQ114" s="64"/>
+      <c r="BR114" s="64"/>
+      <c r="BS114" s="64"/>
+      <c r="BT114" s="64"/>
+      <c r="BU114" s="64"/>
+      <c r="BV114" s="64"/>
+      <c r="BW114" s="64"/>
+      <c r="BX114" s="65"/>
+      <c r="BY114" s="1"/>
+      <c r="BZ114" s="1"/>
+    </row>
+    <row r="115" spans="1:78" ht="27.75" customHeight="1">
+      <c r="A115" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="72" t="str">
+        <f>IF($F$2="","",$F$2)</f>
+        <v>ホーム</v>
+      </c>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="67"/>
+      <c r="N115" s="67"/>
+      <c r="O115" s="67"/>
+      <c r="P115" s="67"/>
+      <c r="Q115" s="67"/>
+      <c r="R115" s="67"/>
+      <c r="S115" s="67"/>
+      <c r="T115" s="67"/>
+      <c r="U115" s="67"/>
+      <c r="V115" s="67"/>
+      <c r="W115" s="67"/>
+      <c r="X115" s="67"/>
+      <c r="Y115" s="73"/>
+      <c r="Z115" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA115" s="67"/>
+      <c r="AB115" s="67"/>
+      <c r="AC115" s="67"/>
+      <c r="AD115" s="73"/>
+      <c r="AE115" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF115" s="67"/>
+      <c r="AG115" s="67"/>
+      <c r="AH115" s="67"/>
+      <c r="AI115" s="67"/>
+      <c r="AJ115" s="67"/>
+      <c r="AK115" s="67"/>
+      <c r="AL115" s="67"/>
+      <c r="AM115" s="67"/>
+      <c r="AN115" s="67"/>
+      <c r="AO115" s="67"/>
+      <c r="AP115" s="67"/>
+      <c r="AQ115" s="67"/>
+      <c r="AR115" s="67"/>
+      <c r="AS115" s="67"/>
+      <c r="AT115" s="67"/>
+      <c r="AU115" s="67"/>
+      <c r="AV115" s="73"/>
+      <c r="AW115" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX115" s="67"/>
+      <c r="AY115" s="67"/>
+      <c r="AZ115" s="67"/>
+      <c r="BA115" s="73"/>
+      <c r="BB115" s="66" t="str">
+        <f>IF($BB$2="","",$BB$2)</f>
+        <v>2019/10/10</v>
+      </c>
+      <c r="BC115" s="67"/>
+      <c r="BD115" s="67"/>
+      <c r="BE115" s="67"/>
+      <c r="BF115" s="67"/>
+      <c r="BG115" s="67"/>
+      <c r="BH115" s="67"/>
+      <c r="BI115" s="67"/>
+      <c r="BJ115" s="73"/>
+      <c r="BK115" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL115" s="67"/>
+      <c r="BM115" s="67"/>
+      <c r="BN115" s="67"/>
+      <c r="BO115" s="73"/>
+      <c r="BP115" s="66" t="str">
+        <f>IF($BP$2="","",$BP$2)</f>
+        <v>森野　仁巨</v>
+      </c>
+      <c r="BQ115" s="67"/>
+      <c r="BR115" s="67"/>
+      <c r="BS115" s="67"/>
+      <c r="BT115" s="67"/>
+      <c r="BU115" s="67"/>
+      <c r="BV115" s="67"/>
+      <c r="BW115" s="67"/>
+      <c r="BX115" s="68"/>
+      <c r="BY115" s="1"/>
+      <c r="BZ115" s="1"/>
     </row>
     <row r="116" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="A116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -11215,56 +11366,54 @@
       <c r="AJ116" s="4"/>
       <c r="AK116" s="4"/>
       <c r="AL116" s="4"/>
-      <c r="AM116" s="5"/>
-      <c r="AN116" s="4"/>
-      <c r="AO116" s="4"/>
-      <c r="AP116" s="4"/>
-      <c r="AQ116" s="4"/>
-      <c r="AR116" s="4"/>
-      <c r="AS116" s="4"/>
-      <c r="AT116" s="4"/>
-      <c r="AU116" s="4"/>
-      <c r="AV116" s="4"/>
-      <c r="AW116" s="4"/>
-      <c r="AX116" s="4"/>
-      <c r="AY116" s="4"/>
-      <c r="AZ116" s="4"/>
-      <c r="BA116" s="4"/>
-      <c r="BB116" s="4"/>
-      <c r="BC116" s="4"/>
-      <c r="BD116" s="4"/>
-      <c r="BE116" s="4"/>
-      <c r="BF116" s="4"/>
-      <c r="BG116" s="4"/>
-      <c r="BH116" s="4"/>
-      <c r="BI116" s="4"/>
-      <c r="BJ116" s="4"/>
-      <c r="BK116" s="4"/>
-      <c r="BL116" s="4"/>
-      <c r="BM116" s="4"/>
-      <c r="BN116" s="4"/>
-      <c r="BO116" s="4"/>
-      <c r="BP116" s="4"/>
-      <c r="BQ116" s="4"/>
-      <c r="BR116" s="4"/>
-      <c r="BS116" s="4"/>
-      <c r="BT116" s="4"/>
-      <c r="BU116" s="4"/>
-      <c r="BV116" s="4"/>
-      <c r="BW116" s="4"/>
-      <c r="BX116" s="6"/>
+      <c r="AM116" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN116" s="3"/>
+      <c r="AO116" s="3"/>
+      <c r="AP116" s="3"/>
+      <c r="AQ116" s="3"/>
+      <c r="AR116" s="3"/>
+      <c r="AS116" s="3"/>
+      <c r="AT116" s="3"/>
+      <c r="AU116" s="3"/>
+      <c r="AV116" s="3"/>
+      <c r="AW116" s="3"/>
+      <c r="AX116" s="3"/>
+      <c r="AY116" s="3"/>
+      <c r="AZ116" s="3"/>
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+      <c r="BD116" s="3"/>
+      <c r="BE116" s="3"/>
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+      <c r="BI116" s="3"/>
+      <c r="BJ116" s="3"/>
+      <c r="BK116" s="3"/>
+      <c r="BL116" s="3"/>
+      <c r="BM116" s="3"/>
+      <c r="BN116" s="3"/>
+      <c r="BO116" s="3"/>
+      <c r="BP116" s="3"/>
+      <c r="BQ116" s="3"/>
+      <c r="BR116" s="3"/>
+      <c r="BS116" s="3"/>
+      <c r="BT116" s="3"/>
+      <c r="BU116" s="3"/>
+      <c r="BV116" s="3"/>
+      <c r="BW116" s="3"/>
+      <c r="BX116" s="18"/>
       <c r="BY116" s="4"/>
       <c r="BZ116" s="4"/>
     </row>
     <row r="117" spans="1:78" ht="14.25" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -11301,9 +11450,7 @@
       <c r="AL117" s="4"/>
       <c r="AM117" s="5"/>
       <c r="AN117" s="4"/>
-      <c r="AO117" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="AO117" s="4"/>
       <c r="AP117" s="4"/>
       <c r="AQ117" s="4"/>
       <c r="AR117" s="4"/>
@@ -11344,7 +11491,9 @@
     </row>
     <row r="118" spans="1:78" ht="14.25" customHeight="1">
       <c r="A118" s="7"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -11380,13 +11529,13 @@
       <c r="AI118" s="4"/>
       <c r="AJ118" s="4"/>
       <c r="AK118" s="4"/>
-      <c r="AL118" s="8"/>
+      <c r="AL118" s="4"/>
       <c r="AM118" s="5"/>
-      <c r="AN118" s="4"/>
+      <c r="AN118" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="AO118" s="4"/>
-      <c r="AP118" s="50" t="s">
-        <v>103</v>
-      </c>
+      <c r="AP118" s="4"/>
       <c r="AQ118" s="4"/>
       <c r="AR118" s="4"/>
       <c r="AS118" s="4"/>
@@ -11428,13 +11577,9 @@
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -11466,10 +11611,16 @@
       <c r="AI119" s="4"/>
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
-      <c r="AL119" s="8"/>
+      <c r="AL119" s="4"/>
       <c r="AM119" s="5"/>
       <c r="AN119" s="4"/>
       <c r="AO119" s="4"/>
+      <c r="AP119" s="4"/>
+      <c r="AQ119" s="4"/>
+      <c r="AR119" s="4"/>
+      <c r="AS119" s="4"/>
+      <c r="AT119" s="4"/>
+      <c r="AU119" s="4"/>
       <c r="AV119" s="4"/>
       <c r="AW119" s="4"/>
       <c r="AX119" s="4"/>
@@ -11505,8 +11656,12 @@
     <row r="120" spans="1:78" ht="14.25" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="C120" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -11540,22 +11695,18 @@
       <c r="AI120" s="4"/>
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
-      <c r="AL120" s="8"/>
+      <c r="AL120" s="4"/>
       <c r="AM120" s="5"/>
       <c r="AN120" s="4"/>
-      <c r="AO120" s="4"/>
-      <c r="AP120" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="AO120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP120" s="4"/>
       <c r="AQ120" s="4"/>
       <c r="AR120" s="4"/>
       <c r="AS120" s="4"/>
-      <c r="AT120" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU120" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="AT120" s="4"/>
+      <c r="AU120" s="4"/>
       <c r="AV120" s="4"/>
       <c r="AW120" s="4"/>
       <c r="AX120" s="4"/>
@@ -11630,18 +11781,14 @@
       <c r="AM121" s="5"/>
       <c r="AN121" s="4"/>
       <c r="AO121" s="4"/>
-      <c r="AP121" s="4" t="s">
-        <v>34</v>
+      <c r="AP121" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="AQ121" s="4"/>
       <c r="AR121" s="4"/>
       <c r="AS121" s="4"/>
-      <c r="AT121" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU121" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="AT121" s="4"/>
+      <c r="AU121" s="4"/>
       <c r="AV121" s="4"/>
       <c r="AW121" s="4"/>
       <c r="AX121" s="4"/>
@@ -11678,9 +11825,13 @@
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="F122" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -11716,36 +11867,26 @@
       <c r="AM122" s="5"/>
       <c r="AN122" s="4"/>
       <c r="AO122" s="4"/>
-      <c r="AP122" s="20"/>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU122" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="20"/>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="20"/>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="20"/>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="20"/>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="20"/>
-      <c r="BO122" s="20"/>
+      <c r="AV122" s="4"/>
+      <c r="AW122" s="4"/>
+      <c r="AX122" s="4"/>
+      <c r="AY122" s="4"/>
+      <c r="AZ122" s="4"/>
+      <c r="BA122" s="4"/>
+      <c r="BB122" s="4"/>
+      <c r="BC122" s="4"/>
+      <c r="BD122" s="4"/>
+      <c r="BE122" s="4"/>
+      <c r="BF122" s="4"/>
+      <c r="BG122" s="4"/>
+      <c r="BH122" s="4"/>
+      <c r="BI122" s="4"/>
+      <c r="BJ122" s="4"/>
+      <c r="BK122" s="4"/>
+      <c r="BL122" s="4"/>
+      <c r="BM122" s="4"/>
+      <c r="BN122" s="4"/>
+      <c r="BO122" s="4"/>
       <c r="BP122" s="4"/>
       <c r="BQ122" s="4"/>
       <c r="BR122" s="4"/>
@@ -11800,32 +11941,38 @@
       <c r="AM123" s="5"/>
       <c r="AN123" s="4"/>
       <c r="AO123" s="4"/>
-      <c r="AP123" s="20"/>
-      <c r="AQ123" s="20"/>
-      <c r="AR123" s="20"/>
-      <c r="AS123" s="20"/>
-      <c r="AT123" s="20"/>
-      <c r="AU123" s="20"/>
-      <c r="AV123" s="20"/>
-      <c r="AW123" s="21"/>
-      <c r="AX123" s="20"/>
-      <c r="AY123" s="20"/>
-      <c r="AZ123" s="20"/>
-      <c r="BA123" s="20"/>
-      <c r="BB123" s="20"/>
-      <c r="BC123" s="20"/>
-      <c r="BD123" s="20"/>
-      <c r="BE123" s="20"/>
-      <c r="BF123" s="20"/>
-      <c r="BG123" s="20"/>
-      <c r="BH123" s="20"/>
-      <c r="BI123" s="20"/>
-      <c r="BJ123" s="20"/>
-      <c r="BK123" s="20"/>
-      <c r="BL123" s="20"/>
-      <c r="BM123" s="20"/>
-      <c r="BN123" s="20"/>
-      <c r="BO123" s="20"/>
+      <c r="AP123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ123" s="4"/>
+      <c r="AR123" s="4"/>
+      <c r="AS123" s="4"/>
+      <c r="AT123" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU123" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV123" s="4"/>
+      <c r="AW123" s="4"/>
+      <c r="AX123" s="4"/>
+      <c r="AY123" s="4"/>
+      <c r="AZ123" s="4"/>
+      <c r="BA123" s="4"/>
+      <c r="BB123" s="4"/>
+      <c r="BC123" s="4"/>
+      <c r="BD123" s="4"/>
+      <c r="BE123" s="4"/>
+      <c r="BF123" s="4"/>
+      <c r="BG123" s="4"/>
+      <c r="BH123" s="4"/>
+      <c r="BI123" s="4"/>
+      <c r="BJ123" s="4"/>
+      <c r="BK123" s="4"/>
+      <c r="BL123" s="4"/>
+      <c r="BM123" s="4"/>
+      <c r="BN123" s="4"/>
+      <c r="BO123" s="4"/>
       <c r="BP123" s="4"/>
       <c r="BQ123" s="4"/>
       <c r="BR123" s="4"/>
@@ -11879,35 +12026,39 @@
       <c r="AL124" s="8"/>
       <c r="AM124" s="5"/>
       <c r="AN124" s="4"/>
-      <c r="AO124" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP124" s="20"/>
-      <c r="AQ124" s="20"/>
-      <c r="AR124" s="20"/>
-      <c r="AS124" s="20"/>
-      <c r="AT124" s="20"/>
-      <c r="AU124" s="20"/>
-      <c r="AV124" s="20"/>
-      <c r="AW124" s="20"/>
-      <c r="AX124" s="20"/>
-      <c r="AY124" s="20"/>
-      <c r="AZ124" s="20"/>
-      <c r="BA124" s="20"/>
-      <c r="BB124" s="20"/>
-      <c r="BC124" s="20"/>
-      <c r="BD124" s="20"/>
-      <c r="BE124" s="20"/>
-      <c r="BF124" s="20"/>
-      <c r="BG124" s="20"/>
-      <c r="BH124" s="20"/>
-      <c r="BI124" s="20"/>
-      <c r="BJ124" s="20"/>
-      <c r="BK124" s="20"/>
-      <c r="BL124" s="20"/>
-      <c r="BM124" s="20"/>
-      <c r="BN124" s="20"/>
-      <c r="BO124" s="20"/>
+      <c r="AO124" s="4"/>
+      <c r="AP124" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ124" s="4"/>
+      <c r="AR124" s="4"/>
+      <c r="AS124" s="4"/>
+      <c r="AT124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU124" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV124" s="4"/>
+      <c r="AW124" s="4"/>
+      <c r="AX124" s="4"/>
+      <c r="AY124" s="4"/>
+      <c r="AZ124" s="4"/>
+      <c r="BA124" s="4"/>
+      <c r="BB124" s="4"/>
+      <c r="BC124" s="4"/>
+      <c r="BD124" s="4"/>
+      <c r="BE124" s="4"/>
+      <c r="BF124" s="4"/>
+      <c r="BG124" s="4"/>
+      <c r="BH124" s="4"/>
+      <c r="BI124" s="4"/>
+      <c r="BJ124" s="4"/>
+      <c r="BK124" s="4"/>
+      <c r="BL124" s="4"/>
+      <c r="BM124" s="4"/>
+      <c r="BN124" s="4"/>
+      <c r="BO124" s="4"/>
       <c r="BP124" s="4"/>
       <c r="BQ124" s="4"/>
       <c r="BR124" s="4"/>
@@ -11966,10 +12117,14 @@
       <c r="AQ125" s="20"/>
       <c r="AR125" s="20"/>
       <c r="AS125" s="20"/>
-      <c r="AT125" s="20"/>
-      <c r="AU125" s="20"/>
+      <c r="AT125" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU125" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="AV125" s="20"/>
-      <c r="AW125" s="20"/>
+      <c r="AW125" s="21"/>
       <c r="AX125" s="20"/>
       <c r="AY125" s="20"/>
       <c r="AZ125" s="20"/>
@@ -12042,18 +12197,14 @@
       <c r="AM126" s="5"/>
       <c r="AN126" s="4"/>
       <c r="AO126" s="4"/>
-      <c r="AP126" s="23" t="s">
-        <v>110</v>
-      </c>
+      <c r="AP126" s="20"/>
       <c r="AQ126" s="20"/>
       <c r="AR126" s="20"/>
-      <c r="AS126" s="52" t="s">
-        <v>44</v>
-      </c>
+      <c r="AS126" s="20"/>
       <c r="AT126" s="20"/>
       <c r="AU126" s="20"/>
       <c r="AV126" s="20"/>
-      <c r="AW126" s="20"/>
+      <c r="AW126" s="21"/>
       <c r="AX126" s="20"/>
       <c r="AY126" s="20"/>
       <c r="AZ126" s="20"/>
@@ -12125,13 +12276,13 @@
       <c r="AL127" s="8"/>
       <c r="AM127" s="5"/>
       <c r="AN127" s="4"/>
-      <c r="AO127" s="4"/>
-      <c r="AP127" s="23"/>
+      <c r="AO127" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP127" s="20"/>
       <c r="AQ127" s="20"/>
       <c r="AR127" s="20"/>
-      <c r="AS127" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="AS127" s="20"/>
       <c r="AT127" s="20"/>
       <c r="AU127" s="20"/>
       <c r="AV127" s="20"/>
@@ -12173,7 +12324,7 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -12289,11 +12440,19 @@
       <c r="AN129" s="4"/>
       <c r="AO129" s="4"/>
       <c r="AP129" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR129" s="22" t="s">
-        <v>56</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AQ129" s="20"/>
+      <c r="AR129" s="20"/>
+      <c r="AS129" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT129" s="20"/>
+      <c r="AU129" s="20"/>
+      <c r="AV129" s="20"/>
+      <c r="AW129" s="20"/>
+      <c r="AX129" s="20"/>
+      <c r="AY129" s="20"/>
       <c r="AZ129" s="20"/>
       <c r="BA129" s="20"/>
       <c r="BB129" s="20"/>
@@ -12364,6 +12523,18 @@
       <c r="AM130" s="5"/>
       <c r="AN130" s="4"/>
       <c r="AO130" s="4"/>
+      <c r="AP130" s="23"/>
+      <c r="AQ130" s="20"/>
+      <c r="AR130" s="20"/>
+      <c r="AS130" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT130" s="20"/>
+      <c r="AU130" s="20"/>
+      <c r="AV130" s="20"/>
+      <c r="AW130" s="20"/>
+      <c r="AX130" s="20"/>
+      <c r="AY130" s="20"/>
       <c r="AZ130" s="20"/>
       <c r="BA130" s="20"/>
       <c r="BB130" s="20"/>
@@ -12399,7 +12570,7 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="G131" s="21"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -12434,20 +12605,16 @@
       <c r="AM131" s="5"/>
       <c r="AN131" s="4"/>
       <c r="AO131" s="4"/>
-      <c r="AQ131" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="AP131" s="20"/>
+      <c r="AQ131" s="20"/>
       <c r="AR131" s="20"/>
       <c r="AS131" s="20"/>
       <c r="AT131" s="20"/>
-      <c r="AU131" s="21"/>
-      <c r="AV131" s="21"/>
-      <c r="AW131" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX131" s="23" t="s">
-        <v>111</v>
-      </c>
+      <c r="AU131" s="20"/>
+      <c r="AV131" s="20"/>
+      <c r="AW131" s="20"/>
+      <c r="AX131" s="20"/>
+      <c r="AY131" s="20"/>
       <c r="AZ131" s="20"/>
       <c r="BA131" s="20"/>
       <c r="BB131" s="20"/>
@@ -12480,7 +12647,7 @@
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="12"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -12518,19 +12685,11 @@
       <c r="AM132" s="5"/>
       <c r="AN132" s="4"/>
       <c r="AO132" s="4"/>
-      <c r="AQ132" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR132" s="20"/>
-      <c r="AS132" s="20"/>
-      <c r="AT132" s="20"/>
-      <c r="AU132" s="21"/>
-      <c r="AV132" s="21"/>
-      <c r="AW132" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX132" s="23" t="s">
-        <v>112</v>
+      <c r="AP132" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR132" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="AZ132" s="20"/>
       <c r="BA132" s="20"/>
@@ -12565,7 +12724,7 @@
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="12"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -12602,20 +12761,6 @@
       <c r="AM133" s="5"/>
       <c r="AN133" s="4"/>
       <c r="AO133" s="4"/>
-      <c r="AQ133" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR133" s="20"/>
-      <c r="AS133" s="20"/>
-      <c r="AT133" s="20"/>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX133" s="23" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ133" s="20"/>
       <c r="BA133" s="20"/>
       <c r="BB133" s="20"/>
@@ -12649,7 +12794,7 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="12"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -12686,8 +12831,8 @@
       <c r="AM134" s="5"/>
       <c r="AN134" s="4"/>
       <c r="AO134" s="4"/>
-      <c r="AQ134" s="23" t="s">
-        <v>72</v>
+      <c r="AQ134" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="AR134" s="20"/>
       <c r="AS134" s="20"/>
@@ -12697,8 +12842,8 @@
       <c r="AW134" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AX134" s="26" t="s">
-        <v>114</v>
+      <c r="AX134" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="AZ134" s="20"/>
       <c r="BA134" s="20"/>
@@ -12716,7 +12861,7 @@
       <c r="BM134" s="20"/>
       <c r="BN134" s="20"/>
       <c r="BO134" s="20"/>
-      <c r="BP134" s="20"/>
+      <c r="BP134" s="4"/>
       <c r="BQ134" s="4"/>
       <c r="BR134" s="4"/>
       <c r="BS134" s="4"/>
@@ -12732,7 +12877,7 @@
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -12756,7 +12901,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
-      <c r="AB135" s="20"/>
+      <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
@@ -12766,19 +12911,23 @@
       <c r="AI135" s="4"/>
       <c r="AJ135" s="4"/>
       <c r="AK135" s="4"/>
-      <c r="AL135" s="4"/>
+      <c r="AL135" s="8"/>
       <c r="AM135" s="5"/>
       <c r="AN135" s="4"/>
       <c r="AO135" s="4"/>
-      <c r="AQ135" s="20"/>
+      <c r="AQ135" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="AR135" s="20"/>
       <c r="AS135" s="20"/>
       <c r="AT135" s="20"/>
-      <c r="AU135" s="20"/>
-      <c r="AV135" s="20"/>
-      <c r="AW135" s="20"/>
-      <c r="AX135" s="39" t="s">
-        <v>75</v>
+      <c r="AU135" s="21"/>
+      <c r="AV135" s="21"/>
+      <c r="AW135" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX135" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="AZ135" s="20"/>
       <c r="BA135" s="20"/>
@@ -12796,7 +12945,7 @@
       <c r="BM135" s="20"/>
       <c r="BN135" s="20"/>
       <c r="BO135" s="20"/>
-      <c r="BP135" s="20"/>
+      <c r="BP135" s="4"/>
       <c r="BQ135" s="4"/>
       <c r="BR135" s="4"/>
       <c r="BS135" s="4"/>
@@ -12813,7 +12962,7 @@
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="12"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -12846,23 +12995,23 @@
       <c r="AI136" s="4"/>
       <c r="AJ136" s="4"/>
       <c r="AK136" s="4"/>
-      <c r="AL136" s="4"/>
+      <c r="AL136" s="8"/>
       <c r="AM136" s="5"/>
       <c r="AN136" s="4"/>
       <c r="AO136" s="4"/>
       <c r="AQ136" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AR136" s="20"/>
       <c r="AS136" s="20"/>
       <c r="AT136" s="20"/>
-      <c r="AU136" s="20"/>
-      <c r="AV136" s="20"/>
+      <c r="AU136" s="21"/>
+      <c r="AV136" s="21"/>
       <c r="AW136" s="20" t="s">
         <v>32</v>
       </c>
       <c r="AX136" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AZ136" s="20"/>
       <c r="BA136" s="20"/>
@@ -12880,7 +13029,7 @@
       <c r="BM136" s="20"/>
       <c r="BN136" s="20"/>
       <c r="BO136" s="20"/>
-      <c r="BP136" s="20"/>
+      <c r="BP136" s="4"/>
       <c r="BQ136" s="4"/>
       <c r="BR136" s="4"/>
       <c r="BS136" s="4"/>
@@ -12897,7 +13046,7 @@
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="12"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -12930,10 +13079,24 @@
       <c r="AI137" s="4"/>
       <c r="AJ137" s="4"/>
       <c r="AK137" s="4"/>
-      <c r="AL137" s="4"/>
+      <c r="AL137" s="8"/>
       <c r="AM137" s="5"/>
       <c r="AN137" s="4"/>
       <c r="AO137" s="4"/>
+      <c r="AQ137" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR137" s="20"/>
+      <c r="AS137" s="20"/>
+      <c r="AT137" s="20"/>
+      <c r="AU137" s="21"/>
+      <c r="AV137" s="21"/>
+      <c r="AW137" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX137" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="AZ137" s="20"/>
       <c r="BA137" s="20"/>
       <c r="BB137" s="20"/>
@@ -12950,7 +13113,7 @@
       <c r="BM137" s="20"/>
       <c r="BN137" s="20"/>
       <c r="BO137" s="20"/>
-      <c r="BP137" s="4"/>
+      <c r="BP137" s="20"/>
       <c r="BQ137" s="4"/>
       <c r="BR137" s="4"/>
       <c r="BS137" s="4"/>
@@ -12990,7 +13153,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
+      <c r="AB138" s="20"/>
       <c r="AC138" s="4"/>
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
@@ -13004,7 +13167,6 @@
       <c r="AM138" s="5"/>
       <c r="AN138" s="4"/>
       <c r="AO138" s="4"/>
-      <c r="AP138" s="20"/>
       <c r="AQ138" s="20"/>
       <c r="AR138" s="20"/>
       <c r="AS138" s="20"/>
@@ -13012,8 +13174,9 @@
       <c r="AU138" s="20"/>
       <c r="AV138" s="20"/>
       <c r="AW138" s="20"/>
-      <c r="AX138" s="20"/>
-      <c r="AY138" s="20"/>
+      <c r="AX138" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="AZ138" s="20"/>
       <c r="BA138" s="20"/>
       <c r="BB138" s="20"/>
@@ -13030,7 +13193,7 @@
       <c r="BM138" s="20"/>
       <c r="BN138" s="20"/>
       <c r="BO138" s="20"/>
-      <c r="BP138" s="4"/>
+      <c r="BP138" s="20"/>
       <c r="BQ138" s="4"/>
       <c r="BR138" s="4"/>
       <c r="BS138" s="4"/>
@@ -13084,16 +13247,20 @@
       <c r="AM139" s="5"/>
       <c r="AN139" s="4"/>
       <c r="AO139" s="4"/>
-      <c r="AP139" s="4"/>
-      <c r="AQ139" s="20"/>
+      <c r="AQ139" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AR139" s="20"/>
       <c r="AS139" s="20"/>
       <c r="AT139" s="20"/>
       <c r="AU139" s="20"/>
       <c r="AV139" s="20"/>
-      <c r="AW139" s="21"/>
-      <c r="AX139" s="21"/>
-      <c r="AY139" s="20"/>
+      <c r="AW139" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX139" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="AZ139" s="20"/>
       <c r="BA139" s="20"/>
       <c r="BB139" s="20"/>
@@ -13164,16 +13331,6 @@
       <c r="AM140" s="5"/>
       <c r="AN140" s="4"/>
       <c r="AO140" s="4"/>
-      <c r="AP140" s="4"/>
-      <c r="AQ140" s="20"/>
-      <c r="AR140" s="20"/>
-      <c r="AS140" s="20"/>
-      <c r="AT140" s="20"/>
-      <c r="AU140" s="20"/>
-      <c r="AV140" s="20"/>
-      <c r="AW140" s="21"/>
-      <c r="AX140" s="21"/>
-      <c r="AY140" s="20"/>
       <c r="AZ140" s="20"/>
       <c r="BA140" s="20"/>
       <c r="BB140" s="20"/>
@@ -13190,7 +13347,7 @@
       <c r="BM140" s="20"/>
       <c r="BN140" s="20"/>
       <c r="BO140" s="20"/>
-      <c r="BP140" s="20"/>
+      <c r="BP140" s="4"/>
       <c r="BQ140" s="4"/>
       <c r="BR140" s="4"/>
       <c r="BS140" s="4"/>
@@ -13244,15 +13401,15 @@
       <c r="AM141" s="5"/>
       <c r="AN141" s="4"/>
       <c r="AO141" s="4"/>
-      <c r="AP141" s="4"/>
+      <c r="AP141" s="20"/>
       <c r="AQ141" s="20"/>
       <c r="AR141" s="20"/>
       <c r="AS141" s="20"/>
       <c r="AT141" s="20"/>
       <c r="AU141" s="20"/>
       <c r="AV141" s="20"/>
-      <c r="AW141" s="21"/>
-      <c r="AX141" s="21"/>
+      <c r="AW141" s="20"/>
+      <c r="AX141" s="20"/>
       <c r="AY141" s="20"/>
       <c r="AZ141" s="20"/>
       <c r="BA141" s="20"/>
@@ -13270,7 +13427,7 @@
       <c r="BM141" s="20"/>
       <c r="BN141" s="20"/>
       <c r="BO141" s="20"/>
-      <c r="BP141" s="20"/>
+      <c r="BP141" s="4"/>
       <c r="BQ141" s="4"/>
       <c r="BR141" s="4"/>
       <c r="BS141" s="4"/>
@@ -13327,14 +13484,14 @@
       <c r="AP142" s="4"/>
       <c r="AQ142" s="20"/>
       <c r="AR142" s="20"/>
-      <c r="AS142" s="23"/>
+      <c r="AS142" s="20"/>
       <c r="AT142" s="20"/>
       <c r="AU142" s="20"/>
       <c r="AV142" s="20"/>
       <c r="AW142" s="21"/>
       <c r="AX142" s="21"/>
       <c r="AY142" s="20"/>
-      <c r="AZ142" s="26"/>
+      <c r="AZ142" s="20"/>
       <c r="BA142" s="20"/>
       <c r="BB142" s="20"/>
       <c r="BC142" s="20"/>
@@ -13365,6 +13522,17 @@
     <row r="143" spans="1:78" ht="14.25" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
@@ -13400,10 +13568,10 @@
       <c r="AT143" s="20"/>
       <c r="AU143" s="20"/>
       <c r="AV143" s="20"/>
-      <c r="AW143" s="20"/>
-      <c r="AX143" s="20"/>
+      <c r="AW143" s="21"/>
+      <c r="AX143" s="21"/>
       <c r="AY143" s="20"/>
-      <c r="AZ143" s="27"/>
+      <c r="AZ143" s="20"/>
       <c r="BA143" s="20"/>
       <c r="BB143" s="20"/>
       <c r="BC143" s="20"/>
@@ -13434,6 +13602,17 @@
     <row r="144" spans="1:78" ht="14.25" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
@@ -13469,8 +13648,8 @@
       <c r="AT144" s="20"/>
       <c r="AU144" s="20"/>
       <c r="AV144" s="20"/>
-      <c r="AW144" s="20"/>
-      <c r="AX144" s="20"/>
+      <c r="AW144" s="21"/>
+      <c r="AX144" s="21"/>
       <c r="AY144" s="20"/>
       <c r="AZ144" s="20"/>
       <c r="BA144" s="20"/>
@@ -13503,6 +13682,17 @@
     <row r="145" spans="1:78" ht="14.25" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -13530,6 +13720,32 @@
       <c r="AL145" s="4"/>
       <c r="AM145" s="5"/>
       <c r="AN145" s="4"/>
+      <c r="AO145" s="4"/>
+      <c r="AP145" s="4"/>
+      <c r="AQ145" s="20"/>
+      <c r="AR145" s="20"/>
+      <c r="AS145" s="23"/>
+      <c r="AT145" s="20"/>
+      <c r="AU145" s="20"/>
+      <c r="AV145" s="20"/>
+      <c r="AW145" s="21"/>
+      <c r="AX145" s="21"/>
+      <c r="AY145" s="20"/>
+      <c r="AZ145" s="26"/>
+      <c r="BA145" s="20"/>
+      <c r="BB145" s="20"/>
+      <c r="BC145" s="20"/>
+      <c r="BD145" s="20"/>
+      <c r="BE145" s="20"/>
+      <c r="BF145" s="20"/>
+      <c r="BG145" s="20"/>
+      <c r="BH145" s="20"/>
+      <c r="BI145" s="20"/>
+      <c r="BJ145" s="20"/>
+      <c r="BK145" s="20"/>
+      <c r="BL145" s="20"/>
+      <c r="BM145" s="20"/>
+      <c r="BN145" s="20"/>
       <c r="BO145" s="20"/>
       <c r="BP145" s="20"/>
       <c r="BQ145" s="4"/>
@@ -13573,6 +13789,32 @@
       <c r="AL146" s="4"/>
       <c r="AM146" s="5"/>
       <c r="AN146" s="4"/>
+      <c r="AO146" s="4"/>
+      <c r="AP146" s="4"/>
+      <c r="AQ146" s="20"/>
+      <c r="AR146" s="20"/>
+      <c r="AS146" s="20"/>
+      <c r="AT146" s="20"/>
+      <c r="AU146" s="20"/>
+      <c r="AV146" s="20"/>
+      <c r="AW146" s="20"/>
+      <c r="AX146" s="20"/>
+      <c r="AY146" s="20"/>
+      <c r="AZ146" s="27"/>
+      <c r="BA146" s="20"/>
+      <c r="BB146" s="20"/>
+      <c r="BC146" s="20"/>
+      <c r="BD146" s="20"/>
+      <c r="BE146" s="20"/>
+      <c r="BF146" s="20"/>
+      <c r="BG146" s="20"/>
+      <c r="BH146" s="20"/>
+      <c r="BI146" s="20"/>
+      <c r="BJ146" s="20"/>
+      <c r="BK146" s="20"/>
+      <c r="BL146" s="20"/>
+      <c r="BM146" s="20"/>
+      <c r="BN146" s="20"/>
       <c r="BO146" s="20"/>
       <c r="BP146" s="20"/>
       <c r="BQ146" s="4"/>
@@ -13617,6 +13859,20 @@
       <c r="AM147" s="5"/>
       <c r="AN147" s="4"/>
       <c r="AO147" s="4"/>
+      <c r="AP147" s="4"/>
+      <c r="AQ147" s="20"/>
+      <c r="AR147" s="20"/>
+      <c r="AS147" s="20"/>
+      <c r="AT147" s="20"/>
+      <c r="AU147" s="20"/>
+      <c r="AV147" s="20"/>
+      <c r="AW147" s="20"/>
+      <c r="AX147" s="20"/>
+      <c r="AY147" s="20"/>
+      <c r="AZ147" s="20"/>
+      <c r="BA147" s="20"/>
+      <c r="BB147" s="20"/>
+      <c r="BC147" s="20"/>
       <c r="BD147" s="20"/>
       <c r="BE147" s="20"/>
       <c r="BF147" s="20"/>
@@ -13671,12 +13927,6 @@
       <c r="AL148" s="4"/>
       <c r="AM148" s="5"/>
       <c r="AN148" s="4"/>
-      <c r="AO148" s="4"/>
-      <c r="BJ148" s="20"/>
-      <c r="BK148" s="20"/>
-      <c r="BL148" s="20"/>
-      <c r="BM148" s="20"/>
-      <c r="BN148" s="20"/>
       <c r="BO148" s="20"/>
       <c r="BP148" s="20"/>
       <c r="BQ148" s="4"/>
@@ -13693,17 +13943,6 @@
     <row r="149" spans="1:78" ht="14.25" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
@@ -13731,34 +13970,8 @@
       <c r="AL149" s="4"/>
       <c r="AM149" s="5"/>
       <c r="AN149" s="4"/>
-      <c r="AO149" s="4"/>
-      <c r="AP149" s="4"/>
-      <c r="AQ149" s="4"/>
-      <c r="AR149" s="4"/>
-      <c r="AS149" s="4"/>
-      <c r="AT149" s="4"/>
-      <c r="AU149" s="4"/>
-      <c r="AV149" s="4"/>
-      <c r="AW149" s="4"/>
-      <c r="AX149" s="4"/>
-      <c r="AY149" s="4"/>
-      <c r="AZ149" s="4"/>
-      <c r="BA149" s="4"/>
-      <c r="BB149" s="4"/>
-      <c r="BC149" s="4"/>
-      <c r="BD149" s="4"/>
-      <c r="BE149" s="4"/>
-      <c r="BF149" s="4"/>
-      <c r="BG149" s="4"/>
-      <c r="BH149" s="4"/>
-      <c r="BI149" s="4"/>
-      <c r="BJ149" s="4"/>
-      <c r="BK149" s="4"/>
-      <c r="BL149" s="4"/>
-      <c r="BM149" s="4"/>
-      <c r="BN149" s="4"/>
-      <c r="BO149" s="4"/>
-      <c r="BP149" s="4"/>
+      <c r="BO149" s="20"/>
+      <c r="BP149" s="20"/>
       <c r="BQ149" s="4"/>
       <c r="BR149" s="4"/>
       <c r="BS149" s="4"/>
@@ -13770,535 +13983,472 @@
       <c r="BY149" s="4"/>
       <c r="BZ149" s="4"/>
     </row>
-    <row r="150" spans="1:78" ht="13.5">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="14"/>
-      <c r="M150" s="14"/>
-      <c r="N150" s="14"/>
-      <c r="O150" s="14"/>
-      <c r="P150" s="14"/>
-      <c r="Q150" s="14"/>
-      <c r="R150" s="14"/>
-      <c r="S150" s="14"/>
-      <c r="T150" s="14"/>
-      <c r="U150" s="14"/>
-      <c r="V150" s="14"/>
-      <c r="W150" s="14"/>
-      <c r="X150" s="14"/>
-      <c r="Y150" s="14"/>
-      <c r="Z150" s="14"/>
-      <c r="AA150" s="14"/>
-      <c r="AB150" s="14"/>
-      <c r="AC150" s="14"/>
-      <c r="AD150" s="14"/>
-      <c r="AE150" s="14"/>
-      <c r="AF150" s="14"/>
-      <c r="AG150" s="14"/>
-      <c r="AH150" s="14"/>
-      <c r="AI150" s="14"/>
-      <c r="AJ150" s="14"/>
-      <c r="AK150" s="14"/>
-      <c r="AL150" s="14"/>
-      <c r="AM150" s="15"/>
-      <c r="AN150" s="14"/>
-      <c r="AO150" s="14"/>
-      <c r="AP150" s="14"/>
-      <c r="AQ150" s="14"/>
-      <c r="AR150" s="14"/>
-      <c r="AS150" s="14"/>
-      <c r="AT150" s="14"/>
-      <c r="AU150" s="14"/>
-      <c r="AV150" s="14"/>
-      <c r="AW150" s="14"/>
-      <c r="AX150" s="14"/>
-      <c r="AY150" s="14"/>
-      <c r="AZ150" s="14"/>
-      <c r="BA150" s="14"/>
-      <c r="BB150" s="14"/>
-      <c r="BC150" s="14"/>
-      <c r="BD150" s="14"/>
-      <c r="BE150" s="14"/>
-      <c r="BF150" s="14"/>
-      <c r="BG150" s="14"/>
-      <c r="BH150" s="14"/>
-      <c r="BI150" s="14"/>
-      <c r="BJ150" s="14"/>
-      <c r="BK150" s="14"/>
-      <c r="BL150" s="14"/>
-      <c r="BM150" s="14"/>
-      <c r="BN150" s="14"/>
-      <c r="BO150" s="14"/>
-      <c r="BP150" s="14"/>
-      <c r="BQ150" s="14"/>
-      <c r="BR150" s="14"/>
-      <c r="BS150" s="14"/>
-      <c r="BT150" s="14"/>
-      <c r="BU150" s="14"/>
-      <c r="BV150" s="14"/>
-      <c r="BW150" s="14"/>
-      <c r="BX150" s="16"/>
+    <row r="150" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A150" s="7"/>
+      <c r="B150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="4"/>
+      <c r="AD150" s="4"/>
+      <c r="AE150" s="4"/>
+      <c r="AF150" s="4"/>
+      <c r="AG150" s="4"/>
+      <c r="AH150" s="4"/>
+      <c r="AI150" s="4"/>
+      <c r="AJ150" s="4"/>
+      <c r="AK150" s="4"/>
+      <c r="AL150" s="4"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="4"/>
+      <c r="AO150" s="4"/>
+      <c r="BD150" s="20"/>
+      <c r="BE150" s="20"/>
+      <c r="BF150" s="20"/>
+      <c r="BG150" s="20"/>
+      <c r="BH150" s="20"/>
+      <c r="BI150" s="20"/>
+      <c r="BJ150" s="20"/>
+      <c r="BK150" s="20"/>
+      <c r="BL150" s="20"/>
+      <c r="BM150" s="20"/>
+      <c r="BN150" s="20"/>
+      <c r="BO150" s="20"/>
+      <c r="BP150" s="20"/>
+      <c r="BQ150" s="4"/>
+      <c r="BR150" s="4"/>
+      <c r="BS150" s="4"/>
+      <c r="BT150" s="4"/>
+      <c r="BU150" s="4"/>
+      <c r="BV150" s="4"/>
+      <c r="BW150" s="4"/>
+      <c r="BX150" s="6"/>
       <c r="BY150" s="4"/>
       <c r="BZ150" s="4"/>
     </row>
-    <row r="151" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A151" s="66" t="s">
+    <row r="151" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A151" s="7"/>
+      <c r="B151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
+      <c r="AA151" s="4"/>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="4"/>
+      <c r="AD151" s="4"/>
+      <c r="AE151" s="4"/>
+      <c r="AF151" s="4"/>
+      <c r="AG151" s="4"/>
+      <c r="AH151" s="4"/>
+      <c r="AI151" s="4"/>
+      <c r="AJ151" s="4"/>
+      <c r="AK151" s="4"/>
+      <c r="AL151" s="4"/>
+      <c r="AM151" s="5"/>
+      <c r="AN151" s="4"/>
+      <c r="AO151" s="4"/>
+      <c r="BJ151" s="20"/>
+      <c r="BK151" s="20"/>
+      <c r="BL151" s="20"/>
+      <c r="BM151" s="20"/>
+      <c r="BN151" s="20"/>
+      <c r="BO151" s="20"/>
+      <c r="BP151" s="20"/>
+      <c r="BQ151" s="4"/>
+      <c r="BR151" s="4"/>
+      <c r="BS151" s="4"/>
+      <c r="BT151" s="4"/>
+      <c r="BU151" s="4"/>
+      <c r="BV151" s="4"/>
+      <c r="BW151" s="4"/>
+      <c r="BX151" s="6"/>
+      <c r="BY151" s="4"/>
+      <c r="BZ151" s="4"/>
+    </row>
+    <row r="152" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A152" s="7"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="4"/>
+      <c r="AD152" s="4"/>
+      <c r="AE152" s="4"/>
+      <c r="AF152" s="4"/>
+      <c r="AG152" s="4"/>
+      <c r="AH152" s="4"/>
+      <c r="AI152" s="4"/>
+      <c r="AJ152" s="4"/>
+      <c r="AK152" s="4"/>
+      <c r="AL152" s="4"/>
+      <c r="AM152" s="5"/>
+      <c r="AN152" s="4"/>
+      <c r="AO152" s="4"/>
+      <c r="AP152" s="4"/>
+      <c r="AQ152" s="4"/>
+      <c r="AR152" s="4"/>
+      <c r="AS152" s="4"/>
+      <c r="AT152" s="4"/>
+      <c r="AU152" s="4"/>
+      <c r="AV152" s="4"/>
+      <c r="AW152" s="4"/>
+      <c r="AX152" s="4"/>
+      <c r="AY152" s="4"/>
+      <c r="AZ152" s="4"/>
+      <c r="BA152" s="4"/>
+      <c r="BB152" s="4"/>
+      <c r="BC152" s="4"/>
+      <c r="BD152" s="4"/>
+      <c r="BE152" s="4"/>
+      <c r="BF152" s="4"/>
+      <c r="BG152" s="4"/>
+      <c r="BH152" s="4"/>
+      <c r="BI152" s="4"/>
+      <c r="BJ152" s="4"/>
+      <c r="BK152" s="4"/>
+      <c r="BL152" s="4"/>
+      <c r="BM152" s="4"/>
+      <c r="BN152" s="4"/>
+      <c r="BO152" s="4"/>
+      <c r="BP152" s="4"/>
+      <c r="BQ152" s="4"/>
+      <c r="BR152" s="4"/>
+      <c r="BS152" s="4"/>
+      <c r="BT152" s="4"/>
+      <c r="BU152" s="4"/>
+      <c r="BV152" s="4"/>
+      <c r="BW152" s="4"/>
+      <c r="BX152" s="6"/>
+      <c r="BY152" s="4"/>
+      <c r="BZ152" s="4"/>
+    </row>
+    <row r="153" spans="1:78" ht="13.5">
+      <c r="A153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="14"/>
+      <c r="U153" s="14"/>
+      <c r="V153" s="14"/>
+      <c r="W153" s="14"/>
+      <c r="X153" s="14"/>
+      <c r="Y153" s="14"/>
+      <c r="Z153" s="14"/>
+      <c r="AA153" s="14"/>
+      <c r="AB153" s="14"/>
+      <c r="AC153" s="14"/>
+      <c r="AD153" s="14"/>
+      <c r="AE153" s="14"/>
+      <c r="AF153" s="14"/>
+      <c r="AG153" s="14"/>
+      <c r="AH153" s="14"/>
+      <c r="AI153" s="14"/>
+      <c r="AJ153" s="14"/>
+      <c r="AK153" s="14"/>
+      <c r="AL153" s="14"/>
+      <c r="AM153" s="15"/>
+      <c r="AN153" s="14"/>
+      <c r="AO153" s="14"/>
+      <c r="AP153" s="14"/>
+      <c r="AQ153" s="14"/>
+      <c r="AR153" s="14"/>
+      <c r="AS153" s="14"/>
+      <c r="AT153" s="14"/>
+      <c r="AU153" s="14"/>
+      <c r="AV153" s="14"/>
+      <c r="AW153" s="14"/>
+      <c r="AX153" s="14"/>
+      <c r="AY153" s="14"/>
+      <c r="AZ153" s="14"/>
+      <c r="BA153" s="14"/>
+      <c r="BB153" s="14"/>
+      <c r="BC153" s="14"/>
+      <c r="BD153" s="14"/>
+      <c r="BE153" s="14"/>
+      <c r="BF153" s="14"/>
+      <c r="BG153" s="14"/>
+      <c r="BH153" s="14"/>
+      <c r="BI153" s="14"/>
+      <c r="BJ153" s="14"/>
+      <c r="BK153" s="14"/>
+      <c r="BL153" s="14"/>
+      <c r="BM153" s="14"/>
+      <c r="BN153" s="14"/>
+      <c r="BO153" s="14"/>
+      <c r="BP153" s="14"/>
+      <c r="BQ153" s="14"/>
+      <c r="BR153" s="14"/>
+      <c r="BS153" s="14"/>
+      <c r="BT153" s="14"/>
+      <c r="BU153" s="14"/>
+      <c r="BV153" s="14"/>
+      <c r="BW153" s="14"/>
+      <c r="BX153" s="16"/>
+      <c r="BY153" s="4"/>
+      <c r="BZ153" s="4"/>
+    </row>
+    <row r="154" spans="1:78" ht="27.75" customHeight="1">
+      <c r="A154" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="55" t="str">
+      <c r="B154" s="64"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="78" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="56"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="56"/>
-      <c r="P151" s="56"/>
-      <c r="Q151" s="56"/>
-      <c r="R151" s="56"/>
-      <c r="S151" s="56"/>
-      <c r="T151" s="56"/>
-      <c r="U151" s="56"/>
-      <c r="V151" s="56"/>
-      <c r="W151" s="56"/>
-      <c r="X151" s="56"/>
-      <c r="Y151" s="56"/>
-      <c r="Z151" s="56"/>
-      <c r="AA151" s="56"/>
-      <c r="AB151" s="56"/>
-      <c r="AC151" s="56"/>
-      <c r="AD151" s="56"/>
-      <c r="AE151" s="56"/>
-      <c r="AF151" s="56"/>
-      <c r="AG151" s="56"/>
-      <c r="AH151" s="56"/>
-      <c r="AI151" s="56"/>
-      <c r="AJ151" s="56"/>
-      <c r="AK151" s="56"/>
-      <c r="AL151" s="56"/>
-      <c r="AM151" s="56"/>
-      <c r="AN151" s="56"/>
-      <c r="AO151" s="56"/>
-      <c r="AP151" s="56"/>
-      <c r="AQ151" s="56"/>
-      <c r="AR151" s="56"/>
-      <c r="AS151" s="56"/>
-      <c r="AT151" s="56"/>
-      <c r="AU151" s="56"/>
-      <c r="AV151" s="57"/>
-      <c r="AW151" s="58" t="s">
+      <c r="G154" s="64"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="64"/>
+      <c r="M154" s="64"/>
+      <c r="N154" s="64"/>
+      <c r="O154" s="64"/>
+      <c r="P154" s="64"/>
+      <c r="Q154" s="64"/>
+      <c r="R154" s="64"/>
+      <c r="S154" s="64"/>
+      <c r="T154" s="64"/>
+      <c r="U154" s="64"/>
+      <c r="V154" s="64"/>
+      <c r="W154" s="64"/>
+      <c r="X154" s="64"/>
+      <c r="Y154" s="64"/>
+      <c r="Z154" s="64"/>
+      <c r="AA154" s="64"/>
+      <c r="AB154" s="64"/>
+      <c r="AC154" s="64"/>
+      <c r="AD154" s="64"/>
+      <c r="AE154" s="64"/>
+      <c r="AF154" s="64"/>
+      <c r="AG154" s="64"/>
+      <c r="AH154" s="64"/>
+      <c r="AI154" s="64"/>
+      <c r="AJ154" s="64"/>
+      <c r="AK154" s="64"/>
+      <c r="AL154" s="64"/>
+      <c r="AM154" s="64"/>
+      <c r="AN154" s="64"/>
+      <c r="AO154" s="64"/>
+      <c r="AP154" s="64"/>
+      <c r="AQ154" s="64"/>
+      <c r="AR154" s="64"/>
+      <c r="AS154" s="64"/>
+      <c r="AT154" s="64"/>
+      <c r="AU154" s="64"/>
+      <c r="AV154" s="71"/>
+      <c r="AW154" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AX151" s="56"/>
-      <c r="AY151" s="56"/>
-      <c r="AZ151" s="56"/>
-      <c r="BA151" s="57"/>
-      <c r="BB151" s="64" t="str">
+      <c r="AX154" s="64"/>
+      <c r="AY154" s="64"/>
+      <c r="AZ154" s="64"/>
+      <c r="BA154" s="71"/>
+      <c r="BB154" s="63" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC151" s="56"/>
-      <c r="BD151" s="56"/>
-      <c r="BE151" s="56"/>
-      <c r="BF151" s="56"/>
-      <c r="BG151" s="56"/>
-      <c r="BH151" s="56"/>
-      <c r="BI151" s="56"/>
-      <c r="BJ151" s="57"/>
-      <c r="BK151" s="58" t="s">
+      <c r="BC154" s="64"/>
+      <c r="BD154" s="64"/>
+      <c r="BE154" s="64"/>
+      <c r="BF154" s="64"/>
+      <c r="BG154" s="64"/>
+      <c r="BH154" s="64"/>
+      <c r="BI154" s="64"/>
+      <c r="BJ154" s="71"/>
+      <c r="BK154" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="BL151" s="56"/>
-      <c r="BM151" s="56"/>
-      <c r="BN151" s="56"/>
-      <c r="BO151" s="57"/>
-      <c r="BP151" s="64" t="str">
+      <c r="BL154" s="64"/>
+      <c r="BM154" s="64"/>
+      <c r="BN154" s="64"/>
+      <c r="BO154" s="71"/>
+      <c r="BP154" s="63" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ151" s="56"/>
-      <c r="BR151" s="56"/>
-      <c r="BS151" s="56"/>
-      <c r="BT151" s="56"/>
-      <c r="BU151" s="56"/>
-      <c r="BV151" s="56"/>
-      <c r="BW151" s="56"/>
-      <c r="BX151" s="69"/>
-      <c r="BY151" s="1"/>
-      <c r="BZ151" s="1"/>
-    </row>
-    <row r="152" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A152" s="65" t="s">
+      <c r="BQ154" s="64"/>
+      <c r="BR154" s="64"/>
+      <c r="BS154" s="64"/>
+      <c r="BT154" s="64"/>
+      <c r="BU154" s="64"/>
+      <c r="BV154" s="64"/>
+      <c r="BW154" s="64"/>
+      <c r="BX154" s="65"/>
+      <c r="BY154" s="1"/>
+      <c r="BZ154" s="1"/>
+    </row>
+    <row r="155" spans="1:78" ht="27.75" customHeight="1">
+      <c r="A155" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="59" t="str">
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="72" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="60"/>
-      <c r="N152" s="60"/>
-      <c r="O152" s="60"/>
-      <c r="P152" s="60"/>
-      <c r="Q152" s="60"/>
-      <c r="R152" s="60"/>
-      <c r="S152" s="60"/>
-      <c r="T152" s="60"/>
-      <c r="U152" s="60"/>
-      <c r="V152" s="60"/>
-      <c r="W152" s="60"/>
-      <c r="X152" s="60"/>
-      <c r="Y152" s="61"/>
-      <c r="Z152" s="62" t="s">
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="67"/>
+      <c r="K155" s="67"/>
+      <c r="L155" s="67"/>
+      <c r="M155" s="67"/>
+      <c r="N155" s="67"/>
+      <c r="O155" s="67"/>
+      <c r="P155" s="67"/>
+      <c r="Q155" s="67"/>
+      <c r="R155" s="67"/>
+      <c r="S155" s="67"/>
+      <c r="T155" s="67"/>
+      <c r="U155" s="67"/>
+      <c r="V155" s="67"/>
+      <c r="W155" s="67"/>
+      <c r="X155" s="67"/>
+      <c r="Y155" s="73"/>
+      <c r="Z155" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA152" s="60"/>
-      <c r="AB152" s="60"/>
-      <c r="AC152" s="60"/>
-      <c r="AD152" s="61"/>
-      <c r="AE152" s="59" t="s">
+      <c r="AA155" s="67"/>
+      <c r="AB155" s="67"/>
+      <c r="AC155" s="67"/>
+      <c r="AD155" s="73"/>
+      <c r="AE155" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="AF152" s="60"/>
-      <c r="AG152" s="60"/>
-      <c r="AH152" s="60"/>
-      <c r="AI152" s="60"/>
-      <c r="AJ152" s="60"/>
-      <c r="AK152" s="60"/>
-      <c r="AL152" s="60"/>
-      <c r="AM152" s="60"/>
-      <c r="AN152" s="60"/>
-      <c r="AO152" s="60"/>
-      <c r="AP152" s="60"/>
-      <c r="AQ152" s="60"/>
-      <c r="AR152" s="60"/>
-      <c r="AS152" s="60"/>
-      <c r="AT152" s="60"/>
-      <c r="AU152" s="60"/>
-      <c r="AV152" s="61"/>
-      <c r="AW152" s="62" t="s">
+      <c r="AF155" s="67"/>
+      <c r="AG155" s="67"/>
+      <c r="AH155" s="67"/>
+      <c r="AI155" s="67"/>
+      <c r="AJ155" s="67"/>
+      <c r="AK155" s="67"/>
+      <c r="AL155" s="67"/>
+      <c r="AM155" s="67"/>
+      <c r="AN155" s="67"/>
+      <c r="AO155" s="67"/>
+      <c r="AP155" s="67"/>
+      <c r="AQ155" s="67"/>
+      <c r="AR155" s="67"/>
+      <c r="AS155" s="67"/>
+      <c r="AT155" s="67"/>
+      <c r="AU155" s="67"/>
+      <c r="AV155" s="73"/>
+      <c r="AW155" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AX152" s="60"/>
-      <c r="AY152" s="60"/>
-      <c r="AZ152" s="60"/>
-      <c r="BA152" s="61"/>
-      <c r="BB152" s="63" t="str">
+      <c r="AX155" s="67"/>
+      <c r="AY155" s="67"/>
+      <c r="AZ155" s="67"/>
+      <c r="BA155" s="73"/>
+      <c r="BB155" s="66" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/10</v>
       </c>
-      <c r="BC152" s="60"/>
-      <c r="BD152" s="60"/>
-      <c r="BE152" s="60"/>
-      <c r="BF152" s="60"/>
-      <c r="BG152" s="60"/>
-      <c r="BH152" s="60"/>
-      <c r="BI152" s="60"/>
-      <c r="BJ152" s="61"/>
-      <c r="BK152" s="62" t="s">
+      <c r="BC155" s="67"/>
+      <c r="BD155" s="67"/>
+      <c r="BE155" s="67"/>
+      <c r="BF155" s="67"/>
+      <c r="BG155" s="67"/>
+      <c r="BH155" s="67"/>
+      <c r="BI155" s="67"/>
+      <c r="BJ155" s="73"/>
+      <c r="BK155" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="BL152" s="60"/>
-      <c r="BM152" s="60"/>
-      <c r="BN152" s="60"/>
-      <c r="BO152" s="61"/>
-      <c r="BP152" s="63" t="str">
+      <c r="BL155" s="67"/>
+      <c r="BM155" s="67"/>
+      <c r="BN155" s="67"/>
+      <c r="BO155" s="73"/>
+      <c r="BP155" s="66" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
-      <c r="BQ152" s="60"/>
-      <c r="BR152" s="60"/>
-      <c r="BS152" s="60"/>
-      <c r="BT152" s="60"/>
-      <c r="BU152" s="60"/>
-      <c r="BV152" s="60"/>
-      <c r="BW152" s="60"/>
-      <c r="BX152" s="70"/>
-      <c r="BY152" s="1"/>
-      <c r="BZ152" s="1"/>
-    </row>
-    <row r="153" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="BQ155" s="67"/>
+      <c r="BR155" s="67"/>
+      <c r="BS155" s="67"/>
+      <c r="BT155" s="67"/>
+      <c r="BU155" s="67"/>
+      <c r="BV155" s="67"/>
+      <c r="BW155" s="67"/>
+      <c r="BX155" s="68"/>
+      <c r="BY155" s="1"/>
+      <c r="BZ155" s="1"/>
+    </row>
+    <row r="156" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A156" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
-      <c r="AA153" s="4"/>
-      <c r="AB153" s="4"/>
-      <c r="AC153" s="4"/>
-      <c r="AD153" s="4"/>
-      <c r="AE153" s="4"/>
-      <c r="AF153" s="4"/>
-      <c r="AG153" s="4"/>
-      <c r="AH153" s="4"/>
-      <c r="AI153" s="4"/>
-      <c r="AJ153" s="4"/>
-      <c r="AK153" s="4"/>
-      <c r="AL153" s="4"/>
-      <c r="AM153" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN153" s="3"/>
-      <c r="AO153" s="3"/>
-      <c r="AP153" s="3"/>
-      <c r="AQ153" s="3"/>
-      <c r="AR153" s="3"/>
-      <c r="AS153" s="3"/>
-      <c r="AT153" s="3"/>
-      <c r="AU153" s="3"/>
-      <c r="AV153" s="3"/>
-      <c r="AW153" s="3"/>
-      <c r="AX153" s="3"/>
-      <c r="AY153" s="3"/>
-      <c r="AZ153" s="3"/>
-      <c r="BA153" s="3"/>
-      <c r="BB153" s="3"/>
-      <c r="BC153" s="3"/>
-      <c r="BD153" s="3"/>
-      <c r="BE153" s="3"/>
-      <c r="BF153" s="3"/>
-      <c r="BG153" s="3"/>
-      <c r="BH153" s="3"/>
-      <c r="BI153" s="3"/>
-      <c r="BJ153" s="3"/>
-      <c r="BK153" s="3"/>
-      <c r="BL153" s="3"/>
-      <c r="BM153" s="3"/>
-      <c r="BN153" s="3"/>
-      <c r="BO153" s="3"/>
-      <c r="BP153" s="3"/>
-      <c r="BQ153" s="3"/>
-      <c r="BR153" s="3"/>
-      <c r="BS153" s="3"/>
-      <c r="BT153" s="3"/>
-      <c r="BU153" s="3"/>
-      <c r="BV153" s="3"/>
-      <c r="BW153" s="3"/>
-      <c r="BX153" s="18"/>
-      <c r="BY153" s="4"/>
-      <c r="BZ153" s="4"/>
-    </row>
-    <row r="154" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A154" s="7"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
-      <c r="Y154" s="4"/>
-      <c r="Z154" s="4"/>
-      <c r="AA154" s="4"/>
-      <c r="AB154" s="4"/>
-      <c r="AC154" s="4"/>
-      <c r="AD154" s="4"/>
-      <c r="AE154" s="4"/>
-      <c r="AF154" s="4"/>
-      <c r="AG154" s="4"/>
-      <c r="AH154" s="4"/>
-      <c r="AI154" s="4"/>
-      <c r="AJ154" s="4"/>
-      <c r="AK154" s="4"/>
-      <c r="AL154" s="4"/>
-      <c r="AM154" s="5"/>
-      <c r="AN154" s="4"/>
-      <c r="AO154" s="4"/>
-      <c r="AP154" s="4"/>
-      <c r="AQ154" s="4"/>
-      <c r="AR154" s="4"/>
-      <c r="AS154" s="4"/>
-      <c r="AT154" s="4"/>
-      <c r="AU154" s="4"/>
-      <c r="AV154" s="4"/>
-      <c r="AW154" s="4"/>
-      <c r="AX154" s="4"/>
-      <c r="AY154" s="4"/>
-      <c r="AZ154" s="4"/>
-      <c r="BA154" s="4"/>
-      <c r="BB154" s="4"/>
-      <c r="BC154" s="4"/>
-      <c r="BD154" s="4"/>
-      <c r="BE154" s="4"/>
-      <c r="BF154" s="4"/>
-      <c r="BG154" s="4"/>
-      <c r="BH154" s="4"/>
-      <c r="BI154" s="4"/>
-      <c r="BJ154" s="4"/>
-      <c r="BK154" s="4"/>
-      <c r="BL154" s="4"/>
-      <c r="BM154" s="4"/>
-      <c r="BN154" s="4"/>
-      <c r="BO154" s="4"/>
-      <c r="BP154" s="4"/>
-      <c r="BQ154" s="4"/>
-      <c r="BR154" s="4"/>
-      <c r="BS154" s="4"/>
-      <c r="BT154" s="4"/>
-      <c r="BU154" s="4"/>
-      <c r="BV154" s="4"/>
-      <c r="BW154" s="4"/>
-      <c r="BX154" s="6"/>
-      <c r="BY154" s="4"/>
-      <c r="BZ154" s="4"/>
-    </row>
-    <row r="155" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A155" s="7"/>
-      <c r="B155" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
-      <c r="Y155" s="4"/>
-      <c r="Z155" s="4"/>
-      <c r="AA155" s="4"/>
-      <c r="AB155" s="4"/>
-      <c r="AC155" s="4"/>
-      <c r="AD155" s="4"/>
-      <c r="AG155" s="4"/>
-      <c r="AH155" s="4"/>
-      <c r="AI155" s="4"/>
-      <c r="AJ155" s="4"/>
-      <c r="AK155" s="4"/>
-      <c r="AL155" s="4"/>
-      <c r="AM155" s="5"/>
-      <c r="AN155" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO155" s="4"/>
-      <c r="AP155" s="4"/>
-      <c r="AQ155" s="4"/>
-      <c r="AR155" s="4"/>
-      <c r="AS155" s="4"/>
-      <c r="AT155" s="4"/>
-      <c r="AU155" s="4"/>
-      <c r="AV155" s="4"/>
-      <c r="AW155" s="4"/>
-      <c r="AX155" s="4"/>
-      <c r="AY155" s="4"/>
-      <c r="AZ155" s="4"/>
-      <c r="BA155" s="4"/>
-      <c r="BB155" s="4"/>
-      <c r="BC155" s="4"/>
-      <c r="BD155" s="4"/>
-      <c r="BE155" s="4"/>
-      <c r="BF155" s="4"/>
-      <c r="BG155" s="4"/>
-      <c r="BH155" s="4"/>
-      <c r="BI155" s="4"/>
-      <c r="BJ155" s="4"/>
-      <c r="BK155" s="4"/>
-      <c r="BL155" s="4"/>
-      <c r="BM155" s="4"/>
-      <c r="BN155" s="4"/>
-      <c r="BO155" s="4"/>
-      <c r="BP155" s="4"/>
-      <c r="BQ155" s="4"/>
-      <c r="BR155" s="4"/>
-      <c r="BS155" s="4"/>
-      <c r="BT155" s="4"/>
-      <c r="BU155" s="4"/>
-      <c r="BV155" s="4"/>
-      <c r="BW155" s="4"/>
-      <c r="BX155" s="6"/>
-      <c r="BY155" s="4"/>
-      <c r="BZ155" s="4"/>
-    </row>
-    <row r="156" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A156" s="7"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E156" s="4"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -14314,6 +14464,7 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
@@ -14323,60 +14474,90 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
       <c r="AD156" s="4"/>
+      <c r="AE156" s="4"/>
+      <c r="AF156" s="4"/>
       <c r="AG156" s="4"/>
-      <c r="AH156" s="75"/>
+      <c r="AH156" s="4"/>
       <c r="AI156" s="4"/>
       <c r="AJ156" s="4"/>
       <c r="AK156" s="4"/>
       <c r="AL156" s="4"/>
-      <c r="AM156" s="5"/>
-      <c r="AN156" s="4"/>
-      <c r="AO156" s="4"/>
-      <c r="AP156" s="4"/>
-      <c r="AQ156" s="4"/>
-      <c r="AR156" s="4"/>
-      <c r="AS156" s="4"/>
-      <c r="AT156" s="4"/>
-      <c r="AU156" s="4"/>
-      <c r="AV156" s="4"/>
-      <c r="AW156" s="4"/>
-      <c r="AX156" s="4"/>
-      <c r="AY156" s="4"/>
-      <c r="AZ156" s="4"/>
-      <c r="BA156" s="4"/>
-      <c r="BB156" s="4"/>
-      <c r="BC156" s="4"/>
-      <c r="BD156" s="4"/>
-      <c r="BE156" s="4"/>
-      <c r="BF156" s="4"/>
-      <c r="BG156" s="4"/>
-      <c r="BH156" s="4"/>
-      <c r="BI156" s="4"/>
-      <c r="BJ156" s="4"/>
-      <c r="BK156" s="4"/>
-      <c r="BL156" s="4"/>
-      <c r="BM156" s="4"/>
-      <c r="BN156" s="4"/>
-      <c r="BO156" s="4"/>
-      <c r="BP156" s="4"/>
-      <c r="BQ156" s="4"/>
-      <c r="BR156" s="4"/>
-      <c r="BS156" s="4"/>
-      <c r="BT156" s="4"/>
-      <c r="BU156" s="4"/>
-      <c r="BV156" s="4"/>
-      <c r="BW156" s="4"/>
-      <c r="BX156" s="6"/>
+      <c r="AM156" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN156" s="3"/>
+      <c r="AO156" s="3"/>
+      <c r="AP156" s="3"/>
+      <c r="AQ156" s="3"/>
+      <c r="AR156" s="3"/>
+      <c r="AS156" s="3"/>
+      <c r="AT156" s="3"/>
+      <c r="AU156" s="3"/>
+      <c r="AV156" s="3"/>
+      <c r="AW156" s="3"/>
+      <c r="AX156" s="3"/>
+      <c r="AY156" s="3"/>
+      <c r="AZ156" s="3"/>
+      <c r="BA156" s="3"/>
+      <c r="BB156" s="3"/>
+      <c r="BC156" s="3"/>
+      <c r="BD156" s="3"/>
+      <c r="BE156" s="3"/>
+      <c r="BF156" s="3"/>
+      <c r="BG156" s="3"/>
+      <c r="BH156" s="3"/>
+      <c r="BI156" s="3"/>
+      <c r="BJ156" s="3"/>
+      <c r="BK156" s="3"/>
+      <c r="BL156" s="3"/>
+      <c r="BM156" s="3"/>
+      <c r="BN156" s="3"/>
+      <c r="BO156" s="3"/>
+      <c r="BP156" s="3"/>
+      <c r="BQ156" s="3"/>
+      <c r="BR156" s="3"/>
+      <c r="BS156" s="3"/>
+      <c r="BT156" s="3"/>
+      <c r="BU156" s="3"/>
+      <c r="BV156" s="3"/>
+      <c r="BW156" s="3"/>
+      <c r="BX156" s="18"/>
       <c r="BY156" s="4"/>
       <c r="BZ156" s="4"/>
     </row>
     <row r="157" spans="1:78" ht="14.25" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
-      <c r="D157" t="s">
-        <v>120</v>
-      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
+      <c r="Z157" s="4"/>
+      <c r="AA157" s="4"/>
+      <c r="AB157" s="4"/>
+      <c r="AC157" s="4"/>
       <c r="AD157" s="4"/>
+      <c r="AE157" s="4"/>
+      <c r="AF157" s="4"/>
       <c r="AG157" s="4"/>
       <c r="AH157" s="4"/>
       <c r="AI157" s="4"/>
@@ -14385,9 +14566,24 @@
       <c r="AL157" s="4"/>
       <c r="AM157" s="5"/>
       <c r="AN157" s="4"/>
-      <c r="AO157" t="s">
-        <v>121</v>
-      </c>
+      <c r="AO157" s="4"/>
+      <c r="AP157" s="4"/>
+      <c r="AQ157" s="4"/>
+      <c r="AR157" s="4"/>
+      <c r="AS157" s="4"/>
+      <c r="AT157" s="4"/>
+      <c r="AU157" s="4"/>
+      <c r="AV157" s="4"/>
+      <c r="AW157" s="4"/>
+      <c r="AX157" s="4"/>
+      <c r="AY157" s="4"/>
+      <c r="AZ157" s="4"/>
+      <c r="BA157" s="4"/>
+      <c r="BB157" s="4"/>
+      <c r="BC157" s="4"/>
+      <c r="BD157" s="4"/>
+      <c r="BE157" s="4"/>
+      <c r="BF157" s="4"/>
       <c r="BG157" s="4"/>
       <c r="BH157" s="4"/>
       <c r="BI157" s="4"/>
@@ -14411,21 +14607,64 @@
     </row>
     <row r="158" spans="1:78" ht="14.25" customHeight="1">
       <c r="A158" s="7"/>
-      <c r="B158" s="4"/>
-      <c r="N158" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA158" s="74"/>
-      <c r="AC158" s="74"/>
+      <c r="B158" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
+      <c r="Z158" s="4"/>
+      <c r="AA158" s="4"/>
+      <c r="AB158" s="4"/>
+      <c r="AC158" s="4"/>
       <c r="AD158" s="4"/>
       <c r="AG158" s="4"/>
       <c r="AH158" s="4"/>
       <c r="AI158" s="4"/>
       <c r="AJ158" s="4"/>
       <c r="AK158" s="4"/>
-      <c r="AL158" s="8"/>
+      <c r="AL158" s="4"/>
       <c r="AM158" s="5"/>
-      <c r="AN158" s="4"/>
+      <c r="AN158" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO158" s="4"/>
+      <c r="AP158" s="4"/>
+      <c r="AQ158" s="4"/>
+      <c r="AR158" s="4"/>
+      <c r="AS158" s="4"/>
+      <c r="AT158" s="4"/>
+      <c r="AU158" s="4"/>
+      <c r="AV158" s="4"/>
+      <c r="AW158" s="4"/>
+      <c r="AX158" s="4"/>
+      <c r="AY158" s="4"/>
+      <c r="AZ158" s="4"/>
+      <c r="BA158" s="4"/>
+      <c r="BB158" s="4"/>
+      <c r="BC158" s="4"/>
+      <c r="BD158" s="4"/>
+      <c r="BE158" s="4"/>
+      <c r="BF158" s="4"/>
       <c r="BG158" s="4"/>
       <c r="BH158" s="4"/>
       <c r="BI158" s="4"/>
@@ -14450,31 +14689,63 @@
     <row r="159" spans="1:78" ht="14.25" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
-      <c r="C159" t="s">
-        <v>121</v>
-      </c>
+      <c r="C159" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
       <c r="V159" s="4"/>
-      <c r="W159" s="76" t="s">
-        <v>149</v>
-      </c>
+      <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
-      <c r="AB159" s="74"/>
+      <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
       <c r="AD159" s="4"/>
       <c r="AG159" s="4"/>
-      <c r="AH159" s="4"/>
+      <c r="AH159" s="57"/>
       <c r="AI159" s="4"/>
       <c r="AJ159" s="4"/>
       <c r="AK159" s="4"/>
-      <c r="AL159" s="8"/>
+      <c r="AL159" s="4"/>
       <c r="AM159" s="5"/>
       <c r="AN159" s="4"/>
-      <c r="AO159" t="s">
-        <v>122</v>
-      </c>
+      <c r="AO159" s="4"/>
+      <c r="AP159" s="4"/>
+      <c r="AQ159" s="4"/>
+      <c r="AR159" s="4"/>
+      <c r="AS159" s="4"/>
+      <c r="AT159" s="4"/>
+      <c r="AU159" s="4"/>
+      <c r="AV159" s="4"/>
+      <c r="AW159" s="4"/>
+      <c r="AX159" s="4"/>
+      <c r="AY159" s="4"/>
+      <c r="AZ159" s="4"/>
+      <c r="BA159" s="4"/>
+      <c r="BB159" s="4"/>
+      <c r="BC159" s="4"/>
+      <c r="BD159" s="4"/>
+      <c r="BE159" s="4"/>
+      <c r="BF159" s="4"/>
       <c r="BG159" s="4"/>
       <c r="BH159" s="4"/>
       <c r="BI159" s="4"/>
@@ -14499,23 +14770,21 @@
     <row r="160" spans="1:78" ht="14.25" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="4"/>
-      <c r="X160" s="4"/>
-      <c r="Y160" s="4"/>
-      <c r="Z160" s="4"/>
-      <c r="AA160" s="4"/>
-      <c r="AB160" s="4"/>
-      <c r="AC160" s="4"/>
+      <c r="D160" t="s">
+        <v>119</v>
+      </c>
       <c r="AD160" s="4"/>
       <c r="AG160" s="4"/>
       <c r="AH160" s="4"/>
       <c r="AI160" s="4"/>
       <c r="AJ160" s="4"/>
       <c r="AK160" s="4"/>
-      <c r="AL160" s="8"/>
+      <c r="AL160" s="4"/>
       <c r="AM160" s="5"/>
       <c r="AN160" s="4"/>
+      <c r="AO160" t="s">
+        <v>120</v>
+      </c>
       <c r="BG160" s="4"/>
       <c r="BH160" s="4"/>
       <c r="BI160" s="4"/>
@@ -14540,10 +14809,9 @@
     <row r="161" spans="1:78" ht="14.25" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
-      <c r="D161" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC161" s="4"/>
+      <c r="N161" s="55"/>
+      <c r="AA161" s="56"/>
+      <c r="AC161" s="56"/>
       <c r="AD161" s="4"/>
       <c r="AG161" s="4"/>
       <c r="AH161" s="4"/>
@@ -14553,9 +14821,16 @@
       <c r="AL161" s="8"/>
       <c r="AM161" s="5"/>
       <c r="AN161" s="4"/>
-      <c r="AP161" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG161" s="4"/>
+      <c r="BH161" s="4"/>
+      <c r="BI161" s="4"/>
+      <c r="BJ161" s="4"/>
+      <c r="BK161" s="4"/>
+      <c r="BL161" s="4"/>
+      <c r="BM161" s="4"/>
+      <c r="BN161" s="4"/>
+      <c r="BO161" s="4"/>
+      <c r="BP161" s="4"/>
       <c r="BQ161" s="4"/>
       <c r="BR161" s="4"/>
       <c r="BS161" s="4"/>
@@ -14570,6 +14845,18 @@
     <row r="162" spans="1:78" ht="14.25" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
+      <c r="C162" t="s">
+        <v>120</v>
+      </c>
+      <c r="V162" s="4"/>
+      <c r="W162" s="58"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
+      <c r="Z162" s="4"/>
+      <c r="AA162" s="4"/>
+      <c r="AB162" s="56"/>
+      <c r="AC162" s="4"/>
+      <c r="AD162" s="4"/>
       <c r="AG162" s="4"/>
       <c r="AH162" s="4"/>
       <c r="AI162" s="4"/>
@@ -14578,6 +14865,19 @@
       <c r="AL162" s="8"/>
       <c r="AM162" s="5"/>
       <c r="AN162" s="4"/>
+      <c r="AO162" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG162" s="4"/>
+      <c r="BH162" s="4"/>
+      <c r="BI162" s="4"/>
+      <c r="BJ162" s="4"/>
+      <c r="BK162" s="4"/>
+      <c r="BL162" s="4"/>
+      <c r="BM162" s="4"/>
+      <c r="BN162" s="4"/>
+      <c r="BO162" s="4"/>
+      <c r="BP162" s="4"/>
       <c r="BQ162" s="4"/>
       <c r="BR162" s="4"/>
       <c r="BS162" s="4"/>
@@ -14591,13 +14891,16 @@
     </row>
     <row r="163" spans="1:78" ht="14.25" customHeight="1">
       <c r="A163" s="7"/>
-      <c r="B163" s="21"/>
-      <c r="E163" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G163" s="53" t="s">
-        <v>126</v>
-      </c>
+      <c r="B163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="4"/>
+      <c r="AC163" s="4"/>
+      <c r="AD163" s="4"/>
       <c r="AG163" s="4"/>
       <c r="AH163" s="4"/>
       <c r="AI163" s="4"/>
@@ -14606,24 +14909,6 @@
       <c r="AL163" s="8"/>
       <c r="AM163" s="5"/>
       <c r="AN163" s="4"/>
-      <c r="AP163" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ163" s="4"/>
-      <c r="AR163" s="4"/>
-      <c r="AS163" s="4"/>
-      <c r="AT163" s="4"/>
-      <c r="AU163" s="4"/>
-      <c r="AV163" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW163" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX163" s="4"/>
-      <c r="AY163" s="4"/>
-      <c r="AZ163" s="4"/>
-      <c r="BA163" s="4"/>
       <c r="BG163" s="4"/>
       <c r="BH163" s="4"/>
       <c r="BI163" s="4"/>
@@ -14648,6 +14933,11 @@
     <row r="164" spans="1:78" ht="14.25" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
+      <c r="D164" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC164" s="4"/>
+      <c r="AD164" s="4"/>
       <c r="AG164" s="4"/>
       <c r="AH164" s="4"/>
       <c r="AI164" s="4"/>
@@ -14656,34 +14946,9 @@
       <c r="AL164" s="8"/>
       <c r="AM164" s="5"/>
       <c r="AN164" s="4"/>
-      <c r="AP164" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ164" s="4"/>
-      <c r="AR164" s="4"/>
-      <c r="AS164" s="4"/>
-      <c r="AT164" s="4"/>
-      <c r="AU164" s="4"/>
-      <c r="AV164" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW164" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX164" s="4"/>
-      <c r="AY164" s="4"/>
-      <c r="AZ164" s="4"/>
-      <c r="BA164" s="4"/>
-      <c r="BG164" s="20"/>
-      <c r="BH164" s="20"/>
-      <c r="BI164" s="20"/>
-      <c r="BJ164" s="20"/>
-      <c r="BK164" s="20"/>
-      <c r="BL164" s="20"/>
-      <c r="BM164" s="20"/>
-      <c r="BN164" s="20"/>
-      <c r="BO164" s="20"/>
-      <c r="BP164" s="4"/>
+      <c r="AP164" t="s">
+        <v>123</v>
+      </c>
       <c r="BQ164" s="4"/>
       <c r="BR164" s="4"/>
       <c r="BS164" s="4"/>
@@ -14698,22 +14963,6 @@
     <row r="165" spans="1:78" ht="14.25" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
-      <c r="F165" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M165" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC165" s="4"/>
-      <c r="AD165" s="4"/>
       <c r="AG165" s="4"/>
       <c r="AH165" s="4"/>
       <c r="AI165" s="4"/>
@@ -14722,19 +14971,6 @@
       <c r="AL165" s="8"/>
       <c r="AM165" s="5"/>
       <c r="AN165" s="4"/>
-      <c r="AO165" s="4"/>
-      <c r="BE165" s="4"/>
-      <c r="BF165" s="4"/>
-      <c r="BG165" s="20"/>
-      <c r="BH165" s="20"/>
-      <c r="BI165" s="20"/>
-      <c r="BJ165" s="20"/>
-      <c r="BK165" s="20"/>
-      <c r="BL165" s="20"/>
-      <c r="BM165" s="20"/>
-      <c r="BN165" s="20"/>
-      <c r="BO165" s="20"/>
-      <c r="BP165" s="4"/>
       <c r="BQ165" s="4"/>
       <c r="BR165" s="4"/>
       <c r="BS165" s="4"/>
@@ -14748,27 +14984,13 @@
     </row>
     <row r="166" spans="1:78" ht="14.25" customHeight="1">
       <c r="A166" s="7"/>
-      <c r="B166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="F166" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M166" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="AC166" s="4"/>
-      <c r="AD166" s="4"/>
+      <c r="B166" s="21"/>
+      <c r="E166" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G166" s="53" t="s">
+        <v>125</v>
+      </c>
       <c r="AG166" s="4"/>
       <c r="AH166" s="4"/>
       <c r="AI166" s="4"/>
@@ -14777,21 +14999,33 @@
       <c r="AL166" s="8"/>
       <c r="AM166" s="5"/>
       <c r="AN166" s="4"/>
-      <c r="AO166" s="4"/>
-      <c r="AP166" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE166" s="4"/>
-      <c r="BF166" s="4"/>
-      <c r="BG166" s="20"/>
-      <c r="BH166" s="20"/>
-      <c r="BI166" s="20"/>
-      <c r="BJ166" s="20"/>
-      <c r="BK166" s="20"/>
-      <c r="BL166" s="20"/>
-      <c r="BM166" s="20"/>
-      <c r="BN166" s="20"/>
-      <c r="BO166" s="20"/>
+      <c r="AP166" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ166" s="4"/>
+      <c r="AR166" s="4"/>
+      <c r="AS166" s="4"/>
+      <c r="AT166" s="4"/>
+      <c r="AU166" s="4"/>
+      <c r="AV166" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW166" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX166" s="4"/>
+      <c r="AY166" s="4"/>
+      <c r="AZ166" s="4"/>
+      <c r="BA166" s="4"/>
+      <c r="BG166" s="4"/>
+      <c r="BH166" s="4"/>
+      <c r="BI166" s="4"/>
+      <c r="BJ166" s="4"/>
+      <c r="BK166" s="4"/>
+      <c r="BL166" s="4"/>
+      <c r="BM166" s="4"/>
+      <c r="BN166" s="4"/>
+      <c r="BO166" s="4"/>
       <c r="BP166" s="4"/>
       <c r="BQ166" s="4"/>
       <c r="BR166" s="4"/>
@@ -14807,13 +15041,6 @@
     <row r="167" spans="1:78" ht="14.25" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="AC167" s="4"/>
-      <c r="AD167" s="4"/>
       <c r="AG167" s="4"/>
       <c r="AH167" s="4"/>
       <c r="AI167" s="4"/>
@@ -14822,24 +15049,24 @@
       <c r="AL167" s="8"/>
       <c r="AM167" s="5"/>
       <c r="AN167" s="4"/>
-      <c r="AO167" s="4"/>
-      <c r="AP167" s="20"/>
-      <c r="AQ167" s="20"/>
-      <c r="AR167" s="20"/>
-      <c r="AS167" s="20"/>
-      <c r="AT167" s="20"/>
-      <c r="AU167" s="20"/>
-      <c r="AV167" s="21"/>
-      <c r="AW167" s="21"/>
-      <c r="AX167" s="20"/>
-      <c r="AY167" s="20"/>
-      <c r="AZ167" s="20"/>
-      <c r="BA167" s="20"/>
-      <c r="BB167" s="20"/>
-      <c r="BC167" s="20"/>
-      <c r="BD167" s="20"/>
-      <c r="BE167" s="20"/>
-      <c r="BF167" s="20"/>
+      <c r="AP167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ167" s="4"/>
+      <c r="AR167" s="4"/>
+      <c r="AS167" s="4"/>
+      <c r="AT167" s="4"/>
+      <c r="AU167" s="4"/>
+      <c r="AV167" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW167" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX167" s="4"/>
+      <c r="AY167" s="4"/>
+      <c r="AZ167" s="4"/>
+      <c r="BA167" s="4"/>
       <c r="BG167" s="20"/>
       <c r="BH167" s="20"/>
       <c r="BI167" s="20"/>
@@ -14864,24 +15091,20 @@
     <row r="168" spans="1:78" ht="14.25" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" t="s">
-        <v>131</v>
-      </c>
-      <c r="F168" s="4"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="21"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="20"/>
-      <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
-      <c r="AB168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M168" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
       <c r="AG168" s="4"/>
@@ -14892,26 +15115,9 @@
       <c r="AL168" s="8"/>
       <c r="AM168" s="5"/>
       <c r="AN168" s="4"/>
-      <c r="AO168" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP168" s="20"/>
-      <c r="AQ168" s="20"/>
-      <c r="AR168" s="20"/>
-      <c r="AS168" s="20"/>
-      <c r="AT168" s="20"/>
-      <c r="AU168" s="20"/>
-      <c r="AV168" s="20"/>
-      <c r="AW168" s="20"/>
-      <c r="AX168" s="20"/>
-      <c r="AY168" s="20"/>
-      <c r="AZ168" s="20"/>
-      <c r="BA168" s="20"/>
-      <c r="BB168" s="20"/>
-      <c r="BC168" s="20"/>
-      <c r="BD168" s="20"/>
-      <c r="BE168" s="20"/>
-      <c r="BF168" s="20"/>
+      <c r="AO168" s="4"/>
+      <c r="BE168" s="4"/>
+      <c r="BF168" s="4"/>
       <c r="BG168" s="20"/>
       <c r="BH168" s="20"/>
       <c r="BI168" s="20"/>
@@ -14921,7 +15127,7 @@
       <c r="BM168" s="20"/>
       <c r="BN168" s="20"/>
       <c r="BO168" s="20"/>
-      <c r="BP168" s="20"/>
+      <c r="BP168" s="4"/>
       <c r="BQ168" s="4"/>
       <c r="BR168" s="4"/>
       <c r="BS168" s="4"/>
@@ -14935,22 +15141,25 @@
     </row>
     <row r="169" spans="1:78" ht="14.25" customHeight="1">
       <c r="A169" s="7"/>
-      <c r="B169" s="21"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="20"/>
-      <c r="Z169" s="4"/>
-      <c r="AA169" s="4"/>
-      <c r="AB169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
       <c r="AG169" s="4"/>
@@ -14962,23 +15171,11 @@
       <c r="AM169" s="5"/>
       <c r="AN169" s="4"/>
       <c r="AO169" s="4"/>
-      <c r="AP169" s="20"/>
-      <c r="AQ169" s="20"/>
-      <c r="AR169" s="20"/>
-      <c r="AS169" s="20"/>
-      <c r="AT169" s="20"/>
-      <c r="AU169" s="20"/>
-      <c r="AV169" s="20"/>
-      <c r="AW169" s="20"/>
-      <c r="AX169" s="20"/>
-      <c r="AY169" s="20"/>
-      <c r="AZ169" s="20"/>
-      <c r="BA169" s="20"/>
-      <c r="BB169" s="20"/>
-      <c r="BC169" s="20"/>
-      <c r="BD169" s="20"/>
-      <c r="BE169" s="20"/>
-      <c r="BF169" s="20"/>
+      <c r="AP169" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE169" s="4"/>
+      <c r="BF169" s="4"/>
       <c r="BG169" s="20"/>
       <c r="BH169" s="20"/>
       <c r="BI169" s="20"/>
@@ -14988,7 +15185,7 @@
       <c r="BM169" s="20"/>
       <c r="BN169" s="20"/>
       <c r="BO169" s="20"/>
-      <c r="BP169" s="20"/>
+      <c r="BP169" s="4"/>
       <c r="BQ169" s="4"/>
       <c r="BR169" s="4"/>
       <c r="BS169" s="4"/>
@@ -15003,17 +15200,11 @@
     <row r="170" spans="1:78" ht="14.25" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
-      <c r="Z170" s="4"/>
-      <c r="AA170" s="4"/>
-      <c r="AB170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
       <c r="AG170" s="4"/>
@@ -15025,16 +15216,14 @@
       <c r="AM170" s="5"/>
       <c r="AN170" s="4"/>
       <c r="AO170" s="4"/>
-      <c r="AP170" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="AP170" s="20"/>
       <c r="AQ170" s="20"/>
       <c r="AR170" s="20"/>
       <c r="AS170" s="20"/>
       <c r="AT170" s="20"/>
       <c r="AU170" s="20"/>
-      <c r="AV170" s="20"/>
-      <c r="AW170" s="20"/>
+      <c r="AV170" s="21"/>
+      <c r="AW170" s="21"/>
       <c r="AX170" s="20"/>
       <c r="AY170" s="20"/>
       <c r="AZ170" s="20"/>
@@ -15050,9 +15239,7 @@
       <c r="BJ170" s="20"/>
       <c r="BK170" s="20"/>
       <c r="BL170" s="20"/>
-      <c r="BM170" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="BM170" s="20"/>
       <c r="BN170" s="20"/>
       <c r="BO170" s="20"/>
       <c r="BP170" s="4"/>
@@ -15070,11 +15257,21 @@
     <row r="171" spans="1:78" ht="14.25" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" t="s">
+        <v>130</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="21"/>
+      <c r="N171" s="21"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
@@ -15088,7 +15285,9 @@
       <c r="AL171" s="8"/>
       <c r="AM171" s="5"/>
       <c r="AN171" s="4"/>
-      <c r="AO171" s="4"/>
+      <c r="AO171" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="AP171" s="20"/>
       <c r="AQ171" s="20"/>
       <c r="AR171" s="20"/>
@@ -15112,9 +15311,10 @@
       <c r="BJ171" s="20"/>
       <c r="BK171" s="20"/>
       <c r="BL171" s="20"/>
+      <c r="BM171" s="20"/>
       <c r="BN171" s="20"/>
       <c r="BO171" s="20"/>
-      <c r="BP171" s="4"/>
+      <c r="BP171" s="20"/>
       <c r="BQ171" s="4"/>
       <c r="BR171" s="4"/>
       <c r="BS171" s="4"/>
@@ -15128,15 +15328,19 @@
     </row>
     <row r="172" spans="1:78" ht="14.25" customHeight="1">
       <c r="A172" s="7"/>
-      <c r="B172" s="4"/>
-      <c r="E172" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
+      <c r="B172" s="21"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="20"/>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
@@ -15151,18 +15355,17 @@
       <c r="AM172" s="5"/>
       <c r="AN172" s="4"/>
       <c r="AO172" s="4"/>
-      <c r="AP172" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR172" s="4"/>
-      <c r="AS172" s="4"/>
+      <c r="AP172" s="20"/>
+      <c r="AQ172" s="20"/>
+      <c r="AR172" s="20"/>
+      <c r="AS172" s="20"/>
       <c r="AT172" s="20"/>
       <c r="AU172" s="20"/>
       <c r="AV172" s="20"/>
       <c r="AW172" s="20"/>
       <c r="AX172" s="20"/>
-      <c r="AY172" s="21"/>
-      <c r="AZ172" s="21"/>
+      <c r="AY172" s="20"/>
+      <c r="AZ172" s="20"/>
       <c r="BA172" s="20"/>
       <c r="BB172" s="20"/>
       <c r="BC172" s="20"/>
@@ -15178,7 +15381,7 @@
       <c r="BM172" s="20"/>
       <c r="BN172" s="20"/>
       <c r="BO172" s="20"/>
-      <c r="BP172" s="4"/>
+      <c r="BP172" s="20"/>
       <c r="BQ172" s="4"/>
       <c r="BR172" s="4"/>
       <c r="BS172" s="4"/>
@@ -15193,17 +15396,9 @@
     <row r="173" spans="1:78" ht="14.25" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
+      <c r="D173" t="s">
+        <v>132</v>
+      </c>
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
       <c r="V173" s="4"/>
@@ -15223,17 +15418,19 @@
       <c r="AM173" s="5"/>
       <c r="AN173" s="4"/>
       <c r="AO173" s="4"/>
-      <c r="AP173" s="4"/>
-      <c r="AQ173" s="4"/>
-      <c r="AR173" s="4"/>
+      <c r="AP173" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ173" s="20"/>
+      <c r="AR173" s="20"/>
       <c r="AS173" s="20"/>
       <c r="AT173" s="20"/>
       <c r="AU173" s="20"/>
       <c r="AV173" s="20"/>
       <c r="AW173" s="20"/>
       <c r="AX173" s="20"/>
-      <c r="AY173" s="21"/>
-      <c r="AZ173" s="21"/>
+      <c r="AY173" s="20"/>
+      <c r="AZ173" s="20"/>
       <c r="BA173" s="20"/>
       <c r="BB173" s="20"/>
       <c r="BC173" s="20"/>
@@ -15246,7 +15443,9 @@
       <c r="BJ173" s="20"/>
       <c r="BK173" s="20"/>
       <c r="BL173" s="20"/>
-      <c r="BM173" s="20"/>
+      <c r="BM173" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="BN173" s="20"/>
       <c r="BO173" s="20"/>
       <c r="BP173" s="4"/>
@@ -15264,20 +15463,6 @@
     <row r="174" spans="1:78" ht="14.25" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
-      <c r="E174" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
       <c r="V174" s="4"/>
@@ -15288,31 +15473,25 @@
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
       <c r="AD174" s="4"/>
-      <c r="AE174" s="20"/>
-      <c r="AF174" s="4"/>
       <c r="AG174" s="4"/>
       <c r="AH174" s="4"/>
       <c r="AI174" s="4"/>
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
-      <c r="AL174" s="4"/>
+      <c r="AL174" s="8"/>
       <c r="AM174" s="5"/>
       <c r="AN174" s="4"/>
       <c r="AO174" s="4"/>
-      <c r="AP174" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ174" s="4"/>
-      <c r="AR174" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="AP174" s="20"/>
+      <c r="AQ174" s="20"/>
+      <c r="AR174" s="20"/>
       <c r="AS174" s="20"/>
       <c r="AT174" s="20"/>
       <c r="AU174" s="20"/>
       <c r="AV174" s="20"/>
       <c r="AW174" s="20"/>
-      <c r="AX174" s="21"/>
-      <c r="AY174" s="21"/>
+      <c r="AX174" s="20"/>
+      <c r="AY174" s="20"/>
       <c r="AZ174" s="20"/>
       <c r="BA174" s="20"/>
       <c r="BB174" s="20"/>
@@ -15326,7 +15505,6 @@
       <c r="BJ174" s="20"/>
       <c r="BK174" s="20"/>
       <c r="BL174" s="20"/>
-      <c r="BM174" s="20"/>
       <c r="BN174" s="20"/>
       <c r="BO174" s="20"/>
       <c r="BP174" s="4"/>
@@ -15344,53 +15522,40 @@
     <row r="175" spans="1:78" ht="14.25" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="20"/>
+      <c r="E175" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
-      <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
-      <c r="AE175" s="20"/>
-      <c r="AF175" s="4"/>
       <c r="AG175" s="4"/>
       <c r="AH175" s="4"/>
       <c r="AI175" s="4"/>
       <c r="AJ175" s="4"/>
       <c r="AK175" s="4"/>
-      <c r="AL175" s="4"/>
+      <c r="AL175" s="8"/>
       <c r="AM175" s="5"/>
       <c r="AN175" s="4"/>
       <c r="AO175" s="4"/>
-      <c r="AP175" s="4"/>
-      <c r="AQ175" s="4"/>
-      <c r="AR175" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS175" s="20"/>
+      <c r="AP175" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR175" s="4"/>
+      <c r="AS175" s="4"/>
       <c r="AT175" s="20"/>
       <c r="AU175" s="20"/>
       <c r="AV175" s="20"/>
       <c r="AW175" s="20"/>
       <c r="AX175" s="20"/>
-      <c r="AY175" s="20"/>
-      <c r="AZ175" s="20"/>
+      <c r="AY175" s="21"/>
+      <c r="AZ175" s="21"/>
       <c r="BA175" s="20"/>
       <c r="BB175" s="20"/>
       <c r="BC175" s="20"/>
@@ -15421,61 +15586,49 @@
     <row r="176" spans="1:78" ht="14.25" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="54"/>
+      <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
-      <c r="S176" s="20"/>
-      <c r="T176" s="20"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
-      <c r="AE176" s="20"/>
-      <c r="AF176" s="4"/>
       <c r="AG176" s="4"/>
       <c r="AH176" s="4"/>
       <c r="AI176" s="4"/>
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
-      <c r="AL176" s="4"/>
+      <c r="AL176" s="8"/>
       <c r="AM176" s="5"/>
       <c r="AN176" s="4"/>
       <c r="AO176" s="4"/>
-      <c r="AP176" s="20"/>
-      <c r="AQ176" s="20"/>
-      <c r="AR176" s="20"/>
+      <c r="AP176" s="4"/>
+      <c r="AQ176" s="4"/>
+      <c r="AR176" s="4"/>
       <c r="AS176" s="20"/>
       <c r="AT176" s="20"/>
       <c r="AU176" s="20"/>
-      <c r="AV176" s="21"/>
-      <c r="AW176" s="21"/>
+      <c r="AV176" s="20"/>
+      <c r="AW176" s="20"/>
       <c r="AX176" s="20"/>
-      <c r="AY176" s="20"/>
-      <c r="AZ176" s="4"/>
-      <c r="BA176" s="4"/>
-      <c r="BB176" s="4"/>
+      <c r="AY176" s="21"/>
+      <c r="AZ176" s="21"/>
+      <c r="BA176" s="20"/>
+      <c r="BB176" s="20"/>
       <c r="BC176" s="20"/>
       <c r="BD176" s="20"/>
       <c r="BE176" s="20"/>
@@ -15504,13 +15657,9 @@
     <row r="177" spans="1:78" ht="14.25" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G177" s="4"/>
+      <c r="E177" s="57" t="s">
+        <v>169</v>
+      </c>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -15522,19 +15671,18 @@
       <c r="P177" s="4"/>
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="20"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
-      <c r="Y177" s="4"/>
-      <c r="Z177" s="20"/>
+      <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
       <c r="AB177" s="4"/>
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
       <c r="AE177" s="20"/>
-      <c r="AF177" s="20"/>
+      <c r="AF177" s="4"/>
       <c r="AG177" s="4"/>
       <c r="AH177" s="4"/>
       <c r="AI177" s="4"/>
@@ -15543,6 +15691,32 @@
       <c r="AL177" s="4"/>
       <c r="AM177" s="5"/>
       <c r="AN177" s="4"/>
+      <c r="AO177" s="4"/>
+      <c r="AP177" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ177" s="4"/>
+      <c r="AR177" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS177" s="20"/>
+      <c r="AT177" s="20"/>
+      <c r="AU177" s="20"/>
+      <c r="AV177" s="20"/>
+      <c r="AW177" s="20"/>
+      <c r="AX177" s="21"/>
+      <c r="AY177" s="21"/>
+      <c r="AZ177" s="20"/>
+      <c r="BA177" s="20"/>
+      <c r="BB177" s="20"/>
+      <c r="BC177" s="20"/>
+      <c r="BD177" s="20"/>
+      <c r="BE177" s="20"/>
+      <c r="BF177" s="20"/>
+      <c r="BG177" s="20"/>
+      <c r="BH177" s="20"/>
+      <c r="BI177" s="20"/>
+      <c r="BJ177" s="20"/>
       <c r="BK177" s="20"/>
       <c r="BL177" s="20"/>
       <c r="BM177" s="20"/>
@@ -15564,29 +15738,29 @@
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="21"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="20"/>
-      <c r="Q178" s="20"/>
-      <c r="R178" s="20"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
       <c r="S178" s="20"/>
       <c r="T178" s="20"/>
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
-      <c r="Z178" s="20"/>
+      <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
-      <c r="AE178" s="4"/>
+      <c r="AE178" s="20"/>
       <c r="AF178" s="4"/>
       <c r="AG178" s="4"/>
       <c r="AH178" s="4"/>
@@ -15597,9 +15771,11 @@
       <c r="AM178" s="5"/>
       <c r="AN178" s="4"/>
       <c r="AO178" s="4"/>
-      <c r="AP178" s="20"/>
-      <c r="AQ178" s="20"/>
-      <c r="AR178" s="20"/>
+      <c r="AP178" s="4"/>
+      <c r="AQ178" s="4"/>
+      <c r="AR178" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="AS178" s="20"/>
       <c r="AT178" s="20"/>
       <c r="AU178" s="20"/>
@@ -15607,22 +15783,22 @@
       <c r="AW178" s="20"/>
       <c r="AX178" s="20"/>
       <c r="AY178" s="20"/>
-      <c r="AZ178" s="4"/>
-      <c r="BA178" s="4"/>
-      <c r="BB178" s="4"/>
+      <c r="AZ178" s="20"/>
+      <c r="BA178" s="20"/>
+      <c r="BB178" s="20"/>
       <c r="BC178" s="20"/>
       <c r="BD178" s="20"/>
       <c r="BE178" s="20"/>
-      <c r="BF178" s="4"/>
-      <c r="BG178" s="4"/>
-      <c r="BH178" s="4"/>
-      <c r="BI178" s="4"/>
-      <c r="BJ178" s="4"/>
-      <c r="BK178" s="4"/>
-      <c r="BL178" s="4"/>
-      <c r="BM178" s="4"/>
-      <c r="BN178" s="4"/>
-      <c r="BO178" s="4"/>
+      <c r="BF178" s="20"/>
+      <c r="BG178" s="20"/>
+      <c r="BH178" s="20"/>
+      <c r="BI178" s="20"/>
+      <c r="BJ178" s="20"/>
+      <c r="BK178" s="20"/>
+      <c r="BL178" s="20"/>
+      <c r="BM178" s="20"/>
+      <c r="BN178" s="20"/>
+      <c r="BO178" s="20"/>
       <c r="BP178" s="4"/>
       <c r="BQ178" s="4"/>
       <c r="BR178" s="4"/>
@@ -15639,33 +15815,37 @@
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="21"/>
-      <c r="O179" s="20"/>
-      <c r="P179" s="20"/>
-      <c r="Q179" s="20"/>
-      <c r="R179" s="20"/>
+      <c r="F179" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
       <c r="S179" s="20"/>
       <c r="T179" s="20"/>
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
-      <c r="Z179" s="20"/>
+      <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
       <c r="AD179" s="4"/>
-      <c r="AE179" s="4"/>
+      <c r="AE179" s="20"/>
       <c r="AF179" s="4"/>
       <c r="AG179" s="4"/>
       <c r="AH179" s="4"/>
@@ -15675,6 +15855,35 @@
       <c r="AL179" s="4"/>
       <c r="AM179" s="5"/>
       <c r="AN179" s="4"/>
+      <c r="AO179" s="4"/>
+      <c r="AP179" s="20"/>
+      <c r="AQ179" s="20"/>
+      <c r="AR179" s="20"/>
+      <c r="AS179" s="20"/>
+      <c r="AT179" s="20"/>
+      <c r="AU179" s="20"/>
+      <c r="AV179" s="21"/>
+      <c r="AW179" s="21"/>
+      <c r="AX179" s="20"/>
+      <c r="AY179" s="20"/>
+      <c r="AZ179" s="4"/>
+      <c r="BA179" s="4"/>
+      <c r="BB179" s="4"/>
+      <c r="BC179" s="20"/>
+      <c r="BD179" s="20"/>
+      <c r="BE179" s="20"/>
+      <c r="BF179" s="20"/>
+      <c r="BG179" s="20"/>
+      <c r="BH179" s="20"/>
+      <c r="BI179" s="20"/>
+      <c r="BJ179" s="20"/>
+      <c r="BK179" s="20"/>
+      <c r="BL179" s="20"/>
+      <c r="BM179" s="20"/>
+      <c r="BN179" s="20"/>
+      <c r="BO179" s="20"/>
+      <c r="BP179" s="4"/>
+      <c r="BQ179" s="4"/>
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
       <c r="BT179" s="4"/>
@@ -15689,10 +15898,36 @@
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="20"/>
+      <c r="T180" s="20"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
+      <c r="Z180" s="20"/>
+      <c r="AA180" s="4"/>
+      <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
       <c r="AD180" s="4"/>
-      <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
+      <c r="AE180" s="20"/>
+      <c r="AF180" s="20"/>
       <c r="AG180" s="4"/>
       <c r="AH180" s="4"/>
       <c r="AI180" s="4"/>
@@ -15701,6 +15936,13 @@
       <c r="AL180" s="4"/>
       <c r="AM180" s="5"/>
       <c r="AN180" s="4"/>
+      <c r="BK180" s="20"/>
+      <c r="BL180" s="20"/>
+      <c r="BM180" s="20"/>
+      <c r="BN180" s="20"/>
+      <c r="BO180" s="20"/>
+      <c r="BP180" s="4"/>
+      <c r="BQ180" s="4"/>
       <c r="BR180" s="4"/>
       <c r="BS180" s="4"/>
       <c r="BT180" s="4"/>
@@ -15715,6 +15957,26 @@
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="21"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
@@ -15727,6 +15989,35 @@
       <c r="AL181" s="4"/>
       <c r="AM181" s="5"/>
       <c r="AN181" s="4"/>
+      <c r="AO181" s="4"/>
+      <c r="AP181" s="20"/>
+      <c r="AQ181" s="20"/>
+      <c r="AR181" s="20"/>
+      <c r="AS181" s="20"/>
+      <c r="AT181" s="20"/>
+      <c r="AU181" s="20"/>
+      <c r="AV181" s="20"/>
+      <c r="AW181" s="20"/>
+      <c r="AX181" s="20"/>
+      <c r="AY181" s="20"/>
+      <c r="AZ181" s="4"/>
+      <c r="BA181" s="4"/>
+      <c r="BB181" s="4"/>
+      <c r="BC181" s="20"/>
+      <c r="BD181" s="20"/>
+      <c r="BE181" s="20"/>
+      <c r="BF181" s="4"/>
+      <c r="BG181" s="4"/>
+      <c r="BH181" s="4"/>
+      <c r="BI181" s="4"/>
+      <c r="BJ181" s="4"/>
+      <c r="BK181" s="4"/>
+      <c r="BL181" s="4"/>
+      <c r="BM181" s="4"/>
+      <c r="BN181" s="4"/>
+      <c r="BO181" s="4"/>
+      <c r="BP181" s="4"/>
+      <c r="BQ181" s="4"/>
       <c r="BR181" s="4"/>
       <c r="BS181" s="4"/>
       <c r="BT181" s="4"/>
@@ -15738,20 +16029,22 @@
       <c r="BZ181" s="4"/>
     </row>
     <row r="182" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A182" s="7"/>
+      <c r="A182" s="85" t="s">
+        <v>157</v>
+      </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="20"/>
+      <c r="F182" s="4"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
       <c r="I182" s="20"/>
       <c r="J182" s="20"/>
       <c r="K182" s="20"/>
-      <c r="L182" s="21"/>
+      <c r="L182" s="20"/>
       <c r="M182" s="21"/>
-      <c r="N182" s="20"/>
+      <c r="N182" s="21"/>
       <c r="O182" s="20"/>
       <c r="P182" s="20"/>
       <c r="Q182" s="20"/>
@@ -15762,7 +16055,7 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
-      <c r="Z182" s="4"/>
+      <c r="Z182" s="20"/>
       <c r="AA182" s="4"/>
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
@@ -15777,34 +16070,6 @@
       <c r="AL182" s="4"/>
       <c r="AM182" s="5"/>
       <c r="AN182" s="4"/>
-      <c r="AO182" s="4"/>
-      <c r="AP182" s="4"/>
-      <c r="AQ182" s="4"/>
-      <c r="AR182" s="20"/>
-      <c r="AS182" s="20"/>
-      <c r="AT182" s="20"/>
-      <c r="AU182" s="20"/>
-      <c r="AV182" s="20"/>
-      <c r="AW182" s="20"/>
-      <c r="AX182" s="21"/>
-      <c r="AY182" s="21"/>
-      <c r="AZ182" s="20"/>
-      <c r="BA182" s="20"/>
-      <c r="BB182" s="20"/>
-      <c r="BC182" s="20"/>
-      <c r="BD182" s="20"/>
-      <c r="BE182" s="20"/>
-      <c r="BF182" s="20"/>
-      <c r="BH182" s="4"/>
-      <c r="BI182" s="4"/>
-      <c r="BJ182" s="4"/>
-      <c r="BK182" s="4"/>
-      <c r="BL182" s="4"/>
-      <c r="BM182" s="4"/>
-      <c r="BN182" s="4"/>
-      <c r="BO182" s="4"/>
-      <c r="BP182" s="4"/>
-      <c r="BQ182" s="4"/>
       <c r="BR182" s="4"/>
       <c r="BS182" s="4"/>
       <c r="BT182" s="4"/>
@@ -15819,30 +16084,6 @@
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="20"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="20"/>
-      <c r="M183" s="20"/>
-      <c r="N183" s="20"/>
-      <c r="O183" s="20"/>
-      <c r="P183" s="20"/>
-      <c r="Q183" s="20"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="20"/>
-      <c r="V183" s="20"/>
-      <c r="W183" s="20"/>
-      <c r="X183" s="20"/>
-      <c r="Y183" s="4"/>
-      <c r="Z183" s="4"/>
-      <c r="AA183" s="4"/>
-      <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
@@ -15855,34 +16096,6 @@
       <c r="AL183" s="4"/>
       <c r="AM183" s="5"/>
       <c r="AN183" s="4"/>
-      <c r="AO183" s="4"/>
-      <c r="AP183" s="4"/>
-      <c r="AQ183" s="4"/>
-      <c r="AR183" s="20"/>
-      <c r="AS183" s="20"/>
-      <c r="AT183" s="20"/>
-      <c r="AU183" s="20"/>
-      <c r="AV183" s="20"/>
-      <c r="AW183" s="20"/>
-      <c r="AX183" s="20"/>
-      <c r="AY183" s="20"/>
-      <c r="AZ183" s="20"/>
-      <c r="BA183" s="20"/>
-      <c r="BB183" s="20"/>
-      <c r="BC183" s="20"/>
-      <c r="BD183" s="20"/>
-      <c r="BE183" s="20"/>
-      <c r="BF183" s="20"/>
-      <c r="BH183" s="20"/>
-      <c r="BI183" s="20"/>
-      <c r="BJ183" s="20"/>
-      <c r="BK183" s="4"/>
-      <c r="BL183" s="4"/>
-      <c r="BM183" s="4"/>
-      <c r="BN183" s="4"/>
-      <c r="BO183" s="4"/>
-      <c r="BP183" s="4"/>
-      <c r="BQ183" s="4"/>
       <c r="BR183" s="4"/>
       <c r="BS183" s="4"/>
       <c r="BT183" s="4"/>
@@ -15894,33 +16107,13 @@
       <c r="BZ183" s="4"/>
     </row>
     <row r="184" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A184" s="7"/>
-      <c r="B184" s="4"/>
+      <c r="A184" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="58" t="s">
+        <v>159</v>
+      </c>
       <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="20"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="20"/>
-      <c r="M184" s="20"/>
-      <c r="N184" s="20"/>
-      <c r="O184" s="20"/>
-      <c r="P184" s="20"/>
-      <c r="Q184" s="20"/>
-      <c r="R184" s="20"/>
-      <c r="S184" s="4"/>
-      <c r="T184" s="4"/>
-      <c r="V184" s="20"/>
-      <c r="W184" s="20"/>
-      <c r="X184" s="20"/>
-      <c r="Y184" s="4"/>
-      <c r="Z184" s="4"/>
-      <c r="AA184" s="4"/>
-      <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
@@ -15933,34 +16126,6 @@
       <c r="AL184" s="4"/>
       <c r="AM184" s="5"/>
       <c r="AN184" s="4"/>
-      <c r="AO184" s="4"/>
-      <c r="AP184" s="4"/>
-      <c r="AQ184" s="4"/>
-      <c r="AR184" s="20"/>
-      <c r="AS184" s="20"/>
-      <c r="AT184" s="20"/>
-      <c r="AU184" s="20"/>
-      <c r="AV184" s="20"/>
-      <c r="AW184" s="20"/>
-      <c r="AX184" s="20"/>
-      <c r="AY184" s="20"/>
-      <c r="AZ184" s="20"/>
-      <c r="BA184" s="20"/>
-      <c r="BB184" s="20"/>
-      <c r="BC184" s="20"/>
-      <c r="BD184" s="20"/>
-      <c r="BE184" s="4"/>
-      <c r="BF184" s="4"/>
-      <c r="BH184" s="20"/>
-      <c r="BI184" s="20"/>
-      <c r="BJ184" s="20"/>
-      <c r="BK184" s="4"/>
-      <c r="BL184" s="4"/>
-      <c r="BM184" s="4"/>
-      <c r="BN184" s="4"/>
-      <c r="BO184" s="4"/>
-      <c r="BP184" s="4"/>
-      <c r="BQ184" s="4"/>
       <c r="BR184" s="4"/>
       <c r="BS184" s="4"/>
       <c r="BT184" s="4"/>
@@ -15974,7 +16139,9 @@
     <row r="185" spans="1:78" ht="14.25" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="58" t="s">
+        <v>161</v>
+      </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="20"/>
@@ -15983,19 +16150,20 @@
       <c r="I185" s="20"/>
       <c r="J185" s="20"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="20"/>
-      <c r="M185" s="20"/>
+      <c r="L185" s="21"/>
+      <c r="M185" s="21"/>
       <c r="N185" s="20"/>
-      <c r="O185" s="20"/>
+      <c r="O185" s="87"/>
       <c r="P185" s="20"/>
       <c r="Q185" s="20"/>
       <c r="R185" s="20"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="V185" s="20"/>
-      <c r="W185" s="20"/>
-      <c r="X185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="20"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
+      <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
@@ -16019,19 +16187,20 @@
       <c r="AU185" s="20"/>
       <c r="AV185" s="20"/>
       <c r="AW185" s="20"/>
-      <c r="AX185" s="20"/>
-      <c r="AY185" s="20"/>
+      <c r="AX185" s="21"/>
+      <c r="AY185" s="21"/>
       <c r="AZ185" s="20"/>
       <c r="BA185" s="20"/>
       <c r="BB185" s="20"/>
       <c r="BC185" s="20"/>
       <c r="BD185" s="20"/>
-      <c r="BE185" s="4"/>
-      <c r="BF185" s="4"/>
-      <c r="BH185" s="20"/>
-      <c r="BI185" s="20"/>
-      <c r="BJ185" s="20"/>
+      <c r="BE185" s="20"/>
+      <c r="BF185" s="20"/>
+      <c r="BH185" s="4"/>
+      <c r="BI185" s="4"/>
+      <c r="BJ185" s="4"/>
       <c r="BK185" s="4"/>
+      <c r="BL185" s="4"/>
       <c r="BM185" s="4"/>
       <c r="BN185" s="4"/>
       <c r="BO185" s="4"/>
@@ -16050,7 +16219,9 @@
     <row r="186" spans="1:78" ht="14.25" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="20"/>
@@ -16066,12 +16237,13 @@
       <c r="P186" s="20"/>
       <c r="Q186" s="20"/>
       <c r="R186" s="20"/>
-      <c r="S186" s="4"/>
-      <c r="T186" s="4"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="20"/>
       <c r="V186" s="20"/>
       <c r="W186" s="20"/>
       <c r="X186" s="20"/>
       <c r="Y186" s="4"/>
+      <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
@@ -16102,12 +16274,13 @@
       <c r="BB186" s="20"/>
       <c r="BC186" s="20"/>
       <c r="BD186" s="20"/>
-      <c r="BE186" s="4"/>
-      <c r="BF186" s="4"/>
+      <c r="BE186" s="20"/>
+      <c r="BF186" s="20"/>
       <c r="BH186" s="20"/>
       <c r="BI186" s="20"/>
       <c r="BJ186" s="20"/>
       <c r="BK186" s="4"/>
+      <c r="BL186" s="4"/>
       <c r="BM186" s="4"/>
       <c r="BN186" s="4"/>
       <c r="BO186" s="4"/>
@@ -16126,14 +16299,27 @@
     <row r="187" spans="1:78" ht="14.25" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
       <c r="Q187" s="20"/>
       <c r="R187" s="20"/>
-      <c r="S187" s="20"/>
+      <c r="S187" s="4"/>
       <c r="T187" s="4"/>
-      <c r="U187" s="4"/>
-      <c r="V187" s="4"/>
-      <c r="W187" s="4"/>
-      <c r="X187" s="4"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
@@ -16168,10 +16354,9 @@
       <c r="BD187" s="20"/>
       <c r="BE187" s="4"/>
       <c r="BF187" s="4"/>
-      <c r="BG187" s="4"/>
-      <c r="BH187" s="4"/>
-      <c r="BI187" s="4"/>
-      <c r="BJ187" s="4"/>
+      <c r="BH187" s="20"/>
+      <c r="BI187" s="20"/>
+      <c r="BJ187" s="20"/>
       <c r="BK187" s="4"/>
       <c r="BL187" s="4"/>
       <c r="BM187" s="4"/>
@@ -16189,12 +16374,14 @@
       <c r="BY187" s="4"/>
       <c r="BZ187" s="4"/>
     </row>
-    <row r="188" spans="1:78" ht="13.5" customHeight="1">
+    <row r="188" spans="1:78" ht="14.25" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="20"/>
+      <c r="C188" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
       <c r="H188" s="20"/>
@@ -16203,19 +16390,17 @@
       <c r="K188" s="20"/>
       <c r="L188" s="20"/>
       <c r="M188" s="20"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
+      <c r="N188" s="20"/>
+      <c r="O188" s="20"/>
+      <c r="P188" s="20"/>
       <c r="Q188" s="20"/>
       <c r="R188" s="20"/>
-      <c r="S188" s="20"/>
+      <c r="S188" s="4"/>
       <c r="T188" s="4"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
-      <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
+      <c r="V188" s="20"/>
+      <c r="W188" s="20"/>
+      <c r="X188" s="20"/>
       <c r="Y188" s="4"/>
-      <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -16270,16 +16455,28 @@
     <row r="189" spans="1:78" ht="14.25" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="20"/>
+      <c r="N189" s="20"/>
+      <c r="O189" s="20"/>
+      <c r="P189" s="20"/>
       <c r="Q189" s="20"/>
       <c r="R189" s="20"/>
-      <c r="S189" s="20"/>
+      <c r="S189" s="4"/>
       <c r="T189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
+      <c r="V189" s="20"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="20"/>
       <c r="Y189" s="4"/>
-      <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
@@ -16312,12 +16509,10 @@
       <c r="BD189" s="20"/>
       <c r="BE189" s="4"/>
       <c r="BF189" s="4"/>
-      <c r="BG189" s="4"/>
-      <c r="BH189" s="4"/>
-      <c r="BI189" s="4"/>
-      <c r="BJ189" s="4"/>
+      <c r="BH189" s="20"/>
+      <c r="BI189" s="20"/>
+      <c r="BJ189" s="20"/>
       <c r="BK189" s="4"/>
-      <c r="BL189" s="4"/>
       <c r="BM189" s="4"/>
       <c r="BN189" s="4"/>
       <c r="BO189" s="4"/>
@@ -16336,6 +16531,14 @@
     <row r="190" spans="1:78" ht="14.25" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
+      <c r="D190" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
@@ -16358,26 +16561,26 @@
       <c r="AO190" s="4"/>
       <c r="AP190" s="4"/>
       <c r="AQ190" s="4"/>
-      <c r="AR190" s="4"/>
-      <c r="AS190" s="4"/>
-      <c r="AT190" s="4"/>
-      <c r="AU190" s="4"/>
-      <c r="AV190" s="4"/>
-      <c r="AW190" s="4"/>
-      <c r="AX190" s="4"/>
-      <c r="AY190" s="4"/>
-      <c r="AZ190" s="4"/>
-      <c r="BA190" s="4"/>
-      <c r="BB190" s="4"/>
-      <c r="BC190" s="4"/>
-      <c r="BD190" s="4"/>
+      <c r="AR190" s="20"/>
+      <c r="AS190" s="20"/>
+      <c r="AT190" s="20"/>
+      <c r="AU190" s="20"/>
+      <c r="AV190" s="20"/>
+      <c r="AW190" s="20"/>
+      <c r="AX190" s="20"/>
+      <c r="AY190" s="20"/>
+      <c r="AZ190" s="20"/>
+      <c r="BA190" s="20"/>
+      <c r="BB190" s="20"/>
+      <c r="BC190" s="20"/>
+      <c r="BD190" s="20"/>
       <c r="BE190" s="4"/>
       <c r="BF190" s="4"/>
       <c r="BG190" s="4"/>
       <c r="BH190" s="4"/>
       <c r="BI190" s="4"/>
       <c r="BJ190" s="4"/>
-      <c r="BK190" s="20"/>
+      <c r="BK190" s="4"/>
       <c r="BL190" s="4"/>
       <c r="BM190" s="4"/>
       <c r="BN190" s="4"/>
@@ -16394,9 +16597,28 @@
       <c r="BY190" s="4"/>
       <c r="BZ190" s="4"/>
     </row>
-    <row r="191" spans="1:78" ht="14.25" customHeight="1">
+    <row r="191" spans="1:78" ht="13.5" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="20"/>
+      <c r="R191" s="20"/>
+      <c r="S191" s="20"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
@@ -16416,29 +16638,28 @@
       <c r="AL191" s="4"/>
       <c r="AM191" s="5"/>
       <c r="AN191" s="4"/>
+      <c r="AO191" s="4"/>
       <c r="AP191" s="4"/>
       <c r="AQ191" s="4"/>
-      <c r="AR191" s="4"/>
-      <c r="AS191" s="4"/>
-      <c r="AT191" s="4"/>
-      <c r="AU191" s="4"/>
-      <c r="AV191" s="4"/>
-      <c r="AW191" s="4"/>
-      <c r="AX191" s="4"/>
-      <c r="AY191" s="4"/>
-      <c r="AZ191" s="4"/>
-      <c r="BA191" s="4"/>
-      <c r="BB191" s="4"/>
-      <c r="BC191" s="4"/>
-      <c r="BD191" s="4"/>
+      <c r="AR191" s="20"/>
+      <c r="AS191" s="20"/>
+      <c r="AT191" s="20"/>
+      <c r="AU191" s="20"/>
+      <c r="AV191" s="20"/>
+      <c r="AW191" s="20"/>
+      <c r="AX191" s="20"/>
+      <c r="AY191" s="20"/>
+      <c r="AZ191" s="20"/>
+      <c r="BA191" s="20"/>
+      <c r="BB191" s="20"/>
+      <c r="BC191" s="20"/>
+      <c r="BD191" s="20"/>
       <c r="BE191" s="4"/>
       <c r="BF191" s="4"/>
-      <c r="BG191" s="4"/>
-      <c r="BH191" s="4"/>
-      <c r="BI191" s="4"/>
-      <c r="BJ191" s="4"/>
-      <c r="BK191" s="20"/>
-      <c r="BL191" s="4"/>
+      <c r="BH191" s="20"/>
+      <c r="BI191" s="20"/>
+      <c r="BJ191" s="20"/>
+      <c r="BK191" s="4"/>
       <c r="BM191" s="4"/>
       <c r="BN191" s="4"/>
       <c r="BO191" s="4"/>
@@ -16457,6 +16678,20 @@
     <row r="192" spans="1:78" ht="14.25" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
+      <c r="D192" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q192" s="20"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
@@ -16476,19 +16711,19 @@
       <c r="AO192" s="4"/>
       <c r="AP192" s="4"/>
       <c r="AQ192" s="4"/>
-      <c r="AR192" s="4"/>
-      <c r="AS192" s="4"/>
-      <c r="AT192" s="4"/>
-      <c r="AU192" s="4"/>
-      <c r="AV192" s="4"/>
-      <c r="AW192" s="4"/>
-      <c r="AX192" s="4"/>
-      <c r="AY192" s="4"/>
-      <c r="AZ192" s="4"/>
-      <c r="BA192" s="4"/>
-      <c r="BB192" s="4"/>
-      <c r="BC192" s="4"/>
-      <c r="BD192" s="4"/>
+      <c r="AR192" s="20"/>
+      <c r="AS192" s="20"/>
+      <c r="AT192" s="20"/>
+      <c r="AU192" s="20"/>
+      <c r="AV192" s="20"/>
+      <c r="AW192" s="20"/>
+      <c r="AX192" s="20"/>
+      <c r="AY192" s="20"/>
+      <c r="AZ192" s="20"/>
+      <c r="BA192" s="20"/>
+      <c r="BB192" s="20"/>
+      <c r="BC192" s="20"/>
+      <c r="BD192" s="20"/>
       <c r="BE192" s="4"/>
       <c r="BF192" s="4"/>
       <c r="BG192" s="4"/>
@@ -16515,6 +16750,12 @@
     <row r="193" spans="1:78" ht="14.25" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
+      <c r="E193" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
@@ -16531,6 +16772,7 @@
       <c r="AL193" s="4"/>
       <c r="AM193" s="5"/>
       <c r="AN193" s="4"/>
+      <c r="AO193" s="4"/>
       <c r="AP193" s="4"/>
       <c r="AQ193" s="4"/>
       <c r="AR193" s="4"/>
@@ -16552,7 +16794,7 @@
       <c r="BH193" s="4"/>
       <c r="BI193" s="4"/>
       <c r="BJ193" s="4"/>
-      <c r="BK193" s="4"/>
+      <c r="BK193" s="20"/>
       <c r="BL193" s="4"/>
       <c r="BM193" s="4"/>
       <c r="BN193" s="4"/>
@@ -16591,7 +16833,6 @@
       <c r="AL194" s="4"/>
       <c r="AM194" s="5"/>
       <c r="AN194" s="4"/>
-      <c r="AO194" s="4"/>
       <c r="AP194" s="4"/>
       <c r="AQ194" s="4"/>
       <c r="AR194" s="4"/>
@@ -16613,7 +16854,7 @@
       <c r="BH194" s="4"/>
       <c r="BI194" s="4"/>
       <c r="BJ194" s="4"/>
-      <c r="BK194" s="4"/>
+      <c r="BK194" s="20"/>
       <c r="BL194" s="4"/>
       <c r="BM194" s="4"/>
       <c r="BN194" s="4"/>
@@ -16633,9 +16874,9 @@
     <row r="195" spans="1:78" ht="14.25" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
-      <c r="V195" s="4"/>
-      <c r="W195" s="4"/>
-      <c r="X195" s="4"/>
+      <c r="D195" s="59" t="s">
+        <v>168</v>
+      </c>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
@@ -16694,18 +16935,15 @@
     <row r="196" spans="1:78" ht="14.25" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
-      <c r="V196" s="4"/>
-      <c r="W196" s="4"/>
-      <c r="X196" s="4"/>
-      <c r="Y196" s="20"/>
-      <c r="Z196" s="20"/>
-      <c r="AA196" s="20"/>
-      <c r="AB196" s="20"/>
-      <c r="AC196" s="20"/>
-      <c r="AD196" s="20"/>
-      <c r="AE196" s="20"/>
-      <c r="AF196" s="20"/>
-      <c r="AG196" s="20"/>
+      <c r="Y196" s="4"/>
+      <c r="Z196" s="4"/>
+      <c r="AA196" s="4"/>
+      <c r="AB196" s="4"/>
+      <c r="AC196" s="4"/>
+      <c r="AD196" s="4"/>
+      <c r="AE196" s="4"/>
+      <c r="AF196" s="4"/>
+      <c r="AG196" s="4"/>
       <c r="AH196" s="4"/>
       <c r="AI196" s="4"/>
       <c r="AJ196" s="4"/>
@@ -16713,7 +16951,6 @@
       <c r="AL196" s="4"/>
       <c r="AM196" s="5"/>
       <c r="AN196" s="4"/>
-      <c r="AO196" s="4"/>
       <c r="AP196" s="4"/>
       <c r="AQ196" s="4"/>
       <c r="AR196" s="4"/>
@@ -16755,18 +16992,21 @@
     <row r="197" spans="1:78" ht="14.25" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
+      <c r="D197" s="55" t="s">
+        <v>170</v>
+      </c>
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
-      <c r="Y197" s="20"/>
-      <c r="Z197" s="20"/>
-      <c r="AA197" s="20"/>
-      <c r="AB197" s="20"/>
-      <c r="AC197" s="20"/>
-      <c r="AD197" s="20"/>
-      <c r="AE197" s="20"/>
-      <c r="AF197" s="20"/>
-      <c r="AG197" s="20"/>
+      <c r="Y197" s="4"/>
+      <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
+      <c r="AB197" s="4"/>
+      <c r="AC197" s="4"/>
+      <c r="AD197" s="4"/>
+      <c r="AE197" s="4"/>
+      <c r="AF197" s="4"/>
+      <c r="AG197" s="4"/>
       <c r="AH197" s="4"/>
       <c r="AI197" s="4"/>
       <c r="AJ197" s="4"/>
@@ -16816,17 +17056,17 @@
     <row r="198" spans="1:78" ht="14.25" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
-      <c r="V198" s="20"/>
-      <c r="W198" s="20"/>
-      <c r="X198" s="20"/>
-      <c r="Y198" s="20"/>
-      <c r="Z198" s="20"/>
-      <c r="AA198" s="20"/>
-      <c r="AB198" s="20"/>
-      <c r="AC198" s="20"/>
-      <c r="AD198" s="20"/>
-      <c r="AE198" s="20"/>
-      <c r="AF198" s="20"/>
+      <c r="V198" s="4"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
+      <c r="Z198" s="4"/>
+      <c r="AA198" s="4"/>
+      <c r="AB198" s="4"/>
+      <c r="AC198" s="4"/>
+      <c r="AD198" s="4"/>
+      <c r="AE198" s="4"/>
+      <c r="AF198" s="4"/>
       <c r="AG198" s="4"/>
       <c r="AH198" s="4"/>
       <c r="AI198" s="4"/>
@@ -16877,9 +17117,13 @@
     <row r="199" spans="1:78" ht="14.25" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
-      <c r="V199" s="20"/>
-      <c r="W199" s="20"/>
-      <c r="X199" s="20"/>
+      <c r="E199" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J199" s="60"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
       <c r="Y199" s="20"/>
       <c r="Z199" s="20"/>
       <c r="AA199" s="20"/>
@@ -16888,7 +17132,7 @@
       <c r="AD199" s="20"/>
       <c r="AE199" s="20"/>
       <c r="AF199" s="20"/>
-      <c r="AG199" s="4"/>
+      <c r="AG199" s="20"/>
       <c r="AH199" s="4"/>
       <c r="AI199" s="4"/>
       <c r="AJ199" s="4"/>
@@ -16906,7 +17150,7 @@
       <c r="AV199" s="4"/>
       <c r="AW199" s="4"/>
       <c r="AX199" s="4"/>
-      <c r="AY199" s="21"/>
+      <c r="AY199" s="4"/>
       <c r="AZ199" s="4"/>
       <c r="BA199" s="4"/>
       <c r="BB199" s="4"/>
@@ -16938,9 +17182,9 @@
     <row r="200" spans="1:78" ht="14.25" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
-      <c r="V200" s="20"/>
-      <c r="W200" s="20"/>
-      <c r="X200" s="20"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
       <c r="Y200" s="20"/>
       <c r="Z200" s="20"/>
       <c r="AA200" s="20"/>
@@ -16949,7 +17193,7 @@
       <c r="AD200" s="20"/>
       <c r="AE200" s="20"/>
       <c r="AF200" s="20"/>
-      <c r="AG200" s="4"/>
+      <c r="AG200" s="20"/>
       <c r="AH200" s="4"/>
       <c r="AI200" s="4"/>
       <c r="AJ200" s="4"/>
@@ -16999,36 +17243,17 @@
     <row r="201" spans="1:78" ht="14.25" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-      <c r="AA201" s="4"/>
-      <c r="AB201" s="4"/>
-      <c r="AC201" s="4"/>
-      <c r="AD201" s="4"/>
-      <c r="AE201" s="4"/>
-      <c r="AF201" s="4"/>
+      <c r="V201" s="20"/>
+      <c r="W201" s="20"/>
+      <c r="X201" s="20"/>
+      <c r="Y201" s="20"/>
+      <c r="Z201" s="20"/>
+      <c r="AA201" s="20"/>
+      <c r="AB201" s="20"/>
+      <c r="AC201" s="20"/>
+      <c r="AD201" s="20"/>
+      <c r="AE201" s="20"/>
+      <c r="AF201" s="20"/>
       <c r="AG201" s="4"/>
       <c r="AH201" s="4"/>
       <c r="AI201" s="4"/>
@@ -17076,175 +17301,377 @@
       <c r="BY201" s="4"/>
       <c r="BZ201" s="4"/>
     </row>
-    <row r="202" spans="1:78" ht="13.5">
-      <c r="A202" s="13"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14"/>
-      <c r="P202" s="14"/>
-      <c r="Q202" s="14"/>
-      <c r="R202" s="14"/>
-      <c r="S202" s="14"/>
-      <c r="T202" s="14"/>
-      <c r="U202" s="14"/>
-      <c r="V202" s="14"/>
-      <c r="W202" s="14"/>
-      <c r="X202" s="14"/>
-      <c r="Y202" s="14"/>
-      <c r="Z202" s="14"/>
-      <c r="AA202" s="14"/>
-      <c r="AB202" s="14"/>
-      <c r="AC202" s="14"/>
-      <c r="AD202" s="14"/>
-      <c r="AE202" s="14"/>
-      <c r="AF202" s="14"/>
-      <c r="AG202" s="14"/>
-      <c r="AH202" s="14"/>
-      <c r="AI202" s="14"/>
-      <c r="AJ202" s="14"/>
-      <c r="AK202" s="14"/>
-      <c r="AL202" s="14"/>
-      <c r="AM202" s="15"/>
-      <c r="AN202" s="14"/>
-      <c r="AO202" s="14"/>
-      <c r="AP202" s="14"/>
-      <c r="AQ202" s="14"/>
-      <c r="AR202" s="14"/>
-      <c r="AS202" s="14"/>
-      <c r="AT202" s="14"/>
-      <c r="AU202" s="14"/>
-      <c r="AV202" s="14"/>
-      <c r="AW202" s="14"/>
-      <c r="AX202" s="14"/>
-      <c r="AY202" s="14"/>
-      <c r="AZ202" s="14"/>
-      <c r="BA202" s="14"/>
-      <c r="BB202" s="14"/>
-      <c r="BC202" s="14"/>
-      <c r="BD202" s="14"/>
-      <c r="BE202" s="14"/>
-      <c r="BF202" s="14"/>
-      <c r="BG202" s="14"/>
-      <c r="BH202" s="14"/>
-      <c r="BI202" s="14"/>
-      <c r="BJ202" s="14"/>
-      <c r="BK202" s="14"/>
-      <c r="BL202" s="14"/>
-      <c r="BM202" s="14"/>
-      <c r="BN202" s="14"/>
-      <c r="BO202" s="14"/>
-      <c r="BP202" s="14"/>
-      <c r="BQ202" s="14"/>
-      <c r="BR202" s="14"/>
-      <c r="BS202" s="14"/>
-      <c r="BT202" s="14"/>
-      <c r="BU202" s="14"/>
-      <c r="BV202" s="14"/>
-      <c r="BW202" s="14"/>
-      <c r="BX202" s="16"/>
+    <row r="202" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A202" s="7"/>
+      <c r="B202" s="4"/>
+      <c r="V202" s="20"/>
+      <c r="W202" s="20"/>
+      <c r="X202" s="20"/>
+      <c r="Y202" s="20"/>
+      <c r="Z202" s="20"/>
+      <c r="AA202" s="20"/>
+      <c r="AB202" s="20"/>
+      <c r="AC202" s="20"/>
+      <c r="AD202" s="20"/>
+      <c r="AE202" s="20"/>
+      <c r="AF202" s="20"/>
+      <c r="AG202" s="4"/>
+      <c r="AH202" s="4"/>
+      <c r="AI202" s="4"/>
+      <c r="AJ202" s="4"/>
+      <c r="AK202" s="4"/>
+      <c r="AL202" s="4"/>
+      <c r="AM202" s="5"/>
+      <c r="AN202" s="4"/>
+      <c r="AO202" s="4"/>
+      <c r="AP202" s="4"/>
+      <c r="AQ202" s="4"/>
+      <c r="AR202" s="4"/>
+      <c r="AS202" s="4"/>
+      <c r="AT202" s="4"/>
+      <c r="AU202" s="4"/>
+      <c r="AV202" s="4"/>
+      <c r="AW202" s="4"/>
+      <c r="AX202" s="4"/>
+      <c r="AY202" s="21"/>
+      <c r="AZ202" s="4"/>
+      <c r="BA202" s="4"/>
+      <c r="BB202" s="4"/>
+      <c r="BC202" s="4"/>
+      <c r="BD202" s="4"/>
+      <c r="BE202" s="4"/>
+      <c r="BF202" s="4"/>
+      <c r="BG202" s="4"/>
+      <c r="BH202" s="4"/>
+      <c r="BI202" s="4"/>
+      <c r="BJ202" s="4"/>
+      <c r="BK202" s="4"/>
+      <c r="BL202" s="4"/>
+      <c r="BM202" s="4"/>
+      <c r="BN202" s="4"/>
+      <c r="BO202" s="4"/>
+      <c r="BP202" s="4"/>
+      <c r="BQ202" s="4"/>
+      <c r="BR202" s="4"/>
+      <c r="BS202" s="4"/>
+      <c r="BT202" s="4"/>
+      <c r="BU202" s="4"/>
+      <c r="BV202" s="4"/>
+      <c r="BW202" s="4"/>
+      <c r="BX202" s="6"/>
       <c r="BY202" s="4"/>
       <c r="BZ202" s="4"/>
     </row>
-    <row r="203" spans="1:78" ht="15" customHeight="1">
-      <c r="A203" t="s">
+    <row r="203" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A203" s="7"/>
+      <c r="B203" s="4"/>
+      <c r="V203" s="20"/>
+      <c r="W203" s="20"/>
+      <c r="X203" s="20"/>
+      <c r="Y203" s="20"/>
+      <c r="Z203" s="20"/>
+      <c r="AA203" s="20"/>
+      <c r="AB203" s="20"/>
+      <c r="AC203" s="20"/>
+      <c r="AD203" s="20"/>
+      <c r="AE203" s="20"/>
+      <c r="AF203" s="20"/>
+      <c r="AG203" s="4"/>
+      <c r="AH203" s="4"/>
+      <c r="AI203" s="4"/>
+      <c r="AJ203" s="4"/>
+      <c r="AK203" s="4"/>
+      <c r="AL203" s="4"/>
+      <c r="AM203" s="5"/>
+      <c r="AN203" s="4"/>
+      <c r="AO203" s="4"/>
+      <c r="AP203" s="4"/>
+      <c r="AQ203" s="4"/>
+      <c r="AR203" s="4"/>
+      <c r="AS203" s="4"/>
+      <c r="AT203" s="4"/>
+      <c r="AU203" s="4"/>
+      <c r="AV203" s="4"/>
+      <c r="AW203" s="4"/>
+      <c r="AX203" s="4"/>
+      <c r="AY203" s="4"/>
+      <c r="AZ203" s="4"/>
+      <c r="BA203" s="4"/>
+      <c r="BB203" s="4"/>
+      <c r="BC203" s="4"/>
+      <c r="BD203" s="4"/>
+      <c r="BE203" s="4"/>
+      <c r="BF203" s="4"/>
+      <c r="BG203" s="4"/>
+      <c r="BH203" s="4"/>
+      <c r="BI203" s="4"/>
+      <c r="BJ203" s="4"/>
+      <c r="BK203" s="4"/>
+      <c r="BL203" s="4"/>
+      <c r="BM203" s="4"/>
+      <c r="BN203" s="4"/>
+      <c r="BO203" s="4"/>
+      <c r="BP203" s="4"/>
+      <c r="BQ203" s="4"/>
+      <c r="BR203" s="4"/>
+      <c r="BS203" s="4"/>
+      <c r="BT203" s="4"/>
+      <c r="BU203" s="4"/>
+      <c r="BV203" s="4"/>
+      <c r="BW203" s="4"/>
+      <c r="BX203" s="6"/>
+      <c r="BY203" s="4"/>
+      <c r="BZ203" s="4"/>
+    </row>
+    <row r="204" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A204" s="7"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="4"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
+      <c r="AB204" s="4"/>
+      <c r="AC204" s="4"/>
+      <c r="AD204" s="4"/>
+      <c r="AE204" s="4"/>
+      <c r="AF204" s="4"/>
+      <c r="AG204" s="4"/>
+      <c r="AH204" s="4"/>
+      <c r="AI204" s="4"/>
+      <c r="AJ204" s="4"/>
+      <c r="AK204" s="4"/>
+      <c r="AL204" s="4"/>
+      <c r="AM204" s="5"/>
+      <c r="AN204" s="4"/>
+      <c r="AO204" s="4"/>
+      <c r="AP204" s="4"/>
+      <c r="AQ204" s="4"/>
+      <c r="AR204" s="4"/>
+      <c r="AS204" s="4"/>
+      <c r="AT204" s="4"/>
+      <c r="AU204" s="4"/>
+      <c r="AV204" s="4"/>
+      <c r="AW204" s="4"/>
+      <c r="AX204" s="4"/>
+      <c r="AY204" s="4"/>
+      <c r="AZ204" s="4"/>
+      <c r="BA204" s="4"/>
+      <c r="BB204" s="4"/>
+      <c r="BC204" s="4"/>
+      <c r="BD204" s="4"/>
+      <c r="BE204" s="4"/>
+      <c r="BF204" s="4"/>
+      <c r="BG204" s="4"/>
+      <c r="BH204" s="4"/>
+      <c r="BI204" s="4"/>
+      <c r="BJ204" s="4"/>
+      <c r="BK204" s="4"/>
+      <c r="BL204" s="4"/>
+      <c r="BM204" s="4"/>
+      <c r="BN204" s="4"/>
+      <c r="BO204" s="4"/>
+      <c r="BP204" s="4"/>
+      <c r="BQ204" s="4"/>
+      <c r="BR204" s="4"/>
+      <c r="BS204" s="4"/>
+      <c r="BT204" s="4"/>
+      <c r="BU204" s="4"/>
+      <c r="BV204" s="4"/>
+      <c r="BW204" s="4"/>
+      <c r="BX204" s="6"/>
+      <c r="BY204" s="4"/>
+      <c r="BZ204" s="4"/>
+    </row>
+    <row r="205" spans="1:78" ht="13.5">
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="14"/>
+      <c r="S205" s="14"/>
+      <c r="T205" s="14"/>
+      <c r="U205" s="14"/>
+      <c r="V205" s="14"/>
+      <c r="W205" s="14"/>
+      <c r="X205" s="14"/>
+      <c r="Y205" s="14"/>
+      <c r="Z205" s="14"/>
+      <c r="AA205" s="14"/>
+      <c r="AB205" s="14"/>
+      <c r="AC205" s="14"/>
+      <c r="AD205" s="14"/>
+      <c r="AE205" s="14"/>
+      <c r="AF205" s="14"/>
+      <c r="AG205" s="14"/>
+      <c r="AH205" s="14"/>
+      <c r="AI205" s="14"/>
+      <c r="AJ205" s="14"/>
+      <c r="AK205" s="14"/>
+      <c r="AL205" s="14"/>
+      <c r="AM205" s="15"/>
+      <c r="AN205" s="14"/>
+      <c r="AO205" s="14"/>
+      <c r="AP205" s="14"/>
+      <c r="AQ205" s="14"/>
+      <c r="AR205" s="14"/>
+      <c r="AS205" s="14"/>
+      <c r="AT205" s="14"/>
+      <c r="AU205" s="14"/>
+      <c r="AV205" s="14"/>
+      <c r="AW205" s="14"/>
+      <c r="AX205" s="14"/>
+      <c r="AY205" s="14"/>
+      <c r="AZ205" s="14"/>
+      <c r="BA205" s="14"/>
+      <c r="BB205" s="14"/>
+      <c r="BC205" s="14"/>
+      <c r="BD205" s="14"/>
+      <c r="BE205" s="14"/>
+      <c r="BF205" s="14"/>
+      <c r="BG205" s="14"/>
+      <c r="BH205" s="14"/>
+      <c r="BI205" s="14"/>
+      <c r="BJ205" s="14"/>
+      <c r="BK205" s="14"/>
+      <c r="BL205" s="14"/>
+      <c r="BM205" s="14"/>
+      <c r="BN205" s="14"/>
+      <c r="BO205" s="14"/>
+      <c r="BP205" s="14"/>
+      <c r="BQ205" s="14"/>
+      <c r="BR205" s="14"/>
+      <c r="BS205" s="14"/>
+      <c r="BT205" s="14"/>
+      <c r="BU205" s="14"/>
+      <c r="BV205" s="14"/>
+      <c r="BW205" s="14"/>
+      <c r="BX205" s="16"/>
+      <c r="BY205" s="4"/>
+      <c r="BZ205" s="4"/>
+    </row>
+    <row r="206" spans="1:78" ht="15" customHeight="1">
+      <c r="A206" s="81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="207" spans="1:78" ht="15" customHeight="1">
+      <c r="A207" s="82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" ht="15" customHeight="1">
+      <c r="B209" s="83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" ht="15" customHeight="1">
+      <c r="B211" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" ht="15" customHeight="1">
+      <c r="B213" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:78" ht="15" customHeight="1">
-      <c r="A204" s="77" t="s">
+    <row r="214" spans="2:14" ht="15" customHeight="1">
+      <c r="J214" s="60"/>
+      <c r="N214" s="84" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:78" ht="15" customHeight="1">
-      <c r="B206" s="77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="208" spans="1:78" ht="15" customHeight="1">
-      <c r="B208" s="77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" ht="15" customHeight="1">
-      <c r="B210" s="77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" ht="15" customHeight="1">
-      <c r="J211" s="78"/>
-      <c r="N211" s="73" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BP111:BX111"/>
-    <mergeCell ref="F112:Y112"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="BP112:BX112"/>
-    <mergeCell ref="Z152:AD152"/>
-    <mergeCell ref="BK152:BO152"/>
-    <mergeCell ref="AE152:AV152"/>
-    <mergeCell ref="AW152:BA152"/>
-    <mergeCell ref="BB152:BJ152"/>
-    <mergeCell ref="BP151:BX151"/>
-    <mergeCell ref="BP152:BX152"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:AV111"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW111:BA111"/>
-    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="F154:AV154"/>
+    <mergeCell ref="AW154:BA154"/>
+    <mergeCell ref="AE115:AV115"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="Z115:AD115"/>
+    <mergeCell ref="BK114:BO114"/>
+    <mergeCell ref="BB114:BJ114"/>
+    <mergeCell ref="BK115:BO115"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="Z53:AD53"/>
     <mergeCell ref="AW52:BA52"/>
     <mergeCell ref="AW53:BA53"/>
     <mergeCell ref="AE53:AV53"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F152:Y152"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="BK151:BO151"/>
-    <mergeCell ref="BB151:BJ151"/>
-    <mergeCell ref="BK111:BO111"/>
-    <mergeCell ref="BB111:BJ111"/>
-    <mergeCell ref="BK112:BO112"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="F151:AV151"/>
-    <mergeCell ref="AW151:BA151"/>
-    <mergeCell ref="AE112:AV112"/>
-    <mergeCell ref="AW112:BA112"/>
-    <mergeCell ref="BB112:BJ112"/>
-    <mergeCell ref="Z112:AD112"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="F114:AV114"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW114:BA114"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="BP114:BX114"/>
+    <mergeCell ref="F115:Y115"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="BP115:BX115"/>
+    <mergeCell ref="Z155:AD155"/>
+    <mergeCell ref="BK155:BO155"/>
+    <mergeCell ref="AE155:AV155"/>
+    <mergeCell ref="AW155:BA155"/>
+    <mergeCell ref="BB155:BJ155"/>
+    <mergeCell ref="BP154:BX154"/>
+    <mergeCell ref="BP155:BX155"/>
+    <mergeCell ref="F155:Y155"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="BK154:BO154"/>
+    <mergeCell ref="BB154:BJ154"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BDD9A-E657-4EA4-92C9-1A1DE60BA9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F98AA0-94F5-4B78-8094-A40DAE1823DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="176">
   <si>
     <t>システム名</t>
   </si>
@@ -809,6 +809,48 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>取得項目　商品ID　商品画像ファイル名　在庫数　</t>
+    <rPh sb="0" eb="4">
+      <t>シュトクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【ログインするとログインIDの下にログアウトボタンが追加される。】</t>
+    <rPh sb="15" eb="16">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※ログアウト後はログアウトが表示されなくなる。</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1406,31 +1448,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,23 +1487,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2593,10 +2636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ214"/>
+  <dimension ref="A1:BZ218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2606,188 +2649,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="80" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="70" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="66" t="s">
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="70" t="s">
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="63" t="s">
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="65"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="86"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="75" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="75" t="s">
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="79" t="s">
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="75" t="s">
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="77"/>
+      <c r="BK2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="69" t="s">
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="77"/>
+      <c r="BP2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BV2" s="64"/>
-      <c r="BW2" s="64"/>
-      <c r="BX2" s="65"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="86"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -6740,197 +6783,197 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="78" t="str">
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="71" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="64"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="64"/>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="64"/>
-      <c r="AE52" s="64"/>
-      <c r="AF52" s="64"/>
-      <c r="AG52" s="64"/>
-      <c r="AH52" s="64"/>
-      <c r="AI52" s="64"/>
-      <c r="AJ52" s="64"/>
-      <c r="AK52" s="64"/>
-      <c r="AL52" s="64"/>
-      <c r="AM52" s="64"/>
-      <c r="AN52" s="64"/>
-      <c r="AO52" s="64"/>
-      <c r="AP52" s="64"/>
-      <c r="AQ52" s="64"/>
-      <c r="AR52" s="64"/>
-      <c r="AS52" s="64"/>
-      <c r="AT52" s="64"/>
-      <c r="AU52" s="64"/>
-      <c r="AV52" s="71"/>
-      <c r="AW52" s="70" t="s">
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="72"/>
+      <c r="AH52" s="72"/>
+      <c r="AI52" s="72"/>
+      <c r="AJ52" s="72"/>
+      <c r="AK52" s="72"/>
+      <c r="AL52" s="72"/>
+      <c r="AM52" s="72"/>
+      <c r="AN52" s="72"/>
+      <c r="AO52" s="72"/>
+      <c r="AP52" s="72"/>
+      <c r="AQ52" s="72"/>
+      <c r="AR52" s="72"/>
+      <c r="AS52" s="72"/>
+      <c r="AT52" s="72"/>
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="73"/>
+      <c r="AW52" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AX52" s="64"/>
-      <c r="AY52" s="64"/>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="71"/>
-      <c r="BB52" s="63" t="str">
+      <c r="AX52" s="72"/>
+      <c r="AY52" s="72"/>
+      <c r="AZ52" s="72"/>
+      <c r="BA52" s="73"/>
+      <c r="BB52" s="80" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="64"/>
-      <c r="BE52" s="64"/>
-      <c r="BF52" s="64"/>
-      <c r="BG52" s="64"/>
-      <c r="BH52" s="64"/>
-      <c r="BI52" s="64"/>
-      <c r="BJ52" s="71"/>
-      <c r="BK52" s="70" t="s">
+      <c r="BC52" s="72"/>
+      <c r="BD52" s="72"/>
+      <c r="BE52" s="72"/>
+      <c r="BF52" s="72"/>
+      <c r="BG52" s="72"/>
+      <c r="BH52" s="72"/>
+      <c r="BI52" s="72"/>
+      <c r="BJ52" s="73"/>
+      <c r="BK52" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="BL52" s="64"/>
-      <c r="BM52" s="64"/>
-      <c r="BN52" s="64"/>
-      <c r="BO52" s="71"/>
-      <c r="BP52" s="63" t="str">
+      <c r="BL52" s="72"/>
+      <c r="BM52" s="72"/>
+      <c r="BN52" s="72"/>
+      <c r="BO52" s="73"/>
+      <c r="BP52" s="80" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ52" s="64"/>
-      <c r="BR52" s="64"/>
-      <c r="BS52" s="64"/>
-      <c r="BT52" s="64"/>
-      <c r="BU52" s="64"/>
-      <c r="BV52" s="64"/>
-      <c r="BW52" s="64"/>
-      <c r="BX52" s="65"/>
+      <c r="BQ52" s="72"/>
+      <c r="BR52" s="72"/>
+      <c r="BS52" s="72"/>
+      <c r="BT52" s="72"/>
+      <c r="BU52" s="72"/>
+      <c r="BV52" s="72"/>
+      <c r="BW52" s="72"/>
+      <c r="BX52" s="86"/>
       <c r="BY52" s="1"/>
       <c r="BZ52" s="1"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="72" t="str">
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="75" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="75" t="s">
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="77"/>
+      <c r="Z53" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="73"/>
-      <c r="AE53" s="72" t="str">
+      <c r="AA53" s="76"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="76"/>
+      <c r="AD53" s="77"/>
+      <c r="AE53" s="75" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="67"/>
-      <c r="AR53" s="67"/>
-      <c r="AS53" s="67"/>
-      <c r="AT53" s="67"/>
-      <c r="AU53" s="67"/>
-      <c r="AV53" s="73"/>
-      <c r="AW53" s="75" t="s">
+      <c r="AF53" s="76"/>
+      <c r="AG53" s="76"/>
+      <c r="AH53" s="76"/>
+      <c r="AI53" s="76"/>
+      <c r="AJ53" s="76"/>
+      <c r="AK53" s="76"/>
+      <c r="AL53" s="76"/>
+      <c r="AM53" s="76"/>
+      <c r="AN53" s="76"/>
+      <c r="AO53" s="76"/>
+      <c r="AP53" s="76"/>
+      <c r="AQ53" s="76"/>
+      <c r="AR53" s="76"/>
+      <c r="AS53" s="76"/>
+      <c r="AT53" s="76"/>
+      <c r="AU53" s="76"/>
+      <c r="AV53" s="77"/>
+      <c r="AW53" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AX53" s="67"/>
-      <c r="AY53" s="67"/>
-      <c r="AZ53" s="67"/>
-      <c r="BA53" s="73"/>
-      <c r="BB53" s="66" t="str">
+      <c r="AX53" s="76"/>
+      <c r="AY53" s="76"/>
+      <c r="AZ53" s="76"/>
+      <c r="BA53" s="77"/>
+      <c r="BB53" s="79" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/10</v>
       </c>
-      <c r="BC53" s="67"/>
-      <c r="BD53" s="67"/>
-      <c r="BE53" s="67"/>
-      <c r="BF53" s="67"/>
-      <c r="BG53" s="67"/>
-      <c r="BH53" s="67"/>
-      <c r="BI53" s="67"/>
-      <c r="BJ53" s="73"/>
-      <c r="BK53" s="75" t="s">
+      <c r="BC53" s="76"/>
+      <c r="BD53" s="76"/>
+      <c r="BE53" s="76"/>
+      <c r="BF53" s="76"/>
+      <c r="BG53" s="76"/>
+      <c r="BH53" s="76"/>
+      <c r="BI53" s="76"/>
+      <c r="BJ53" s="77"/>
+      <c r="BK53" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BL53" s="67"/>
-      <c r="BM53" s="67"/>
-      <c r="BN53" s="67"/>
-      <c r="BO53" s="73"/>
-      <c r="BP53" s="66" t="str">
+      <c r="BL53" s="76"/>
+      <c r="BM53" s="76"/>
+      <c r="BN53" s="76"/>
+      <c r="BO53" s="77"/>
+      <c r="BP53" s="79" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
-      <c r="BQ53" s="67"/>
-      <c r="BR53" s="67"/>
-      <c r="BS53" s="67"/>
-      <c r="BT53" s="67"/>
-      <c r="BU53" s="67"/>
-      <c r="BV53" s="67"/>
-      <c r="BW53" s="67"/>
-      <c r="BX53" s="68"/>
+      <c r="BQ53" s="76"/>
+      <c r="BR53" s="76"/>
+      <c r="BS53" s="76"/>
+      <c r="BT53" s="76"/>
+      <c r="BU53" s="76"/>
+      <c r="BV53" s="76"/>
+      <c r="BW53" s="76"/>
+      <c r="BX53" s="87"/>
       <c r="BY53" s="1"/>
       <c r="BZ53" s="1"/>
     </row>
@@ -10832,7 +10875,7 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="61"/>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="65" t="s">
         <v>155</v>
       </c>
       <c r="F109" s="4"/>
@@ -10882,7 +10925,9 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="61"/>
-      <c r="E110" s="59"/>
+      <c r="E110" s="59" t="s">
+        <v>173</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -11055,9 +11100,9 @@
       <c r="BZ112" s="4"/>
     </row>
     <row r="113" spans="1:78" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A113" s="85"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="88"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -11087,241 +11132,241 @@
       <c r="AG113" s="4"/>
       <c r="AH113" s="4"/>
       <c r="AI113" s="4"/>
-      <c r="AJ113" s="88"/>
-      <c r="AK113" s="88"/>
-      <c r="AL113" s="88"/>
-      <c r="AM113" s="88"/>
-      <c r="AN113" s="88"/>
-      <c r="AO113" s="88"/>
-      <c r="AP113" s="88"/>
-      <c r="AQ113" s="88"/>
-      <c r="AR113" s="88"/>
-      <c r="AS113" s="88"/>
-      <c r="AT113" s="88"/>
-      <c r="AU113" s="88"/>
-      <c r="AV113" s="88"/>
-      <c r="AW113" s="88"/>
-      <c r="AX113" s="88"/>
-      <c r="AY113" s="88"/>
-      <c r="AZ113" s="88"/>
-      <c r="BA113" s="88"/>
-      <c r="BB113" s="88"/>
-      <c r="BC113" s="88"/>
-      <c r="BD113" s="88"/>
-      <c r="BE113" s="88"/>
-      <c r="BF113" s="88"/>
-      <c r="BG113" s="88"/>
-      <c r="BH113" s="88"/>
-      <c r="BI113" s="88"/>
-      <c r="BJ113" s="88"/>
-      <c r="BK113" s="88"/>
-      <c r="BL113" s="88"/>
-      <c r="BM113" s="88"/>
-      <c r="BN113" s="88"/>
-      <c r="BO113" s="88"/>
-      <c r="BP113" s="88"/>
-      <c r="BQ113" s="88"/>
-      <c r="BR113" s="88"/>
-      <c r="BS113" s="88"/>
-      <c r="BT113" s="88"/>
-      <c r="BU113" s="88"/>
-      <c r="BV113" s="88"/>
-      <c r="BW113" s="88"/>
+      <c r="AJ113" s="70"/>
+      <c r="AK113" s="70"/>
+      <c r="AL113" s="70"/>
+      <c r="AM113" s="70"/>
+      <c r="AN113" s="70"/>
+      <c r="AO113" s="70"/>
+      <c r="AP113" s="70"/>
+      <c r="AQ113" s="70"/>
+      <c r="AR113" s="70"/>
+      <c r="AS113" s="70"/>
+      <c r="AT113" s="70"/>
+      <c r="AU113" s="70"/>
+      <c r="AV113" s="70"/>
+      <c r="AW113" s="70"/>
+      <c r="AX113" s="70"/>
+      <c r="AY113" s="70"/>
+      <c r="AZ113" s="70"/>
+      <c r="BA113" s="70"/>
+      <c r="BB113" s="70"/>
+      <c r="BC113" s="70"/>
+      <c r="BD113" s="70"/>
+      <c r="BE113" s="70"/>
+      <c r="BF113" s="70"/>
+      <c r="BG113" s="70"/>
+      <c r="BH113" s="70"/>
+      <c r="BI113" s="70"/>
+      <c r="BJ113" s="70"/>
+      <c r="BK113" s="70"/>
+      <c r="BL113" s="70"/>
+      <c r="BM113" s="70"/>
+      <c r="BN113" s="70"/>
+      <c r="BO113" s="70"/>
+      <c r="BP113" s="70"/>
+      <c r="BQ113" s="70"/>
+      <c r="BR113" s="70"/>
+      <c r="BS113" s="70"/>
+      <c r="BT113" s="70"/>
+      <c r="BU113" s="70"/>
+      <c r="BV113" s="70"/>
+      <c r="BW113" s="70"/>
       <c r="BX113" s="6"/>
       <c r="BY113" s="4"/>
       <c r="BZ113" s="4"/>
     </row>
     <row r="114" spans="1:78" ht="36" customHeight="1">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="78" t="str">
+      <c r="B114" s="72"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="71" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="64"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="64"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="64"/>
-      <c r="W114" s="64"/>
-      <c r="X114" s="64"/>
-      <c r="Y114" s="64"/>
-      <c r="Z114" s="64"/>
-      <c r="AA114" s="64"/>
-      <c r="AB114" s="64"/>
-      <c r="AC114" s="64"/>
-      <c r="AD114" s="64"/>
-      <c r="AE114" s="64"/>
-      <c r="AF114" s="64"/>
-      <c r="AG114" s="64"/>
-      <c r="AH114" s="64"/>
-      <c r="AI114" s="64"/>
-      <c r="AJ114" s="64"/>
-      <c r="AK114" s="64"/>
-      <c r="AL114" s="64"/>
-      <c r="AM114" s="64"/>
-      <c r="AN114" s="64"/>
-      <c r="AO114" s="64"/>
-      <c r="AP114" s="64"/>
-      <c r="AQ114" s="64"/>
-      <c r="AR114" s="64"/>
-      <c r="AS114" s="64"/>
-      <c r="AT114" s="64"/>
-      <c r="AU114" s="64"/>
-      <c r="AV114" s="71"/>
-      <c r="AW114" s="70" t="s">
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="72"/>
+      <c r="L114" s="72"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="72"/>
+      <c r="O114" s="72"/>
+      <c r="P114" s="72"/>
+      <c r="Q114" s="72"/>
+      <c r="R114" s="72"/>
+      <c r="S114" s="72"/>
+      <c r="T114" s="72"/>
+      <c r="U114" s="72"/>
+      <c r="V114" s="72"/>
+      <c r="W114" s="72"/>
+      <c r="X114" s="72"/>
+      <c r="Y114" s="72"/>
+      <c r="Z114" s="72"/>
+      <c r="AA114" s="72"/>
+      <c r="AB114" s="72"/>
+      <c r="AC114" s="72"/>
+      <c r="AD114" s="72"/>
+      <c r="AE114" s="72"/>
+      <c r="AF114" s="72"/>
+      <c r="AG114" s="72"/>
+      <c r="AH114" s="72"/>
+      <c r="AI114" s="72"/>
+      <c r="AJ114" s="72"/>
+      <c r="AK114" s="72"/>
+      <c r="AL114" s="72"/>
+      <c r="AM114" s="72"/>
+      <c r="AN114" s="72"/>
+      <c r="AO114" s="72"/>
+      <c r="AP114" s="72"/>
+      <c r="AQ114" s="72"/>
+      <c r="AR114" s="72"/>
+      <c r="AS114" s="72"/>
+      <c r="AT114" s="72"/>
+      <c r="AU114" s="72"/>
+      <c r="AV114" s="73"/>
+      <c r="AW114" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AX114" s="64"/>
-      <c r="AY114" s="64"/>
-      <c r="AZ114" s="64"/>
-      <c r="BA114" s="71"/>
-      <c r="BB114" s="63" t="str">
+      <c r="AX114" s="72"/>
+      <c r="AY114" s="72"/>
+      <c r="AZ114" s="72"/>
+      <c r="BA114" s="73"/>
+      <c r="BB114" s="80" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC114" s="64"/>
-      <c r="BD114" s="64"/>
-      <c r="BE114" s="64"/>
-      <c r="BF114" s="64"/>
-      <c r="BG114" s="64"/>
-      <c r="BH114" s="64"/>
-      <c r="BI114" s="64"/>
-      <c r="BJ114" s="71"/>
-      <c r="BK114" s="70" t="s">
+      <c r="BC114" s="72"/>
+      <c r="BD114" s="72"/>
+      <c r="BE114" s="72"/>
+      <c r="BF114" s="72"/>
+      <c r="BG114" s="72"/>
+      <c r="BH114" s="72"/>
+      <c r="BI114" s="72"/>
+      <c r="BJ114" s="73"/>
+      <c r="BK114" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="BL114" s="64"/>
-      <c r="BM114" s="64"/>
-      <c r="BN114" s="64"/>
-      <c r="BO114" s="71"/>
-      <c r="BP114" s="63" t="str">
+      <c r="BL114" s="72"/>
+      <c r="BM114" s="72"/>
+      <c r="BN114" s="72"/>
+      <c r="BO114" s="73"/>
+      <c r="BP114" s="80" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ114" s="64"/>
-      <c r="BR114" s="64"/>
-      <c r="BS114" s="64"/>
-      <c r="BT114" s="64"/>
-      <c r="BU114" s="64"/>
-      <c r="BV114" s="64"/>
-      <c r="BW114" s="64"/>
-      <c r="BX114" s="65"/>
+      <c r="BQ114" s="72"/>
+      <c r="BR114" s="72"/>
+      <c r="BS114" s="72"/>
+      <c r="BT114" s="72"/>
+      <c r="BU114" s="72"/>
+      <c r="BV114" s="72"/>
+      <c r="BW114" s="72"/>
+      <c r="BX114" s="86"/>
       <c r="BY114" s="1"/>
       <c r="BZ114" s="1"/>
     </row>
     <row r="115" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A115" s="74" t="s">
+      <c r="A115" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="72" t="str">
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="75" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="67"/>
-      <c r="L115" s="67"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="67"/>
-      <c r="P115" s="67"/>
-      <c r="Q115" s="67"/>
-      <c r="R115" s="67"/>
-      <c r="S115" s="67"/>
-      <c r="T115" s="67"/>
-      <c r="U115" s="67"/>
-      <c r="V115" s="67"/>
-      <c r="W115" s="67"/>
-      <c r="X115" s="67"/>
-      <c r="Y115" s="73"/>
-      <c r="Z115" s="75" t="s">
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="76"/>
+      <c r="O115" s="76"/>
+      <c r="P115" s="76"/>
+      <c r="Q115" s="76"/>
+      <c r="R115" s="76"/>
+      <c r="S115" s="76"/>
+      <c r="T115" s="76"/>
+      <c r="U115" s="76"/>
+      <c r="V115" s="76"/>
+      <c r="W115" s="76"/>
+      <c r="X115" s="76"/>
+      <c r="Y115" s="77"/>
+      <c r="Z115" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AA115" s="67"/>
-      <c r="AB115" s="67"/>
-      <c r="AC115" s="67"/>
-      <c r="AD115" s="73"/>
-      <c r="AE115" s="72" t="s">
+      <c r="AA115" s="76"/>
+      <c r="AB115" s="76"/>
+      <c r="AC115" s="76"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AF115" s="67"/>
-      <c r="AG115" s="67"/>
-      <c r="AH115" s="67"/>
-      <c r="AI115" s="67"/>
-      <c r="AJ115" s="67"/>
-      <c r="AK115" s="67"/>
-      <c r="AL115" s="67"/>
-      <c r="AM115" s="67"/>
-      <c r="AN115" s="67"/>
-      <c r="AO115" s="67"/>
-      <c r="AP115" s="67"/>
-      <c r="AQ115" s="67"/>
-      <c r="AR115" s="67"/>
-      <c r="AS115" s="67"/>
-      <c r="AT115" s="67"/>
-      <c r="AU115" s="67"/>
-      <c r="AV115" s="73"/>
-      <c r="AW115" s="75" t="s">
+      <c r="AF115" s="76"/>
+      <c r="AG115" s="76"/>
+      <c r="AH115" s="76"/>
+      <c r="AI115" s="76"/>
+      <c r="AJ115" s="76"/>
+      <c r="AK115" s="76"/>
+      <c r="AL115" s="76"/>
+      <c r="AM115" s="76"/>
+      <c r="AN115" s="76"/>
+      <c r="AO115" s="76"/>
+      <c r="AP115" s="76"/>
+      <c r="AQ115" s="76"/>
+      <c r="AR115" s="76"/>
+      <c r="AS115" s="76"/>
+      <c r="AT115" s="76"/>
+      <c r="AU115" s="76"/>
+      <c r="AV115" s="77"/>
+      <c r="AW115" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AX115" s="67"/>
-      <c r="AY115" s="67"/>
-      <c r="AZ115" s="67"/>
-      <c r="BA115" s="73"/>
-      <c r="BB115" s="66" t="str">
+      <c r="AX115" s="76"/>
+      <c r="AY115" s="76"/>
+      <c r="AZ115" s="76"/>
+      <c r="BA115" s="77"/>
+      <c r="BB115" s="79" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/10</v>
       </c>
-      <c r="BC115" s="67"/>
-      <c r="BD115" s="67"/>
-      <c r="BE115" s="67"/>
-      <c r="BF115" s="67"/>
-      <c r="BG115" s="67"/>
-      <c r="BH115" s="67"/>
-      <c r="BI115" s="67"/>
-      <c r="BJ115" s="73"/>
-      <c r="BK115" s="75" t="s">
+      <c r="BC115" s="76"/>
+      <c r="BD115" s="76"/>
+      <c r="BE115" s="76"/>
+      <c r="BF115" s="76"/>
+      <c r="BG115" s="76"/>
+      <c r="BH115" s="76"/>
+      <c r="BI115" s="76"/>
+      <c r="BJ115" s="77"/>
+      <c r="BK115" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BL115" s="67"/>
-      <c r="BM115" s="67"/>
-      <c r="BN115" s="67"/>
-      <c r="BO115" s="73"/>
-      <c r="BP115" s="66" t="str">
+      <c r="BL115" s="76"/>
+      <c r="BM115" s="76"/>
+      <c r="BN115" s="76"/>
+      <c r="BO115" s="77"/>
+      <c r="BP115" s="79" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
-      <c r="BQ115" s="67"/>
-      <c r="BR115" s="67"/>
-      <c r="BS115" s="67"/>
-      <c r="BT115" s="67"/>
-      <c r="BU115" s="67"/>
-      <c r="BV115" s="67"/>
-      <c r="BW115" s="67"/>
-      <c r="BX115" s="68"/>
+      <c r="BQ115" s="76"/>
+      <c r="BR115" s="76"/>
+      <c r="BS115" s="76"/>
+      <c r="BT115" s="76"/>
+      <c r="BU115" s="76"/>
+      <c r="BV115" s="76"/>
+      <c r="BW115" s="76"/>
+      <c r="BX115" s="87"/>
       <c r="BY115" s="1"/>
       <c r="BZ115" s="1"/>
     </row>
@@ -14248,196 +14293,196 @@
       <c r="BZ153" s="4"/>
     </row>
     <row r="154" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="78" t="str">
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="71" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
-      <c r="M154" s="64"/>
-      <c r="N154" s="64"/>
-      <c r="O154" s="64"/>
-      <c r="P154" s="64"/>
-      <c r="Q154" s="64"/>
-      <c r="R154" s="64"/>
-      <c r="S154" s="64"/>
-      <c r="T154" s="64"/>
-      <c r="U154" s="64"/>
-      <c r="V154" s="64"/>
-      <c r="W154" s="64"/>
-      <c r="X154" s="64"/>
-      <c r="Y154" s="64"/>
-      <c r="Z154" s="64"/>
-      <c r="AA154" s="64"/>
-      <c r="AB154" s="64"/>
-      <c r="AC154" s="64"/>
-      <c r="AD154" s="64"/>
-      <c r="AE154" s="64"/>
-      <c r="AF154" s="64"/>
-      <c r="AG154" s="64"/>
-      <c r="AH154" s="64"/>
-      <c r="AI154" s="64"/>
-      <c r="AJ154" s="64"/>
-      <c r="AK154" s="64"/>
-      <c r="AL154" s="64"/>
-      <c r="AM154" s="64"/>
-      <c r="AN154" s="64"/>
-      <c r="AO154" s="64"/>
-      <c r="AP154" s="64"/>
-      <c r="AQ154" s="64"/>
-      <c r="AR154" s="64"/>
-      <c r="AS154" s="64"/>
-      <c r="AT154" s="64"/>
-      <c r="AU154" s="64"/>
-      <c r="AV154" s="71"/>
-      <c r="AW154" s="70" t="s">
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
+      <c r="K154" s="72"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="72"/>
+      <c r="N154" s="72"/>
+      <c r="O154" s="72"/>
+      <c r="P154" s="72"/>
+      <c r="Q154" s="72"/>
+      <c r="R154" s="72"/>
+      <c r="S154" s="72"/>
+      <c r="T154" s="72"/>
+      <c r="U154" s="72"/>
+      <c r="V154" s="72"/>
+      <c r="W154" s="72"/>
+      <c r="X154" s="72"/>
+      <c r="Y154" s="72"/>
+      <c r="Z154" s="72"/>
+      <c r="AA154" s="72"/>
+      <c r="AB154" s="72"/>
+      <c r="AC154" s="72"/>
+      <c r="AD154" s="72"/>
+      <c r="AE154" s="72"/>
+      <c r="AF154" s="72"/>
+      <c r="AG154" s="72"/>
+      <c r="AH154" s="72"/>
+      <c r="AI154" s="72"/>
+      <c r="AJ154" s="72"/>
+      <c r="AK154" s="72"/>
+      <c r="AL154" s="72"/>
+      <c r="AM154" s="72"/>
+      <c r="AN154" s="72"/>
+      <c r="AO154" s="72"/>
+      <c r="AP154" s="72"/>
+      <c r="AQ154" s="72"/>
+      <c r="AR154" s="72"/>
+      <c r="AS154" s="72"/>
+      <c r="AT154" s="72"/>
+      <c r="AU154" s="72"/>
+      <c r="AV154" s="73"/>
+      <c r="AW154" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AX154" s="64"/>
-      <c r="AY154" s="64"/>
-      <c r="AZ154" s="64"/>
-      <c r="BA154" s="71"/>
-      <c r="BB154" s="63" t="str">
+      <c r="AX154" s="72"/>
+      <c r="AY154" s="72"/>
+      <c r="AZ154" s="72"/>
+      <c r="BA154" s="73"/>
+      <c r="BB154" s="80" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC154" s="64"/>
-      <c r="BD154" s="64"/>
-      <c r="BE154" s="64"/>
-      <c r="BF154" s="64"/>
-      <c r="BG154" s="64"/>
-      <c r="BH154" s="64"/>
-      <c r="BI154" s="64"/>
-      <c r="BJ154" s="71"/>
-      <c r="BK154" s="70" t="s">
+      <c r="BC154" s="72"/>
+      <c r="BD154" s="72"/>
+      <c r="BE154" s="72"/>
+      <c r="BF154" s="72"/>
+      <c r="BG154" s="72"/>
+      <c r="BH154" s="72"/>
+      <c r="BI154" s="72"/>
+      <c r="BJ154" s="73"/>
+      <c r="BK154" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="BL154" s="64"/>
-      <c r="BM154" s="64"/>
-      <c r="BN154" s="64"/>
-      <c r="BO154" s="71"/>
-      <c r="BP154" s="63" t="str">
+      <c r="BL154" s="72"/>
+      <c r="BM154" s="72"/>
+      <c r="BN154" s="72"/>
+      <c r="BO154" s="73"/>
+      <c r="BP154" s="80" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ154" s="64"/>
-      <c r="BR154" s="64"/>
-      <c r="BS154" s="64"/>
-      <c r="BT154" s="64"/>
-      <c r="BU154" s="64"/>
-      <c r="BV154" s="64"/>
-      <c r="BW154" s="64"/>
-      <c r="BX154" s="65"/>
+      <c r="BQ154" s="72"/>
+      <c r="BR154" s="72"/>
+      <c r="BS154" s="72"/>
+      <c r="BT154" s="72"/>
+      <c r="BU154" s="72"/>
+      <c r="BV154" s="72"/>
+      <c r="BW154" s="72"/>
+      <c r="BX154" s="86"/>
       <c r="BY154" s="1"/>
       <c r="BZ154" s="1"/>
     </row>
     <row r="155" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A155" s="74" t="s">
+      <c r="A155" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="67"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="72" t="str">
+      <c r="B155" s="76"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="75" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="67"/>
-      <c r="K155" s="67"/>
-      <c r="L155" s="67"/>
-      <c r="M155" s="67"/>
-      <c r="N155" s="67"/>
-      <c r="O155" s="67"/>
-      <c r="P155" s="67"/>
-      <c r="Q155" s="67"/>
-      <c r="R155" s="67"/>
-      <c r="S155" s="67"/>
-      <c r="T155" s="67"/>
-      <c r="U155" s="67"/>
-      <c r="V155" s="67"/>
-      <c r="W155" s="67"/>
-      <c r="X155" s="67"/>
-      <c r="Y155" s="73"/>
-      <c r="Z155" s="75" t="s">
+      <c r="G155" s="76"/>
+      <c r="H155" s="76"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="76"/>
+      <c r="K155" s="76"/>
+      <c r="L155" s="76"/>
+      <c r="M155" s="76"/>
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="76"/>
+      <c r="R155" s="76"/>
+      <c r="S155" s="76"/>
+      <c r="T155" s="76"/>
+      <c r="U155" s="76"/>
+      <c r="V155" s="76"/>
+      <c r="W155" s="76"/>
+      <c r="X155" s="76"/>
+      <c r="Y155" s="77"/>
+      <c r="Z155" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AA155" s="67"/>
-      <c r="AB155" s="67"/>
-      <c r="AC155" s="67"/>
-      <c r="AD155" s="73"/>
-      <c r="AE155" s="72" t="s">
+      <c r="AA155" s="76"/>
+      <c r="AB155" s="76"/>
+      <c r="AC155" s="76"/>
+      <c r="AD155" s="77"/>
+      <c r="AE155" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AF155" s="67"/>
-      <c r="AG155" s="67"/>
-      <c r="AH155" s="67"/>
-      <c r="AI155" s="67"/>
-      <c r="AJ155" s="67"/>
-      <c r="AK155" s="67"/>
-      <c r="AL155" s="67"/>
-      <c r="AM155" s="67"/>
-      <c r="AN155" s="67"/>
-      <c r="AO155" s="67"/>
-      <c r="AP155" s="67"/>
-      <c r="AQ155" s="67"/>
-      <c r="AR155" s="67"/>
-      <c r="AS155" s="67"/>
-      <c r="AT155" s="67"/>
-      <c r="AU155" s="67"/>
-      <c r="AV155" s="73"/>
-      <c r="AW155" s="75" t="s">
+      <c r="AF155" s="76"/>
+      <c r="AG155" s="76"/>
+      <c r="AH155" s="76"/>
+      <c r="AI155" s="76"/>
+      <c r="AJ155" s="76"/>
+      <c r="AK155" s="76"/>
+      <c r="AL155" s="76"/>
+      <c r="AM155" s="76"/>
+      <c r="AN155" s="76"/>
+      <c r="AO155" s="76"/>
+      <c r="AP155" s="76"/>
+      <c r="AQ155" s="76"/>
+      <c r="AR155" s="76"/>
+      <c r="AS155" s="76"/>
+      <c r="AT155" s="76"/>
+      <c r="AU155" s="76"/>
+      <c r="AV155" s="77"/>
+      <c r="AW155" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AX155" s="67"/>
-      <c r="AY155" s="67"/>
-      <c r="AZ155" s="67"/>
-      <c r="BA155" s="73"/>
-      <c r="BB155" s="66" t="str">
+      <c r="AX155" s="76"/>
+      <c r="AY155" s="76"/>
+      <c r="AZ155" s="76"/>
+      <c r="BA155" s="77"/>
+      <c r="BB155" s="79" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/10</v>
       </c>
-      <c r="BC155" s="67"/>
-      <c r="BD155" s="67"/>
-      <c r="BE155" s="67"/>
-      <c r="BF155" s="67"/>
-      <c r="BG155" s="67"/>
-      <c r="BH155" s="67"/>
-      <c r="BI155" s="67"/>
-      <c r="BJ155" s="73"/>
-      <c r="BK155" s="75" t="s">
+      <c r="BC155" s="76"/>
+      <c r="BD155" s="76"/>
+      <c r="BE155" s="76"/>
+      <c r="BF155" s="76"/>
+      <c r="BG155" s="76"/>
+      <c r="BH155" s="76"/>
+      <c r="BI155" s="76"/>
+      <c r="BJ155" s="77"/>
+      <c r="BK155" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BL155" s="67"/>
-      <c r="BM155" s="67"/>
-      <c r="BN155" s="67"/>
-      <c r="BO155" s="73"/>
-      <c r="BP155" s="66" t="str">
+      <c r="BL155" s="76"/>
+      <c r="BM155" s="76"/>
+      <c r="BN155" s="76"/>
+      <c r="BO155" s="77"/>
+      <c r="BP155" s="79" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
-      <c r="BQ155" s="67"/>
-      <c r="BR155" s="67"/>
-      <c r="BS155" s="67"/>
-      <c r="BT155" s="67"/>
-      <c r="BU155" s="67"/>
-      <c r="BV155" s="67"/>
-      <c r="BW155" s="67"/>
-      <c r="BX155" s="68"/>
+      <c r="BQ155" s="76"/>
+      <c r="BR155" s="76"/>
+      <c r="BS155" s="76"/>
+      <c r="BT155" s="76"/>
+      <c r="BU155" s="76"/>
+      <c r="BV155" s="76"/>
+      <c r="BW155" s="76"/>
+      <c r="BX155" s="87"/>
       <c r="BY155" s="1"/>
       <c r="BZ155" s="1"/>
     </row>
@@ -16029,7 +16074,7 @@
       <c r="BZ181" s="4"/>
     </row>
     <row r="182" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A182" s="85" t="s">
+      <c r="A182" s="67" t="s">
         <v>157</v>
       </c>
       <c r="B182" s="4"/>
@@ -16107,10 +16152,10 @@
       <c r="BZ183" s="4"/>
     </row>
     <row r="184" spans="1:78" ht="14.25" customHeight="1">
-      <c r="A184" s="86" t="s">
+      <c r="A184" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B184" s="58" t="s">
+      <c r="B184" s="89" t="s">
         <v>159</v>
       </c>
       <c r="C184" s="4"/>
@@ -16139,7 +16184,7 @@
     <row r="185" spans="1:78" ht="14.25" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="58" t="s">
+      <c r="C185" s="89" t="s">
         <v>161</v>
       </c>
       <c r="D185" s="4"/>
@@ -16153,7 +16198,7 @@
       <c r="L185" s="21"/>
       <c r="M185" s="21"/>
       <c r="N185" s="20"/>
-      <c r="O185" s="87"/>
+      <c r="O185" s="69"/>
       <c r="P185" s="20"/>
       <c r="Q185" s="20"/>
       <c r="R185" s="20"/>
@@ -16219,7 +16264,7 @@
     <row r="186" spans="1:78" ht="14.25" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="58" t="s">
+      <c r="C186" s="89" t="s">
         <v>162</v>
       </c>
       <c r="D186" s="4"/>
@@ -16296,10 +16341,10 @@
       <c r="BY186" s="4"/>
       <c r="BZ186" s="4"/>
     </row>
-    <row r="187" spans="1:78" ht="14.25" customHeight="1">
+    <row r="187" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="89"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="20"/>
@@ -16315,8 +16360,8 @@
       <c r="P187" s="20"/>
       <c r="Q187" s="20"/>
       <c r="R187" s="20"/>
-      <c r="S187" s="4"/>
-      <c r="T187" s="4"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
       <c r="V187" s="20"/>
       <c r="W187" s="20"/>
       <c r="X187" s="20"/>
@@ -16352,8 +16397,8 @@
       <c r="BB187" s="20"/>
       <c r="BC187" s="20"/>
       <c r="BD187" s="20"/>
-      <c r="BE187" s="4"/>
-      <c r="BF187" s="4"/>
+      <c r="BE187" s="20"/>
+      <c r="BF187" s="20"/>
       <c r="BH187" s="20"/>
       <c r="BI187" s="20"/>
       <c r="BJ187" s="20"/>
@@ -16374,12 +16419,10 @@
       <c r="BY187" s="4"/>
       <c r="BZ187" s="4"/>
     </row>
-    <row r="188" spans="1:78" ht="14.25" customHeight="1">
+    <row r="188" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="61" t="s">
-        <v>163</v>
-      </c>
+      <c r="C188" s="89"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="20"/>
@@ -16395,12 +16438,13 @@
       <c r="P188" s="20"/>
       <c r="Q188" s="20"/>
       <c r="R188" s="20"/>
-      <c r="S188" s="4"/>
-      <c r="T188" s="4"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="20"/>
       <c r="V188" s="20"/>
       <c r="W188" s="20"/>
       <c r="X188" s="20"/>
       <c r="Y188" s="4"/>
+      <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -16431,12 +16475,13 @@
       <c r="BB188" s="20"/>
       <c r="BC188" s="20"/>
       <c r="BD188" s="20"/>
-      <c r="BE188" s="4"/>
-      <c r="BF188" s="4"/>
+      <c r="BE188" s="20"/>
+      <c r="BF188" s="20"/>
       <c r="BH188" s="20"/>
       <c r="BI188" s="20"/>
       <c r="BJ188" s="20"/>
       <c r="BK188" s="4"/>
+      <c r="BL188" s="4"/>
       <c r="BM188" s="4"/>
       <c r="BN188" s="4"/>
       <c r="BO188" s="4"/>
@@ -16456,7 +16501,9 @@
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="61" t="s">
+        <v>174</v>
+      </c>
       <c r="E189" s="4"/>
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
@@ -16477,6 +16524,7 @@
       <c r="W189" s="20"/>
       <c r="X189" s="20"/>
       <c r="Y189" s="4"/>
+      <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
@@ -16513,6 +16561,7 @@
       <c r="BI189" s="20"/>
       <c r="BJ189" s="20"/>
       <c r="BK189" s="4"/>
+      <c r="BL189" s="4"/>
       <c r="BM189" s="4"/>
       <c r="BN189" s="4"/>
       <c r="BO189" s="4"/>
@@ -16528,20 +16577,32 @@
       <c r="BY189" s="4"/>
       <c r="BZ189" s="4"/>
     </row>
-    <row r="190" spans="1:78" ht="14.25" customHeight="1">
+    <row r="190" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
-      <c r="D190" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="20"/>
+      <c r="N190" s="20"/>
+      <c r="O190" s="20"/>
+      <c r="P190" s="20"/>
       <c r="Q190" s="20"/>
       <c r="R190" s="20"/>
-      <c r="S190" s="20"/>
+      <c r="S190" s="4"/>
       <c r="T190" s="4"/>
-      <c r="U190" s="4"/>
-      <c r="V190" s="4"/>
-      <c r="W190" s="4"/>
-      <c r="X190" s="4"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
@@ -16576,10 +16637,9 @@
       <c r="BD190" s="20"/>
       <c r="BE190" s="4"/>
       <c r="BF190" s="4"/>
-      <c r="BG190" s="4"/>
-      <c r="BH190" s="4"/>
-      <c r="BI190" s="4"/>
-      <c r="BJ190" s="4"/>
+      <c r="BH190" s="20"/>
+      <c r="BI190" s="20"/>
+      <c r="BJ190" s="20"/>
       <c r="BK190" s="4"/>
       <c r="BL190" s="4"/>
       <c r="BM190" s="4"/>
@@ -16597,12 +16657,12 @@
       <c r="BY190" s="4"/>
       <c r="BZ190" s="4"/>
     </row>
-    <row r="191" spans="1:78" ht="13.5" customHeight="1">
+    <row r="191" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="61"/>
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
@@ -16611,17 +16671,16 @@
       <c r="K191" s="20"/>
       <c r="L191" s="20"/>
       <c r="M191" s="20"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+      <c r="P191" s="20"/>
       <c r="Q191" s="20"/>
       <c r="R191" s="20"/>
-      <c r="S191" s="20"/>
+      <c r="S191" s="4"/>
       <c r="T191" s="4"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
-      <c r="W191" s="4"/>
-      <c r="X191" s="4"/>
+      <c r="V191" s="20"/>
+      <c r="W191" s="20"/>
+      <c r="X191" s="20"/>
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
@@ -16660,6 +16719,7 @@
       <c r="BI191" s="20"/>
       <c r="BJ191" s="20"/>
       <c r="BK191" s="4"/>
+      <c r="BL191" s="4"/>
       <c r="BM191" s="4"/>
       <c r="BN191" s="4"/>
       <c r="BO191" s="4"/>
@@ -16678,22 +16738,30 @@
     <row r="192" spans="1:78" ht="14.25" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
-      <c r="D192" t="s">
-        <v>165</v>
-      </c>
-      <c r="E192" s="59" t="s">
-        <v>166</v>
-      </c>
+      <c r="C192" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="20"/>
+      <c r="O192" s="20"/>
+      <c r="P192" s="20"/>
       <c r="Q192" s="20"/>
       <c r="R192" s="20"/>
-      <c r="S192" s="20"/>
+      <c r="S192" s="4"/>
       <c r="T192" s="4"/>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
-      <c r="W192" s="4"/>
-      <c r="X192" s="4"/>
+      <c r="V192" s="20"/>
+      <c r="W192" s="20"/>
+      <c r="X192" s="20"/>
       <c r="Y192" s="4"/>
-      <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
@@ -16726,12 +16794,10 @@
       <c r="BD192" s="20"/>
       <c r="BE192" s="4"/>
       <c r="BF192" s="4"/>
-      <c r="BG192" s="4"/>
-      <c r="BH192" s="4"/>
-      <c r="BI192" s="4"/>
-      <c r="BJ192" s="4"/>
+      <c r="BH192" s="20"/>
+      <c r="BI192" s="20"/>
+      <c r="BJ192" s="20"/>
       <c r="BK192" s="4"/>
-      <c r="BL192" s="4"/>
       <c r="BM192" s="4"/>
       <c r="BN192" s="4"/>
       <c r="BO192" s="4"/>
@@ -16750,14 +16816,28 @@
     <row r="193" spans="1:78" ht="14.25" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
-      <c r="E193" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="V193" s="4"/>
-      <c r="W193" s="4"/>
-      <c r="X193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="20"/>
+      <c r="O193" s="20"/>
+      <c r="P193" s="20"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
       <c r="Y193" s="4"/>
-      <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
@@ -16775,27 +16855,25 @@
       <c r="AO193" s="4"/>
       <c r="AP193" s="4"/>
       <c r="AQ193" s="4"/>
-      <c r="AR193" s="4"/>
-      <c r="AS193" s="4"/>
-      <c r="AT193" s="4"/>
-      <c r="AU193" s="4"/>
-      <c r="AV193" s="4"/>
-      <c r="AW193" s="4"/>
-      <c r="AX193" s="4"/>
-      <c r="AY193" s="4"/>
-      <c r="AZ193" s="4"/>
-      <c r="BA193" s="4"/>
-      <c r="BB193" s="4"/>
-      <c r="BC193" s="4"/>
-      <c r="BD193" s="4"/>
+      <c r="AR193" s="20"/>
+      <c r="AS193" s="20"/>
+      <c r="AT193" s="20"/>
+      <c r="AU193" s="20"/>
+      <c r="AV193" s="20"/>
+      <c r="AW193" s="20"/>
+      <c r="AX193" s="20"/>
+      <c r="AY193" s="20"/>
+      <c r="AZ193" s="20"/>
+      <c r="BA193" s="20"/>
+      <c r="BB193" s="20"/>
+      <c r="BC193" s="20"/>
+      <c r="BD193" s="20"/>
       <c r="BE193" s="4"/>
       <c r="BF193" s="4"/>
-      <c r="BG193" s="4"/>
-      <c r="BH193" s="4"/>
-      <c r="BI193" s="4"/>
-      <c r="BJ193" s="4"/>
-      <c r="BK193" s="20"/>
-      <c r="BL193" s="4"/>
+      <c r="BH193" s="20"/>
+      <c r="BI193" s="20"/>
+      <c r="BJ193" s="20"/>
+      <c r="BK193" s="4"/>
       <c r="BM193" s="4"/>
       <c r="BN193" s="4"/>
       <c r="BO193" s="4"/>
@@ -16814,6 +16892,14 @@
     <row r="194" spans="1:78" ht="14.25" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
+      <c r="D194" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
@@ -16833,28 +16919,29 @@
       <c r="AL194" s="4"/>
       <c r="AM194" s="5"/>
       <c r="AN194" s="4"/>
+      <c r="AO194" s="4"/>
       <c r="AP194" s="4"/>
       <c r="AQ194" s="4"/>
-      <c r="AR194" s="4"/>
-      <c r="AS194" s="4"/>
-      <c r="AT194" s="4"/>
-      <c r="AU194" s="4"/>
-      <c r="AV194" s="4"/>
-      <c r="AW194" s="4"/>
-      <c r="AX194" s="4"/>
-      <c r="AY194" s="4"/>
-      <c r="AZ194" s="4"/>
-      <c r="BA194" s="4"/>
-      <c r="BB194" s="4"/>
-      <c r="BC194" s="4"/>
-      <c r="BD194" s="4"/>
+      <c r="AR194" s="20"/>
+      <c r="AS194" s="20"/>
+      <c r="AT194" s="20"/>
+      <c r="AU194" s="20"/>
+      <c r="AV194" s="20"/>
+      <c r="AW194" s="20"/>
+      <c r="AX194" s="20"/>
+      <c r="AY194" s="20"/>
+      <c r="AZ194" s="20"/>
+      <c r="BA194" s="20"/>
+      <c r="BB194" s="20"/>
+      <c r="BC194" s="20"/>
+      <c r="BD194" s="20"/>
       <c r="BE194" s="4"/>
       <c r="BF194" s="4"/>
       <c r="BG194" s="4"/>
       <c r="BH194" s="4"/>
       <c r="BI194" s="4"/>
       <c r="BJ194" s="4"/>
-      <c r="BK194" s="20"/>
+      <c r="BK194" s="4"/>
       <c r="BL194" s="4"/>
       <c r="BM194" s="4"/>
       <c r="BN194" s="4"/>
@@ -16871,12 +16958,31 @@
       <c r="BY194" s="4"/>
       <c r="BZ194" s="4"/>
     </row>
-    <row r="195" spans="1:78" ht="14.25" customHeight="1">
+    <row r="195" spans="1:78" ht="13.5" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
-      <c r="D195" s="59" t="s">
-        <v>168</v>
-      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="20"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="20"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
@@ -16896,27 +17002,25 @@
       <c r="AO195" s="4"/>
       <c r="AP195" s="4"/>
       <c r="AQ195" s="4"/>
-      <c r="AR195" s="4"/>
-      <c r="AS195" s="4"/>
-      <c r="AT195" s="4"/>
-      <c r="AU195" s="4"/>
-      <c r="AV195" s="4"/>
-      <c r="AW195" s="4"/>
-      <c r="AX195" s="4"/>
-      <c r="AY195" s="4"/>
-      <c r="AZ195" s="4"/>
-      <c r="BA195" s="4"/>
-      <c r="BB195" s="4"/>
-      <c r="BC195" s="4"/>
-      <c r="BD195" s="4"/>
+      <c r="AR195" s="20"/>
+      <c r="AS195" s="20"/>
+      <c r="AT195" s="20"/>
+      <c r="AU195" s="20"/>
+      <c r="AV195" s="20"/>
+      <c r="AW195" s="20"/>
+      <c r="AX195" s="20"/>
+      <c r="AY195" s="20"/>
+      <c r="AZ195" s="20"/>
+      <c r="BA195" s="20"/>
+      <c r="BB195" s="20"/>
+      <c r="BC195" s="20"/>
+      <c r="BD195" s="20"/>
       <c r="BE195" s="4"/>
       <c r="BF195" s="4"/>
-      <c r="BG195" s="4"/>
-      <c r="BH195" s="4"/>
-      <c r="BI195" s="4"/>
-      <c r="BJ195" s="4"/>
+      <c r="BH195" s="20"/>
+      <c r="BI195" s="20"/>
+      <c r="BJ195" s="20"/>
       <c r="BK195" s="4"/>
-      <c r="BL195" s="4"/>
       <c r="BM195" s="4"/>
       <c r="BN195" s="4"/>
       <c r="BO195" s="4"/>
@@ -16935,6 +17039,20 @@
     <row r="196" spans="1:78" ht="14.25" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
+      <c r="D196" t="s">
+        <v>165</v>
+      </c>
+      <c r="E196" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
@@ -16951,21 +17069,22 @@
       <c r="AL196" s="4"/>
       <c r="AM196" s="5"/>
       <c r="AN196" s="4"/>
+      <c r="AO196" s="4"/>
       <c r="AP196" s="4"/>
       <c r="AQ196" s="4"/>
-      <c r="AR196" s="4"/>
-      <c r="AS196" s="4"/>
-      <c r="AT196" s="4"/>
-      <c r="AU196" s="4"/>
-      <c r="AV196" s="4"/>
-      <c r="AW196" s="4"/>
-      <c r="AX196" s="4"/>
-      <c r="AY196" s="4"/>
-      <c r="AZ196" s="4"/>
-      <c r="BA196" s="4"/>
-      <c r="BB196" s="4"/>
-      <c r="BC196" s="4"/>
-      <c r="BD196" s="4"/>
+      <c r="AR196" s="20"/>
+      <c r="AS196" s="20"/>
+      <c r="AT196" s="20"/>
+      <c r="AU196" s="20"/>
+      <c r="AV196" s="20"/>
+      <c r="AW196" s="20"/>
+      <c r="AX196" s="20"/>
+      <c r="AY196" s="20"/>
+      <c r="AZ196" s="20"/>
+      <c r="BA196" s="20"/>
+      <c r="BB196" s="20"/>
+      <c r="BC196" s="20"/>
+      <c r="BD196" s="20"/>
       <c r="BE196" s="4"/>
       <c r="BF196" s="4"/>
       <c r="BG196" s="4"/>
@@ -16992,8 +17111,8 @@
     <row r="197" spans="1:78" ht="14.25" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
-      <c r="D197" s="55" t="s">
-        <v>170</v>
+      <c r="E197" s="59" t="s">
+        <v>167</v>
       </c>
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
@@ -17036,7 +17155,7 @@
       <c r="BH197" s="4"/>
       <c r="BI197" s="4"/>
       <c r="BJ197" s="4"/>
-      <c r="BK197" s="4"/>
+      <c r="BK197" s="20"/>
       <c r="BL197" s="4"/>
       <c r="BM197" s="4"/>
       <c r="BN197" s="4"/>
@@ -17075,7 +17194,6 @@
       <c r="AL198" s="4"/>
       <c r="AM198" s="5"/>
       <c r="AN198" s="4"/>
-      <c r="AO198" s="4"/>
       <c r="AP198" s="4"/>
       <c r="AQ198" s="4"/>
       <c r="AR198" s="4"/>
@@ -17097,7 +17215,7 @@
       <c r="BH198" s="4"/>
       <c r="BI198" s="4"/>
       <c r="BJ198" s="4"/>
-      <c r="BK198" s="4"/>
+      <c r="BK198" s="20"/>
       <c r="BL198" s="4"/>
       <c r="BM198" s="4"/>
       <c r="BN198" s="4"/>
@@ -17117,22 +17235,18 @@
     <row r="199" spans="1:78" ht="14.25" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
-      <c r="E199" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="J199" s="60"/>
-      <c r="V199" s="4"/>
-      <c r="W199" s="4"/>
-      <c r="X199" s="4"/>
-      <c r="Y199" s="20"/>
-      <c r="Z199" s="20"/>
-      <c r="AA199" s="20"/>
-      <c r="AB199" s="20"/>
-      <c r="AC199" s="20"/>
-      <c r="AD199" s="20"/>
-      <c r="AE199" s="20"/>
-      <c r="AF199" s="20"/>
-      <c r="AG199" s="20"/>
+      <c r="D199" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y199" s="4"/>
+      <c r="Z199" s="4"/>
+      <c r="AA199" s="4"/>
+      <c r="AB199" s="4"/>
+      <c r="AC199" s="4"/>
+      <c r="AD199" s="4"/>
+      <c r="AE199" s="4"/>
+      <c r="AF199" s="4"/>
+      <c r="AG199" s="4"/>
       <c r="AH199" s="4"/>
       <c r="AI199" s="4"/>
       <c r="AJ199" s="4"/>
@@ -17182,18 +17296,15 @@
     <row r="200" spans="1:78" ht="14.25" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
-      <c r="V200" s="4"/>
-      <c r="W200" s="4"/>
-      <c r="X200" s="4"/>
-      <c r="Y200" s="20"/>
-      <c r="Z200" s="20"/>
-      <c r="AA200" s="20"/>
-      <c r="AB200" s="20"/>
-      <c r="AC200" s="20"/>
-      <c r="AD200" s="20"/>
-      <c r="AE200" s="20"/>
-      <c r="AF200" s="20"/>
-      <c r="AG200" s="20"/>
+      <c r="Y200" s="4"/>
+      <c r="Z200" s="4"/>
+      <c r="AA200" s="4"/>
+      <c r="AB200" s="4"/>
+      <c r="AC200" s="4"/>
+      <c r="AD200" s="4"/>
+      <c r="AE200" s="4"/>
+      <c r="AF200" s="4"/>
+      <c r="AG200" s="4"/>
       <c r="AH200" s="4"/>
       <c r="AI200" s="4"/>
       <c r="AJ200" s="4"/>
@@ -17201,7 +17312,6 @@
       <c r="AL200" s="4"/>
       <c r="AM200" s="5"/>
       <c r="AN200" s="4"/>
-      <c r="AO200" s="4"/>
       <c r="AP200" s="4"/>
       <c r="AQ200" s="4"/>
       <c r="AR200" s="4"/>
@@ -17243,17 +17353,20 @@
     <row r="201" spans="1:78" ht="14.25" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
-      <c r="V201" s="20"/>
-      <c r="W201" s="20"/>
-      <c r="X201" s="20"/>
-      <c r="Y201" s="20"/>
-      <c r="Z201" s="20"/>
-      <c r="AA201" s="20"/>
-      <c r="AB201" s="20"/>
-      <c r="AC201" s="20"/>
-      <c r="AD201" s="20"/>
-      <c r="AE201" s="20"/>
-      <c r="AF201" s="20"/>
+      <c r="D201" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
+      <c r="Z201" s="4"/>
+      <c r="AA201" s="4"/>
+      <c r="AB201" s="4"/>
+      <c r="AC201" s="4"/>
+      <c r="AD201" s="4"/>
+      <c r="AE201" s="4"/>
+      <c r="AF201" s="4"/>
       <c r="AG201" s="4"/>
       <c r="AH201" s="4"/>
       <c r="AI201" s="4"/>
@@ -17304,17 +17417,17 @@
     <row r="202" spans="1:78" ht="14.25" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
-      <c r="V202" s="20"/>
-      <c r="W202" s="20"/>
-      <c r="X202" s="20"/>
-      <c r="Y202" s="20"/>
-      <c r="Z202" s="20"/>
-      <c r="AA202" s="20"/>
-      <c r="AB202" s="20"/>
-      <c r="AC202" s="20"/>
-      <c r="AD202" s="20"/>
-      <c r="AE202" s="20"/>
-      <c r="AF202" s="20"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
+      <c r="Z202" s="4"/>
+      <c r="AA202" s="4"/>
+      <c r="AB202" s="4"/>
+      <c r="AC202" s="4"/>
+      <c r="AD202" s="4"/>
+      <c r="AE202" s="4"/>
+      <c r="AF202" s="4"/>
       <c r="AG202" s="4"/>
       <c r="AH202" s="4"/>
       <c r="AI202" s="4"/>
@@ -17333,7 +17446,7 @@
       <c r="AV202" s="4"/>
       <c r="AW202" s="4"/>
       <c r="AX202" s="4"/>
-      <c r="AY202" s="21"/>
+      <c r="AY202" s="4"/>
       <c r="AZ202" s="4"/>
       <c r="BA202" s="4"/>
       <c r="BB202" s="4"/>
@@ -17365,9 +17478,13 @@
     <row r="203" spans="1:78" ht="14.25" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
-      <c r="V203" s="20"/>
-      <c r="W203" s="20"/>
-      <c r="X203" s="20"/>
+      <c r="E203" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J203" s="60"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
       <c r="Y203" s="20"/>
       <c r="Z203" s="20"/>
       <c r="AA203" s="20"/>
@@ -17376,7 +17493,7 @@
       <c r="AD203" s="20"/>
       <c r="AE203" s="20"/>
       <c r="AF203" s="20"/>
-      <c r="AG203" s="4"/>
+      <c r="AG203" s="20"/>
       <c r="AH203" s="4"/>
       <c r="AI203" s="4"/>
       <c r="AJ203" s="4"/>
@@ -17426,37 +17543,18 @@
     <row r="204" spans="1:78" ht="14.25" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
-      <c r="Y204" s="4"/>
-      <c r="Z204" s="4"/>
-      <c r="AA204" s="4"/>
-      <c r="AB204" s="4"/>
-      <c r="AC204" s="4"/>
-      <c r="AD204" s="4"/>
-      <c r="AE204" s="4"/>
-      <c r="AF204" s="4"/>
-      <c r="AG204" s="4"/>
+      <c r="Y204" s="20"/>
+      <c r="Z204" s="20"/>
+      <c r="AA204" s="20"/>
+      <c r="AB204" s="20"/>
+      <c r="AC204" s="20"/>
+      <c r="AD204" s="20"/>
+      <c r="AE204" s="20"/>
+      <c r="AF204" s="20"/>
+      <c r="AG204" s="20"/>
       <c r="AH204" s="4"/>
       <c r="AI204" s="4"/>
       <c r="AJ204" s="4"/>
@@ -17503,136 +17601,405 @@
       <c r="BY204" s="4"/>
       <c r="BZ204" s="4"/>
     </row>
-    <row r="205" spans="1:78" ht="13.5">
-      <c r="A205" s="13"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="14"/>
-      <c r="I205" s="14"/>
-      <c r="J205" s="14"/>
-      <c r="K205" s="14"/>
-      <c r="L205" s="14"/>
-      <c r="M205" s="14"/>
-      <c r="N205" s="14"/>
-      <c r="O205" s="14"/>
-      <c r="P205" s="14"/>
-      <c r="Q205" s="14"/>
-      <c r="R205" s="14"/>
-      <c r="S205" s="14"/>
-      <c r="T205" s="14"/>
-      <c r="U205" s="14"/>
-      <c r="V205" s="14"/>
-      <c r="W205" s="14"/>
-      <c r="X205" s="14"/>
-      <c r="Y205" s="14"/>
-      <c r="Z205" s="14"/>
-      <c r="AA205" s="14"/>
-      <c r="AB205" s="14"/>
-      <c r="AC205" s="14"/>
-      <c r="AD205" s="14"/>
-      <c r="AE205" s="14"/>
-      <c r="AF205" s="14"/>
-      <c r="AG205" s="14"/>
-      <c r="AH205" s="14"/>
-      <c r="AI205" s="14"/>
-      <c r="AJ205" s="14"/>
-      <c r="AK205" s="14"/>
-      <c r="AL205" s="14"/>
-      <c r="AM205" s="15"/>
-      <c r="AN205" s="14"/>
-      <c r="AO205" s="14"/>
-      <c r="AP205" s="14"/>
-      <c r="AQ205" s="14"/>
-      <c r="AR205" s="14"/>
-      <c r="AS205" s="14"/>
-      <c r="AT205" s="14"/>
-      <c r="AU205" s="14"/>
-      <c r="AV205" s="14"/>
-      <c r="AW205" s="14"/>
-      <c r="AX205" s="14"/>
-      <c r="AY205" s="14"/>
-      <c r="AZ205" s="14"/>
-      <c r="BA205" s="14"/>
-      <c r="BB205" s="14"/>
-      <c r="BC205" s="14"/>
-      <c r="BD205" s="14"/>
-      <c r="BE205" s="14"/>
-      <c r="BF205" s="14"/>
-      <c r="BG205" s="14"/>
-      <c r="BH205" s="14"/>
-      <c r="BI205" s="14"/>
-      <c r="BJ205" s="14"/>
-      <c r="BK205" s="14"/>
-      <c r="BL205" s="14"/>
-      <c r="BM205" s="14"/>
-      <c r="BN205" s="14"/>
-      <c r="BO205" s="14"/>
-      <c r="BP205" s="14"/>
-      <c r="BQ205" s="14"/>
-      <c r="BR205" s="14"/>
-      <c r="BS205" s="14"/>
-      <c r="BT205" s="14"/>
-      <c r="BU205" s="14"/>
-      <c r="BV205" s="14"/>
-      <c r="BW205" s="14"/>
-      <c r="BX205" s="16"/>
+    <row r="205" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A205" s="7"/>
+      <c r="B205" s="4"/>
+      <c r="V205" s="20"/>
+      <c r="W205" s="20"/>
+      <c r="X205" s="20"/>
+      <c r="Y205" s="20"/>
+      <c r="Z205" s="20"/>
+      <c r="AA205" s="20"/>
+      <c r="AB205" s="20"/>
+      <c r="AC205" s="20"/>
+      <c r="AD205" s="20"/>
+      <c r="AE205" s="20"/>
+      <c r="AF205" s="20"/>
+      <c r="AG205" s="4"/>
+      <c r="AH205" s="4"/>
+      <c r="AI205" s="4"/>
+      <c r="AJ205" s="4"/>
+      <c r="AK205" s="4"/>
+      <c r="AL205" s="4"/>
+      <c r="AM205" s="5"/>
+      <c r="AN205" s="4"/>
+      <c r="AO205" s="4"/>
+      <c r="AP205" s="4"/>
+      <c r="AQ205" s="4"/>
+      <c r="AR205" s="4"/>
+      <c r="AS205" s="4"/>
+      <c r="AT205" s="4"/>
+      <c r="AU205" s="4"/>
+      <c r="AV205" s="4"/>
+      <c r="AW205" s="4"/>
+      <c r="AX205" s="4"/>
+      <c r="AY205" s="4"/>
+      <c r="AZ205" s="4"/>
+      <c r="BA205" s="4"/>
+      <c r="BB205" s="4"/>
+      <c r="BC205" s="4"/>
+      <c r="BD205" s="4"/>
+      <c r="BE205" s="4"/>
+      <c r="BF205" s="4"/>
+      <c r="BG205" s="4"/>
+      <c r="BH205" s="4"/>
+      <c r="BI205" s="4"/>
+      <c r="BJ205" s="4"/>
+      <c r="BK205" s="4"/>
+      <c r="BL205" s="4"/>
+      <c r="BM205" s="4"/>
+      <c r="BN205" s="4"/>
+      <c r="BO205" s="4"/>
+      <c r="BP205" s="4"/>
+      <c r="BQ205" s="4"/>
+      <c r="BR205" s="4"/>
+      <c r="BS205" s="4"/>
+      <c r="BT205" s="4"/>
+      <c r="BU205" s="4"/>
+      <c r="BV205" s="4"/>
+      <c r="BW205" s="4"/>
+      <c r="BX205" s="6"/>
       <c r="BY205" s="4"/>
       <c r="BZ205" s="4"/>
     </row>
-    <row r="206" spans="1:78" ht="15" customHeight="1">
-      <c r="A206" s="81" t="s">
+    <row r="206" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A206" s="7"/>
+      <c r="B206" s="4"/>
+      <c r="V206" s="20"/>
+      <c r="W206" s="20"/>
+      <c r="X206" s="20"/>
+      <c r="Y206" s="20"/>
+      <c r="Z206" s="20"/>
+      <c r="AA206" s="20"/>
+      <c r="AB206" s="20"/>
+      <c r="AC206" s="20"/>
+      <c r="AD206" s="20"/>
+      <c r="AE206" s="20"/>
+      <c r="AF206" s="20"/>
+      <c r="AG206" s="4"/>
+      <c r="AH206" s="4"/>
+      <c r="AI206" s="4"/>
+      <c r="AJ206" s="4"/>
+      <c r="AK206" s="4"/>
+      <c r="AL206" s="4"/>
+      <c r="AM206" s="5"/>
+      <c r="AN206" s="4"/>
+      <c r="AO206" s="4"/>
+      <c r="AP206" s="4"/>
+      <c r="AQ206" s="4"/>
+      <c r="AR206" s="4"/>
+      <c r="AS206" s="4"/>
+      <c r="AT206" s="4"/>
+      <c r="AU206" s="4"/>
+      <c r="AV206" s="4"/>
+      <c r="AW206" s="4"/>
+      <c r="AX206" s="4"/>
+      <c r="AY206" s="21"/>
+      <c r="AZ206" s="4"/>
+      <c r="BA206" s="4"/>
+      <c r="BB206" s="4"/>
+      <c r="BC206" s="4"/>
+      <c r="BD206" s="4"/>
+      <c r="BE206" s="4"/>
+      <c r="BF206" s="4"/>
+      <c r="BG206" s="4"/>
+      <c r="BH206" s="4"/>
+      <c r="BI206" s="4"/>
+      <c r="BJ206" s="4"/>
+      <c r="BK206" s="4"/>
+      <c r="BL206" s="4"/>
+      <c r="BM206" s="4"/>
+      <c r="BN206" s="4"/>
+      <c r="BO206" s="4"/>
+      <c r="BP206" s="4"/>
+      <c r="BQ206" s="4"/>
+      <c r="BR206" s="4"/>
+      <c r="BS206" s="4"/>
+      <c r="BT206" s="4"/>
+      <c r="BU206" s="4"/>
+      <c r="BV206" s="4"/>
+      <c r="BW206" s="4"/>
+      <c r="BX206" s="6"/>
+      <c r="BY206" s="4"/>
+      <c r="BZ206" s="4"/>
+    </row>
+    <row r="207" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A207" s="7"/>
+      <c r="B207" s="4"/>
+      <c r="V207" s="20"/>
+      <c r="W207" s="20"/>
+      <c r="X207" s="20"/>
+      <c r="Y207" s="20"/>
+      <c r="Z207" s="20"/>
+      <c r="AA207" s="20"/>
+      <c r="AB207" s="20"/>
+      <c r="AC207" s="20"/>
+      <c r="AD207" s="20"/>
+      <c r="AE207" s="20"/>
+      <c r="AF207" s="20"/>
+      <c r="AG207" s="4"/>
+      <c r="AH207" s="4"/>
+      <c r="AI207" s="4"/>
+      <c r="AJ207" s="4"/>
+      <c r="AK207" s="4"/>
+      <c r="AL207" s="4"/>
+      <c r="AM207" s="5"/>
+      <c r="AN207" s="4"/>
+      <c r="AO207" s="4"/>
+      <c r="AP207" s="4"/>
+      <c r="AQ207" s="4"/>
+      <c r="AR207" s="4"/>
+      <c r="AS207" s="4"/>
+      <c r="AT207" s="4"/>
+      <c r="AU207" s="4"/>
+      <c r="AV207" s="4"/>
+      <c r="AW207" s="4"/>
+      <c r="AX207" s="4"/>
+      <c r="AY207" s="4"/>
+      <c r="AZ207" s="4"/>
+      <c r="BA207" s="4"/>
+      <c r="BB207" s="4"/>
+      <c r="BC207" s="4"/>
+      <c r="BD207" s="4"/>
+      <c r="BE207" s="4"/>
+      <c r="BF207" s="4"/>
+      <c r="BG207" s="4"/>
+      <c r="BH207" s="4"/>
+      <c r="BI207" s="4"/>
+      <c r="BJ207" s="4"/>
+      <c r="BK207" s="4"/>
+      <c r="BL207" s="4"/>
+      <c r="BM207" s="4"/>
+      <c r="BN207" s="4"/>
+      <c r="BO207" s="4"/>
+      <c r="BP207" s="4"/>
+      <c r="BQ207" s="4"/>
+      <c r="BR207" s="4"/>
+      <c r="BS207" s="4"/>
+      <c r="BT207" s="4"/>
+      <c r="BU207" s="4"/>
+      <c r="BV207" s="4"/>
+      <c r="BW207" s="4"/>
+      <c r="BX207" s="6"/>
+      <c r="BY207" s="4"/>
+      <c r="BZ207" s="4"/>
+    </row>
+    <row r="208" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A208" s="7"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
+      <c r="AB208" s="4"/>
+      <c r="AC208" s="4"/>
+      <c r="AD208" s="4"/>
+      <c r="AE208" s="4"/>
+      <c r="AF208" s="4"/>
+      <c r="AG208" s="4"/>
+      <c r="AH208" s="4"/>
+      <c r="AI208" s="4"/>
+      <c r="AJ208" s="4"/>
+      <c r="AK208" s="4"/>
+      <c r="AL208" s="4"/>
+      <c r="AM208" s="5"/>
+      <c r="AN208" s="4"/>
+      <c r="AO208" s="4"/>
+      <c r="AP208" s="4"/>
+      <c r="AQ208" s="4"/>
+      <c r="AR208" s="4"/>
+      <c r="AS208" s="4"/>
+      <c r="AT208" s="4"/>
+      <c r="AU208" s="4"/>
+      <c r="AV208" s="4"/>
+      <c r="AW208" s="4"/>
+      <c r="AX208" s="4"/>
+      <c r="AY208" s="4"/>
+      <c r="AZ208" s="4"/>
+      <c r="BA208" s="4"/>
+      <c r="BB208" s="4"/>
+      <c r="BC208" s="4"/>
+      <c r="BD208" s="4"/>
+      <c r="BE208" s="4"/>
+      <c r="BF208" s="4"/>
+      <c r="BG208" s="4"/>
+      <c r="BH208" s="4"/>
+      <c r="BI208" s="4"/>
+      <c r="BJ208" s="4"/>
+      <c r="BK208" s="4"/>
+      <c r="BL208" s="4"/>
+      <c r="BM208" s="4"/>
+      <c r="BN208" s="4"/>
+      <c r="BO208" s="4"/>
+      <c r="BP208" s="4"/>
+      <c r="BQ208" s="4"/>
+      <c r="BR208" s="4"/>
+      <c r="BS208" s="4"/>
+      <c r="BT208" s="4"/>
+      <c r="BU208" s="4"/>
+      <c r="BV208" s="4"/>
+      <c r="BW208" s="4"/>
+      <c r="BX208" s="6"/>
+      <c r="BY208" s="4"/>
+      <c r="BZ208" s="4"/>
+    </row>
+    <row r="209" spans="1:78" ht="13.5">
+      <c r="A209" s="13"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="14"/>
+      <c r="L209" s="14"/>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="14"/>
+      <c r="S209" s="14"/>
+      <c r="T209" s="14"/>
+      <c r="U209" s="14"/>
+      <c r="V209" s="14"/>
+      <c r="W209" s="14"/>
+      <c r="X209" s="14"/>
+      <c r="Y209" s="14"/>
+      <c r="Z209" s="14"/>
+      <c r="AA209" s="14"/>
+      <c r="AB209" s="14"/>
+      <c r="AC209" s="14"/>
+      <c r="AD209" s="14"/>
+      <c r="AE209" s="14"/>
+      <c r="AF209" s="14"/>
+      <c r="AG209" s="14"/>
+      <c r="AH209" s="14"/>
+      <c r="AI209" s="14"/>
+      <c r="AJ209" s="14"/>
+      <c r="AK209" s="14"/>
+      <c r="AL209" s="14"/>
+      <c r="AM209" s="15"/>
+      <c r="AN209" s="14"/>
+      <c r="AO209" s="14"/>
+      <c r="AP209" s="14"/>
+      <c r="AQ209" s="14"/>
+      <c r="AR209" s="14"/>
+      <c r="AS209" s="14"/>
+      <c r="AT209" s="14"/>
+      <c r="AU209" s="14"/>
+      <c r="AV209" s="14"/>
+      <c r="AW209" s="14"/>
+      <c r="AX209" s="14"/>
+      <c r="AY209" s="14"/>
+      <c r="AZ209" s="14"/>
+      <c r="BA209" s="14"/>
+      <c r="BB209" s="14"/>
+      <c r="BC209" s="14"/>
+      <c r="BD209" s="14"/>
+      <c r="BE209" s="14"/>
+      <c r="BF209" s="14"/>
+      <c r="BG209" s="14"/>
+      <c r="BH209" s="14"/>
+      <c r="BI209" s="14"/>
+      <c r="BJ209" s="14"/>
+      <c r="BK209" s="14"/>
+      <c r="BL209" s="14"/>
+      <c r="BM209" s="14"/>
+      <c r="BN209" s="14"/>
+      <c r="BO209" s="14"/>
+      <c r="BP209" s="14"/>
+      <c r="BQ209" s="14"/>
+      <c r="BR209" s="14"/>
+      <c r="BS209" s="14"/>
+      <c r="BT209" s="14"/>
+      <c r="BU209" s="14"/>
+      <c r="BV209" s="14"/>
+      <c r="BW209" s="14"/>
+      <c r="BX209" s="16"/>
+      <c r="BY209" s="4"/>
+      <c r="BZ209" s="4"/>
+    </row>
+    <row r="210" spans="1:78" ht="15" customHeight="1">
+      <c r="A210" s="63" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="207" spans="1:78" ht="15" customHeight="1">
-      <c r="A207" s="82" t="s">
+    <row r="211" spans="1:78" ht="15" customHeight="1">
+      <c r="A211" s="64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="2:14" ht="15" customHeight="1">
-      <c r="B209" s="83" t="s">
+    <row r="213" spans="1:78" ht="15" customHeight="1">
+      <c r="B213" s="65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="211" spans="2:14" ht="15" customHeight="1">
-      <c r="B211" s="83" t="s">
+    <row r="215" spans="1:78" ht="15" customHeight="1">
+      <c r="B215" s="65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="213" spans="2:14" ht="15" customHeight="1">
-      <c r="B213" s="83" t="s">
+    <row r="217" spans="1:78" ht="15" customHeight="1">
+      <c r="B217" s="65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="2:14" ht="15" customHeight="1">
-      <c r="J214" s="60"/>
-      <c r="N214" s="84" t="s">
+    <row r="218" spans="1:78" ht="15" customHeight="1">
+      <c r="J218" s="60"/>
+      <c r="N218" s="66" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F154:AV154"/>
-    <mergeCell ref="AW154:BA154"/>
-    <mergeCell ref="AE115:AV115"/>
-    <mergeCell ref="AW115:BA115"/>
-    <mergeCell ref="BB115:BJ115"/>
-    <mergeCell ref="Z115:AD115"/>
-    <mergeCell ref="BK114:BO114"/>
-    <mergeCell ref="BB114:BJ114"/>
-    <mergeCell ref="BK115:BO115"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BP114:BX114"/>
+    <mergeCell ref="F115:Y115"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="BP115:BX115"/>
+    <mergeCell ref="Z155:AD155"/>
+    <mergeCell ref="BK155:BO155"/>
+    <mergeCell ref="AE155:AV155"/>
+    <mergeCell ref="AW155:BA155"/>
+    <mergeCell ref="BB155:BJ155"/>
+    <mergeCell ref="BP154:BX154"/>
+    <mergeCell ref="BP155:BX155"/>
+    <mergeCell ref="F155:Y155"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="BK154:BO154"/>
+    <mergeCell ref="BB154:BJ154"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="BB1:BJ1"/>
@@ -17649,29 +18016,23 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AW114:BA114"/>
     <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="BP114:BX114"/>
-    <mergeCell ref="F115:Y115"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="BP115:BX115"/>
-    <mergeCell ref="Z155:AD155"/>
-    <mergeCell ref="BK155:BO155"/>
-    <mergeCell ref="AE155:AV155"/>
-    <mergeCell ref="AW155:BA155"/>
-    <mergeCell ref="BB155:BJ155"/>
-    <mergeCell ref="BP154:BX154"/>
-    <mergeCell ref="BP155:BX155"/>
-    <mergeCell ref="F155:Y155"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="BK154:BO154"/>
-    <mergeCell ref="BB154:BJ154"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="BK114:BO114"/>
+    <mergeCell ref="BB114:BJ114"/>
+    <mergeCell ref="BK115:BO115"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="F154:AV154"/>
+    <mergeCell ref="AW154:BA154"/>
+    <mergeCell ref="AE115:AV115"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="Z115:AD115"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(ホーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F98AA0-94F5-4B78-8094-A40DAE1823DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAEBC4-0C7C-460F-A964-847FAA080B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
   <si>
     <t>システム名</t>
   </si>
@@ -454,10 +454,6 @@
     <t>処理を行うため、ログイン画面遷移前に、ボタン押下情報を保持しておく必要がある。</t>
   </si>
   <si>
-    <t>2019/10/10</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>森野　仁巨</t>
     <rPh sb="0" eb="2">
       <t>モリノ</t>
@@ -849,6 +845,30 @@
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログインするとログインIDの下にログアウトボタンが追加される。</t>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※ログアウト後はログアウトが表示されなくなる。</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/10/14</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1382,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1456,27 +1476,30 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1487,18 +1510,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2636,10 +2659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ218"/>
+  <dimension ref="A1:BZ221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2:BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2649,66 +2672,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="74" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="79" t="s">
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="75" t="s">
         <v>3</v>
       </c>
       <c r="BC1" s="76"/>
@@ -2718,37 +2741,37 @@
       <c r="BG1" s="76"/>
       <c r="BH1" s="76"/>
       <c r="BI1" s="76"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="74" t="s">
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="72"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="80" t="s">
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="72"/>
-      <c r="BR1" s="72"/>
-      <c r="BS1" s="72"/>
-      <c r="BT1" s="72"/>
-      <c r="BU1" s="72"/>
-      <c r="BV1" s="72"/>
-      <c r="BW1" s="72"/>
-      <c r="BX1" s="86"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="74"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="83" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="76"/>
@@ -2769,15 +2792,15 @@
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
       <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78" t="s">
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="76"/>
       <c r="AB2" s="76"/>
       <c r="AC2" s="76"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="83"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="86"/>
       <c r="AF2" s="76"/>
       <c r="AG2" s="76"/>
       <c r="AH2" s="76"/>
@@ -2794,16 +2817,16 @@
       <c r="AS2" s="76"/>
       <c r="AT2" s="76"/>
       <c r="AU2" s="76"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="78" t="s">
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="81" t="s">
         <v>9</v>
       </c>
       <c r="AX2" s="76"/>
       <c r="AY2" s="76"/>
       <c r="AZ2" s="76"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="84" t="s">
-        <v>139</v>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="88" t="s">
+        <v>177</v>
       </c>
       <c r="BC2" s="76"/>
       <c r="BD2" s="76"/>
@@ -2812,25 +2835,25 @@
       <c r="BG2" s="76"/>
       <c r="BH2" s="76"/>
       <c r="BI2" s="76"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="78" t="s">
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="81" t="s">
         <v>10</v>
       </c>
       <c r="BL2" s="76"/>
       <c r="BM2" s="76"/>
       <c r="BN2" s="76"/>
-      <c r="BO2" s="77"/>
-      <c r="BP2" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="72"/>
-      <c r="BV2" s="72"/>
-      <c r="BW2" s="72"/>
-      <c r="BX2" s="86"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="74"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -6783,109 +6806,109 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="71" t="str">
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="87" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="72"/>
-      <c r="W52" s="72"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="72"/>
-      <c r="Z52" s="72"/>
-      <c r="AA52" s="72"/>
-      <c r="AB52" s="72"/>
-      <c r="AC52" s="72"/>
-      <c r="AD52" s="72"/>
-      <c r="AE52" s="72"/>
-      <c r="AF52" s="72"/>
-      <c r="AG52" s="72"/>
-      <c r="AH52" s="72"/>
-      <c r="AI52" s="72"/>
-      <c r="AJ52" s="72"/>
-      <c r="AK52" s="72"/>
-      <c r="AL52" s="72"/>
-      <c r="AM52" s="72"/>
-      <c r="AN52" s="72"/>
-      <c r="AO52" s="72"/>
-      <c r="AP52" s="72"/>
-      <c r="AQ52" s="72"/>
-      <c r="AR52" s="72"/>
-      <c r="AS52" s="72"/>
-      <c r="AT52" s="72"/>
-      <c r="AU52" s="72"/>
-      <c r="AV52" s="73"/>
-      <c r="AW52" s="74" t="s">
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="73"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="73"/>
+      <c r="AH52" s="73"/>
+      <c r="AI52" s="73"/>
+      <c r="AJ52" s="73"/>
+      <c r="AK52" s="73"/>
+      <c r="AL52" s="73"/>
+      <c r="AM52" s="73"/>
+      <c r="AN52" s="73"/>
+      <c r="AO52" s="73"/>
+      <c r="AP52" s="73"/>
+      <c r="AQ52" s="73"/>
+      <c r="AR52" s="73"/>
+      <c r="AS52" s="73"/>
+      <c r="AT52" s="73"/>
+      <c r="AU52" s="73"/>
+      <c r="AV52" s="80"/>
+      <c r="AW52" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AX52" s="72"/>
-      <c r="AY52" s="72"/>
-      <c r="AZ52" s="72"/>
-      <c r="BA52" s="73"/>
-      <c r="BB52" s="80" t="str">
+      <c r="AX52" s="73"/>
+      <c r="AY52" s="73"/>
+      <c r="AZ52" s="73"/>
+      <c r="BA52" s="80"/>
+      <c r="BB52" s="72" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC52" s="72"/>
-      <c r="BD52" s="72"/>
-      <c r="BE52" s="72"/>
-      <c r="BF52" s="72"/>
-      <c r="BG52" s="72"/>
-      <c r="BH52" s="72"/>
-      <c r="BI52" s="72"/>
-      <c r="BJ52" s="73"/>
-      <c r="BK52" s="74" t="s">
+      <c r="BC52" s="73"/>
+      <c r="BD52" s="73"/>
+      <c r="BE52" s="73"/>
+      <c r="BF52" s="73"/>
+      <c r="BG52" s="73"/>
+      <c r="BH52" s="73"/>
+      <c r="BI52" s="73"/>
+      <c r="BJ52" s="80"/>
+      <c r="BK52" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="BL52" s="72"/>
-      <c r="BM52" s="72"/>
-      <c r="BN52" s="72"/>
-      <c r="BO52" s="73"/>
-      <c r="BP52" s="80" t="str">
+      <c r="BL52" s="73"/>
+      <c r="BM52" s="73"/>
+      <c r="BN52" s="73"/>
+      <c r="BO52" s="80"/>
+      <c r="BP52" s="72" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ52" s="72"/>
-      <c r="BR52" s="72"/>
-      <c r="BS52" s="72"/>
-      <c r="BT52" s="72"/>
-      <c r="BU52" s="72"/>
-      <c r="BV52" s="72"/>
-      <c r="BW52" s="72"/>
-      <c r="BX52" s="86"/>
+      <c r="BQ52" s="73"/>
+      <c r="BR52" s="73"/>
+      <c r="BS52" s="73"/>
+      <c r="BT52" s="73"/>
+      <c r="BU52" s="73"/>
+      <c r="BV52" s="73"/>
+      <c r="BW52" s="73"/>
+      <c r="BX52" s="74"/>
       <c r="BY52" s="1"/>
       <c r="BZ52" s="1"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="75" t="str">
+      <c r="E53" s="82"/>
+      <c r="F53" s="83" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
@@ -6907,15 +6930,15 @@
       <c r="V53" s="76"/>
       <c r="W53" s="76"/>
       <c r="X53" s="76"/>
-      <c r="Y53" s="77"/>
-      <c r="Z53" s="78" t="s">
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="81" t="s">
         <v>8</v>
       </c>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="77"/>
-      <c r="AE53" s="75" t="str">
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="83" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
@@ -6935,17 +6958,17 @@
       <c r="AS53" s="76"/>
       <c r="AT53" s="76"/>
       <c r="AU53" s="76"/>
-      <c r="AV53" s="77"/>
-      <c r="AW53" s="78" t="s">
+      <c r="AV53" s="82"/>
+      <c r="AW53" s="81" t="s">
         <v>9</v>
       </c>
       <c r="AX53" s="76"/>
       <c r="AY53" s="76"/>
       <c r="AZ53" s="76"/>
-      <c r="BA53" s="77"/>
-      <c r="BB53" s="79" t="str">
+      <c r="BA53" s="82"/>
+      <c r="BB53" s="75" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
-        <v>2019/10/10</v>
+        <v>2019/10/14</v>
       </c>
       <c r="BC53" s="76"/>
       <c r="BD53" s="76"/>
@@ -6954,15 +6977,15 @@
       <c r="BG53" s="76"/>
       <c r="BH53" s="76"/>
       <c r="BI53" s="76"/>
-      <c r="BJ53" s="77"/>
-      <c r="BK53" s="78" t="s">
+      <c r="BJ53" s="82"/>
+      <c r="BK53" s="81" t="s">
         <v>10</v>
       </c>
       <c r="BL53" s="76"/>
       <c r="BM53" s="76"/>
       <c r="BN53" s="76"/>
-      <c r="BO53" s="77"/>
-      <c r="BP53" s="79" t="str">
+      <c r="BO53" s="82"/>
+      <c r="BP53" s="75" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
@@ -6973,7 +6996,7 @@
       <c r="BU53" s="76"/>
       <c r="BV53" s="76"/>
       <c r="BW53" s="76"/>
-      <c r="BX53" s="87"/>
+      <c r="BX53" s="77"/>
       <c r="BY53" s="1"/>
       <c r="BZ53" s="1"/>
     </row>
@@ -10380,7 +10403,7 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -10429,7 +10452,7 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" s="59"/>
       <c r="F100" s="4"/>
@@ -10527,7 +10550,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E102" s="59"/>
       <c r="F102" s="4"/>
@@ -10578,7 +10601,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="61"/>
       <c r="E103" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -10628,7 +10651,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="61"/>
       <c r="E104" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -10678,7 +10701,7 @@
       <c r="C105" s="4"/>
       <c r="D105" s="61"/>
       <c r="E105" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -10775,7 +10798,7 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="59"/>
       <c r="F107" s="4"/>
@@ -10826,7 +10849,7 @@
       <c r="C108" s="4"/>
       <c r="D108" s="61"/>
       <c r="E108" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -10876,7 +10899,7 @@
       <c r="C109" s="4"/>
       <c r="D109" s="61"/>
       <c r="E109" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -10926,7 +10949,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="61"/>
       <c r="E110" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -11020,7 +11043,7 @@
     </row>
     <row r="112" spans="1:78" ht="16.5" customHeight="1">
       <c r="A112" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -11030,7 +11053,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -11177,109 +11200,109 @@
       <c r="BZ113" s="4"/>
     </row>
     <row r="114" spans="1:78" ht="36" customHeight="1">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="71" t="str">
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="87" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G114" s="72"/>
-      <c r="H114" s="72"/>
-      <c r="I114" s="72"/>
-      <c r="J114" s="72"/>
-      <c r="K114" s="72"/>
-      <c r="L114" s="72"/>
-      <c r="M114" s="72"/>
-      <c r="N114" s="72"/>
-      <c r="O114" s="72"/>
-      <c r="P114" s="72"/>
-      <c r="Q114" s="72"/>
-      <c r="R114" s="72"/>
-      <c r="S114" s="72"/>
-      <c r="T114" s="72"/>
-      <c r="U114" s="72"/>
-      <c r="V114" s="72"/>
-      <c r="W114" s="72"/>
-      <c r="X114" s="72"/>
-      <c r="Y114" s="72"/>
-      <c r="Z114" s="72"/>
-      <c r="AA114" s="72"/>
-      <c r="AB114" s="72"/>
-      <c r="AC114" s="72"/>
-      <c r="AD114" s="72"/>
-      <c r="AE114" s="72"/>
-      <c r="AF114" s="72"/>
-      <c r="AG114" s="72"/>
-      <c r="AH114" s="72"/>
-      <c r="AI114" s="72"/>
-      <c r="AJ114" s="72"/>
-      <c r="AK114" s="72"/>
-      <c r="AL114" s="72"/>
-      <c r="AM114" s="72"/>
-      <c r="AN114" s="72"/>
-      <c r="AO114" s="72"/>
-      <c r="AP114" s="72"/>
-      <c r="AQ114" s="72"/>
-      <c r="AR114" s="72"/>
-      <c r="AS114" s="72"/>
-      <c r="AT114" s="72"/>
-      <c r="AU114" s="72"/>
-      <c r="AV114" s="73"/>
-      <c r="AW114" s="74" t="s">
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="73"/>
+      <c r="O114" s="73"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="73"/>
+      <c r="W114" s="73"/>
+      <c r="X114" s="73"/>
+      <c r="Y114" s="73"/>
+      <c r="Z114" s="73"/>
+      <c r="AA114" s="73"/>
+      <c r="AB114" s="73"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="73"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="73"/>
+      <c r="AG114" s="73"/>
+      <c r="AH114" s="73"/>
+      <c r="AI114" s="73"/>
+      <c r="AJ114" s="73"/>
+      <c r="AK114" s="73"/>
+      <c r="AL114" s="73"/>
+      <c r="AM114" s="73"/>
+      <c r="AN114" s="73"/>
+      <c r="AO114" s="73"/>
+      <c r="AP114" s="73"/>
+      <c r="AQ114" s="73"/>
+      <c r="AR114" s="73"/>
+      <c r="AS114" s="73"/>
+      <c r="AT114" s="73"/>
+      <c r="AU114" s="73"/>
+      <c r="AV114" s="80"/>
+      <c r="AW114" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AX114" s="72"/>
-      <c r="AY114" s="72"/>
-      <c r="AZ114" s="72"/>
-      <c r="BA114" s="73"/>
-      <c r="BB114" s="80" t="str">
+      <c r="AX114" s="73"/>
+      <c r="AY114" s="73"/>
+      <c r="AZ114" s="73"/>
+      <c r="BA114" s="80"/>
+      <c r="BB114" s="72" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC114" s="72"/>
-      <c r="BD114" s="72"/>
-      <c r="BE114" s="72"/>
-      <c r="BF114" s="72"/>
-      <c r="BG114" s="72"/>
-      <c r="BH114" s="72"/>
-      <c r="BI114" s="72"/>
-      <c r="BJ114" s="73"/>
-      <c r="BK114" s="74" t="s">
+      <c r="BC114" s="73"/>
+      <c r="BD114" s="73"/>
+      <c r="BE114" s="73"/>
+      <c r="BF114" s="73"/>
+      <c r="BG114" s="73"/>
+      <c r="BH114" s="73"/>
+      <c r="BI114" s="73"/>
+      <c r="BJ114" s="80"/>
+      <c r="BK114" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="BL114" s="72"/>
-      <c r="BM114" s="72"/>
-      <c r="BN114" s="72"/>
-      <c r="BO114" s="73"/>
-      <c r="BP114" s="80" t="str">
+      <c r="BL114" s="73"/>
+      <c r="BM114" s="73"/>
+      <c r="BN114" s="73"/>
+      <c r="BO114" s="80"/>
+      <c r="BP114" s="72" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ114" s="72"/>
-      <c r="BR114" s="72"/>
-      <c r="BS114" s="72"/>
-      <c r="BT114" s="72"/>
-      <c r="BU114" s="72"/>
-      <c r="BV114" s="72"/>
-      <c r="BW114" s="72"/>
-      <c r="BX114" s="86"/>
+      <c r="BQ114" s="73"/>
+      <c r="BR114" s="73"/>
+      <c r="BS114" s="73"/>
+      <c r="BT114" s="73"/>
+      <c r="BU114" s="73"/>
+      <c r="BV114" s="73"/>
+      <c r="BW114" s="73"/>
+      <c r="BX114" s="74"/>
       <c r="BY114" s="1"/>
       <c r="BZ114" s="1"/>
     </row>
     <row r="115" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A115" s="81" t="s">
+      <c r="A115" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B115" s="76"/>
       <c r="C115" s="76"/>
       <c r="D115" s="76"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="75" t="str">
+      <c r="E115" s="82"/>
+      <c r="F115" s="83" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
@@ -11301,15 +11324,15 @@
       <c r="V115" s="76"/>
       <c r="W115" s="76"/>
       <c r="X115" s="76"/>
-      <c r="Y115" s="77"/>
-      <c r="Z115" s="78" t="s">
+      <c r="Y115" s="82"/>
+      <c r="Z115" s="81" t="s">
         <v>8</v>
       </c>
       <c r="AA115" s="76"/>
       <c r="AB115" s="76"/>
       <c r="AC115" s="76"/>
-      <c r="AD115" s="77"/>
-      <c r="AE115" s="75" t="s">
+      <c r="AD115" s="82"/>
+      <c r="AE115" s="83" t="s">
         <v>97</v>
       </c>
       <c r="AF115" s="76"/>
@@ -11328,17 +11351,17 @@
       <c r="AS115" s="76"/>
       <c r="AT115" s="76"/>
       <c r="AU115" s="76"/>
-      <c r="AV115" s="77"/>
-      <c r="AW115" s="78" t="s">
+      <c r="AV115" s="82"/>
+      <c r="AW115" s="81" t="s">
         <v>9</v>
       </c>
       <c r="AX115" s="76"/>
       <c r="AY115" s="76"/>
       <c r="AZ115" s="76"/>
-      <c r="BA115" s="77"/>
-      <c r="BB115" s="79" t="str">
+      <c r="BA115" s="82"/>
+      <c r="BB115" s="75" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
-        <v>2019/10/10</v>
+        <v>2019/10/14</v>
       </c>
       <c r="BC115" s="76"/>
       <c r="BD115" s="76"/>
@@ -11347,15 +11370,15 @@
       <c r="BG115" s="76"/>
       <c r="BH115" s="76"/>
       <c r="BI115" s="76"/>
-      <c r="BJ115" s="77"/>
-      <c r="BK115" s="78" t="s">
+      <c r="BJ115" s="82"/>
+      <c r="BK115" s="81" t="s">
         <v>10</v>
       </c>
       <c r="BL115" s="76"/>
       <c r="BM115" s="76"/>
       <c r="BN115" s="76"/>
-      <c r="BO115" s="77"/>
-      <c r="BP115" s="79" t="str">
+      <c r="BO115" s="82"/>
+      <c r="BP115" s="75" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
@@ -11366,7 +11389,7 @@
       <c r="BU115" s="76"/>
       <c r="BV115" s="76"/>
       <c r="BW115" s="76"/>
-      <c r="BX115" s="87"/>
+      <c r="BX115" s="77"/>
       <c r="BY115" s="1"/>
       <c r="BZ115" s="1"/>
     </row>
@@ -14293,109 +14316,109 @@
       <c r="BZ153" s="4"/>
     </row>
     <row r="154" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="72"/>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="71" t="str">
+      <c r="B154" s="73"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="87" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>アイエスエイプランECサイト</v>
       </c>
-      <c r="G154" s="72"/>
-      <c r="H154" s="72"/>
-      <c r="I154" s="72"/>
-      <c r="J154" s="72"/>
-      <c r="K154" s="72"/>
-      <c r="L154" s="72"/>
-      <c r="M154" s="72"/>
-      <c r="N154" s="72"/>
-      <c r="O154" s="72"/>
-      <c r="P154" s="72"/>
-      <c r="Q154" s="72"/>
-      <c r="R154" s="72"/>
-      <c r="S154" s="72"/>
-      <c r="T154" s="72"/>
-      <c r="U154" s="72"/>
-      <c r="V154" s="72"/>
-      <c r="W154" s="72"/>
-      <c r="X154" s="72"/>
-      <c r="Y154" s="72"/>
-      <c r="Z154" s="72"/>
-      <c r="AA154" s="72"/>
-      <c r="AB154" s="72"/>
-      <c r="AC154" s="72"/>
-      <c r="AD154" s="72"/>
-      <c r="AE154" s="72"/>
-      <c r="AF154" s="72"/>
-      <c r="AG154" s="72"/>
-      <c r="AH154" s="72"/>
-      <c r="AI154" s="72"/>
-      <c r="AJ154" s="72"/>
-      <c r="AK154" s="72"/>
-      <c r="AL154" s="72"/>
-      <c r="AM154" s="72"/>
-      <c r="AN154" s="72"/>
-      <c r="AO154" s="72"/>
-      <c r="AP154" s="72"/>
-      <c r="AQ154" s="72"/>
-      <c r="AR154" s="72"/>
-      <c r="AS154" s="72"/>
-      <c r="AT154" s="72"/>
-      <c r="AU154" s="72"/>
-      <c r="AV154" s="73"/>
-      <c r="AW154" s="74" t="s">
+      <c r="G154" s="73"/>
+      <c r="H154" s="73"/>
+      <c r="I154" s="73"/>
+      <c r="J154" s="73"/>
+      <c r="K154" s="73"/>
+      <c r="L154" s="73"/>
+      <c r="M154" s="73"/>
+      <c r="N154" s="73"/>
+      <c r="O154" s="73"/>
+      <c r="P154" s="73"/>
+      <c r="Q154" s="73"/>
+      <c r="R154" s="73"/>
+      <c r="S154" s="73"/>
+      <c r="T154" s="73"/>
+      <c r="U154" s="73"/>
+      <c r="V154" s="73"/>
+      <c r="W154" s="73"/>
+      <c r="X154" s="73"/>
+      <c r="Y154" s="73"/>
+      <c r="Z154" s="73"/>
+      <c r="AA154" s="73"/>
+      <c r="AB154" s="73"/>
+      <c r="AC154" s="73"/>
+      <c r="AD154" s="73"/>
+      <c r="AE154" s="73"/>
+      <c r="AF154" s="73"/>
+      <c r="AG154" s="73"/>
+      <c r="AH154" s="73"/>
+      <c r="AI154" s="73"/>
+      <c r="AJ154" s="73"/>
+      <c r="AK154" s="73"/>
+      <c r="AL154" s="73"/>
+      <c r="AM154" s="73"/>
+      <c r="AN154" s="73"/>
+      <c r="AO154" s="73"/>
+      <c r="AP154" s="73"/>
+      <c r="AQ154" s="73"/>
+      <c r="AR154" s="73"/>
+      <c r="AS154" s="73"/>
+      <c r="AT154" s="73"/>
+      <c r="AU154" s="73"/>
+      <c r="AV154" s="80"/>
+      <c r="AW154" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AX154" s="72"/>
-      <c r="AY154" s="72"/>
-      <c r="AZ154" s="72"/>
-      <c r="BA154" s="73"/>
-      <c r="BB154" s="80" t="str">
+      <c r="AX154" s="73"/>
+      <c r="AY154" s="73"/>
+      <c r="AZ154" s="73"/>
+      <c r="BA154" s="80"/>
+      <c r="BB154" s="72" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2017/8/18</v>
       </c>
-      <c r="BC154" s="72"/>
-      <c r="BD154" s="72"/>
-      <c r="BE154" s="72"/>
-      <c r="BF154" s="72"/>
-      <c r="BG154" s="72"/>
-      <c r="BH154" s="72"/>
-      <c r="BI154" s="72"/>
-      <c r="BJ154" s="73"/>
-      <c r="BK154" s="74" t="s">
+      <c r="BC154" s="73"/>
+      <c r="BD154" s="73"/>
+      <c r="BE154" s="73"/>
+      <c r="BF154" s="73"/>
+      <c r="BG154" s="73"/>
+      <c r="BH154" s="73"/>
+      <c r="BI154" s="73"/>
+      <c r="BJ154" s="80"/>
+      <c r="BK154" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="BL154" s="72"/>
-      <c r="BM154" s="72"/>
-      <c r="BN154" s="72"/>
-      <c r="BO154" s="73"/>
-      <c r="BP154" s="80" t="str">
+      <c r="BL154" s="73"/>
+      <c r="BM154" s="73"/>
+      <c r="BN154" s="73"/>
+      <c r="BO154" s="80"/>
+      <c r="BP154" s="72" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>佐伯 悠里</v>
       </c>
-      <c r="BQ154" s="72"/>
-      <c r="BR154" s="72"/>
-      <c r="BS154" s="72"/>
-      <c r="BT154" s="72"/>
-      <c r="BU154" s="72"/>
-      <c r="BV154" s="72"/>
-      <c r="BW154" s="72"/>
-      <c r="BX154" s="86"/>
+      <c r="BQ154" s="73"/>
+      <c r="BR154" s="73"/>
+      <c r="BS154" s="73"/>
+      <c r="BT154" s="73"/>
+      <c r="BU154" s="73"/>
+      <c r="BV154" s="73"/>
+      <c r="BW154" s="73"/>
+      <c r="BX154" s="74"/>
       <c r="BY154" s="1"/>
       <c r="BZ154" s="1"/>
     </row>
     <row r="155" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A155" s="81" t="s">
+      <c r="A155" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="76"/>
       <c r="C155" s="76"/>
       <c r="D155" s="76"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="75" t="str">
+      <c r="E155" s="82"/>
+      <c r="F155" s="83" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>ホーム</v>
       </c>
@@ -14417,15 +14440,15 @@
       <c r="V155" s="76"/>
       <c r="W155" s="76"/>
       <c r="X155" s="76"/>
-      <c r="Y155" s="77"/>
-      <c r="Z155" s="78" t="s">
+      <c r="Y155" s="82"/>
+      <c r="Z155" s="81" t="s">
         <v>8</v>
       </c>
       <c r="AA155" s="76"/>
       <c r="AB155" s="76"/>
       <c r="AC155" s="76"/>
-      <c r="AD155" s="77"/>
-      <c r="AE155" s="75" t="s">
+      <c r="AD155" s="82"/>
+      <c r="AE155" s="83" t="s">
         <v>97</v>
       </c>
       <c r="AF155" s="76"/>
@@ -14444,17 +14467,17 @@
       <c r="AS155" s="76"/>
       <c r="AT155" s="76"/>
       <c r="AU155" s="76"/>
-      <c r="AV155" s="77"/>
-      <c r="AW155" s="78" t="s">
+      <c r="AV155" s="82"/>
+      <c r="AW155" s="81" t="s">
         <v>9</v>
       </c>
       <c r="AX155" s="76"/>
       <c r="AY155" s="76"/>
       <c r="AZ155" s="76"/>
-      <c r="BA155" s="77"/>
-      <c r="BB155" s="79" t="str">
+      <c r="BA155" s="82"/>
+      <c r="BB155" s="75" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
-        <v>2019/10/10</v>
+        <v>2019/10/14</v>
       </c>
       <c r="BC155" s="76"/>
       <c r="BD155" s="76"/>
@@ -14463,15 +14486,15 @@
       <c r="BG155" s="76"/>
       <c r="BH155" s="76"/>
       <c r="BI155" s="76"/>
-      <c r="BJ155" s="77"/>
-      <c r="BK155" s="78" t="s">
+      <c r="BJ155" s="82"/>
+      <c r="BK155" s="81" t="s">
         <v>10</v>
       </c>
       <c r="BL155" s="76"/>
       <c r="BM155" s="76"/>
       <c r="BN155" s="76"/>
-      <c r="BO155" s="77"/>
-      <c r="BP155" s="79" t="str">
+      <c r="BO155" s="82"/>
+      <c r="BP155" s="75" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>森野　仁巨</v>
       </c>
@@ -14482,7 +14505,7 @@
       <c r="BU155" s="76"/>
       <c r="BV155" s="76"/>
       <c r="BW155" s="76"/>
-      <c r="BX155" s="87"/>
+      <c r="BX155" s="77"/>
       <c r="BY155" s="1"/>
       <c r="BZ155" s="1"/>
     </row>
@@ -14735,7 +14758,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>118</v>
@@ -15703,7 +15726,7 @@
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="E177" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -16075,7 +16098,7 @@
     </row>
     <row r="182" spans="1:78" ht="14.25" customHeight="1">
       <c r="A182" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -16153,10 +16176,10 @@
     </row>
     <row r="184" spans="1:78" ht="14.25" customHeight="1">
       <c r="A184" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" s="71" t="s">
         <v>158</v>
-      </c>
-      <c r="B184" s="89" t="s">
-        <v>159</v>
       </c>
       <c r="C184" s="4"/>
       <c r="AC184" s="4"/>
@@ -16184,8 +16207,8 @@
     <row r="185" spans="1:78" ht="14.25" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="89" t="s">
-        <v>161</v>
+      <c r="C185" s="71" t="s">
+        <v>160</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -16264,8 +16287,8 @@
     <row r="186" spans="1:78" ht="14.25" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="89" t="s">
-        <v>162</v>
+      <c r="C186" s="71" t="s">
+        <v>161</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -16344,7 +16367,7 @@
     <row r="187" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="89"/>
+      <c r="C187" s="71"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="20"/>
@@ -16422,7 +16445,7 @@
     <row r="188" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="89"/>
+      <c r="C188" s="71"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="20"/>
@@ -16501,8 +16524,8 @@
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="61" t="s">
-        <v>174</v>
+      <c r="D189" s="90" t="s">
+        <v>173</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="20"/>
@@ -16582,8 +16605,8 @@
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="61" t="s">
-        <v>175</v>
+      <c r="E190" s="90" t="s">
+        <v>174</v>
       </c>
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
@@ -16662,7 +16685,7 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="61"/>
+      <c r="E191" s="90"/>
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
       <c r="H191" s="20"/>
@@ -16735,15 +16758,15 @@
       <c r="BY191" s="4"/>
       <c r="BZ191" s="4"/>
     </row>
-    <row r="192" spans="1:78" ht="14.25" customHeight="1">
+    <row r="192" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="61" t="s">
-        <v>163</v>
-      </c>
+      <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="20"/>
+      <c r="E192" s="90"/>
+      <c r="F192" s="91" t="s">
+        <v>175</v>
+      </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20"/>
       <c r="I192" s="20"/>
@@ -16762,6 +16785,7 @@
       <c r="W192" s="20"/>
       <c r="X192" s="20"/>
       <c r="Y192" s="4"/>
+      <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
@@ -16798,6 +16822,7 @@
       <c r="BI192" s="20"/>
       <c r="BJ192" s="20"/>
       <c r="BK192" s="4"/>
+      <c r="BL192" s="4"/>
       <c r="BM192" s="4"/>
       <c r="BN192" s="4"/>
       <c r="BO192" s="4"/>
@@ -16813,14 +16838,16 @@
       <c r="BY192" s="4"/>
       <c r="BZ192" s="4"/>
     </row>
-    <row r="193" spans="1:78" ht="14.25" customHeight="1">
+    <row r="193" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
+      <c r="E193" s="90"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
+      <c r="G193" s="92" t="s">
+        <v>176</v>
+      </c>
       <c r="H193" s="20"/>
       <c r="I193" s="20"/>
       <c r="J193" s="20"/>
@@ -16838,6 +16865,7 @@
       <c r="W193" s="20"/>
       <c r="X193" s="20"/>
       <c r="Y193" s="4"/>
+      <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
@@ -16874,6 +16902,7 @@
       <c r="BI193" s="20"/>
       <c r="BJ193" s="20"/>
       <c r="BK193" s="4"/>
+      <c r="BL193" s="4"/>
       <c r="BM193" s="4"/>
       <c r="BN193" s="4"/>
       <c r="BO193" s="4"/>
@@ -16889,20 +16918,30 @@
       <c r="BY193" s="4"/>
       <c r="BZ193" s="4"/>
     </row>
-    <row r="194" spans="1:78" ht="14.25" customHeight="1">
+    <row r="194" spans="1:78" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
-      <c r="D194" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="61"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="20"/>
       <c r="Q194" s="20"/>
       <c r="R194" s="20"/>
-      <c r="S194" s="20"/>
+      <c r="S194" s="4"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="4"/>
-      <c r="V194" s="4"/>
-      <c r="W194" s="4"/>
-      <c r="X194" s="4"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
@@ -16937,10 +16976,9 @@
       <c r="BD194" s="20"/>
       <c r="BE194" s="4"/>
       <c r="BF194" s="4"/>
-      <c r="BG194" s="4"/>
-      <c r="BH194" s="4"/>
-      <c r="BI194" s="4"/>
-      <c r="BJ194" s="4"/>
+      <c r="BH194" s="20"/>
+      <c r="BI194" s="20"/>
+      <c r="BJ194" s="20"/>
       <c r="BK194" s="4"/>
       <c r="BL194" s="4"/>
       <c r="BM194" s="4"/>
@@ -16958,12 +16996,14 @@
       <c r="BY194" s="4"/>
       <c r="BZ194" s="4"/>
     </row>
-    <row r="195" spans="1:78" ht="13.5" customHeight="1">
+    <row r="195" spans="1:78" ht="14.25" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
+      <c r="C195" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="20"/>
@@ -16972,19 +17012,17 @@
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
+      <c r="N195" s="20"/>
+      <c r="O195" s="20"/>
+      <c r="P195" s="20"/>
       <c r="Q195" s="20"/>
       <c r="R195" s="20"/>
-      <c r="S195" s="20"/>
+      <c r="S195" s="4"/>
       <c r="T195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="4"/>
-      <c r="W195" s="4"/>
-      <c r="X195" s="4"/>
+      <c r="V195" s="20"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="20"/>
       <c r="Y195" s="4"/>
-      <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
@@ -17039,22 +17077,28 @@
     <row r="196" spans="1:78" ht="14.25" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
-      <c r="D196" t="s">
-        <v>165</v>
-      </c>
-      <c r="E196" s="59" t="s">
-        <v>166</v>
-      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="20"/>
+      <c r="O196" s="20"/>
+      <c r="P196" s="20"/>
       <c r="Q196" s="20"/>
       <c r="R196" s="20"/>
-      <c r="S196" s="20"/>
+      <c r="S196" s="4"/>
       <c r="T196" s="4"/>
-      <c r="U196" s="4"/>
-      <c r="V196" s="4"/>
-      <c r="W196" s="4"/>
-      <c r="X196" s="4"/>
+      <c r="V196" s="20"/>
+      <c r="W196" s="20"/>
+      <c r="X196" s="20"/>
       <c r="Y196" s="4"/>
-      <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
@@ -17087,12 +17131,10 @@
       <c r="BD196" s="20"/>
       <c r="BE196" s="4"/>
       <c r="BF196" s="4"/>
-      <c r="BG196" s="4"/>
-      <c r="BH196" s="4"/>
-      <c r="BI196" s="4"/>
-      <c r="BJ196" s="4"/>
+      <c r="BH196" s="20"/>
+      <c r="BI196" s="20"/>
+      <c r="BJ196" s="20"/>
       <c r="BK196" s="4"/>
-      <c r="BL196" s="4"/>
       <c r="BM196" s="4"/>
       <c r="BN196" s="4"/>
       <c r="BO196" s="4"/>
@@ -17111,9 +17153,14 @@
     <row r="197" spans="1:78" ht="14.25" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
-      <c r="E197" s="59" t="s">
-        <v>167</v>
-      </c>
+      <c r="D197" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q197" s="20"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
@@ -17136,26 +17183,26 @@
       <c r="AO197" s="4"/>
       <c r="AP197" s="4"/>
       <c r="AQ197" s="4"/>
-      <c r="AR197" s="4"/>
-      <c r="AS197" s="4"/>
-      <c r="AT197" s="4"/>
-      <c r="AU197" s="4"/>
-      <c r="AV197" s="4"/>
-      <c r="AW197" s="4"/>
-      <c r="AX197" s="4"/>
-      <c r="AY197" s="4"/>
-      <c r="AZ197" s="4"/>
-      <c r="BA197" s="4"/>
-      <c r="BB197" s="4"/>
-      <c r="BC197" s="4"/>
-      <c r="BD197" s="4"/>
+      <c r="AR197" s="20"/>
+      <c r="AS197" s="20"/>
+      <c r="AT197" s="20"/>
+      <c r="AU197" s="20"/>
+      <c r="AV197" s="20"/>
+      <c r="AW197" s="20"/>
+      <c r="AX197" s="20"/>
+      <c r="AY197" s="20"/>
+      <c r="AZ197" s="20"/>
+      <c r="BA197" s="20"/>
+      <c r="BB197" s="20"/>
+      <c r="BC197" s="20"/>
+      <c r="BD197" s="20"/>
       <c r="BE197" s="4"/>
       <c r="BF197" s="4"/>
       <c r="BG197" s="4"/>
       <c r="BH197" s="4"/>
       <c r="BI197" s="4"/>
       <c r="BJ197" s="4"/>
-      <c r="BK197" s="20"/>
+      <c r="BK197" s="4"/>
       <c r="BL197" s="4"/>
       <c r="BM197" s="4"/>
       <c r="BN197" s="4"/>
@@ -17172,9 +17219,28 @@
       <c r="BY197" s="4"/>
       <c r="BZ197" s="4"/>
     </row>
-    <row r="198" spans="1:78" ht="14.25" customHeight="1">
+    <row r="198" spans="1:78" ht="13.5" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
@@ -17194,29 +17260,28 @@
       <c r="AL198" s="4"/>
       <c r="AM198" s="5"/>
       <c r="AN198" s="4"/>
+      <c r="AO198" s="4"/>
       <c r="AP198" s="4"/>
       <c r="AQ198" s="4"/>
-      <c r="AR198" s="4"/>
-      <c r="AS198" s="4"/>
-      <c r="AT198" s="4"/>
-      <c r="AU198" s="4"/>
-      <c r="AV198" s="4"/>
-      <c r="AW198" s="4"/>
-      <c r="AX198" s="4"/>
-      <c r="AY198" s="4"/>
-      <c r="AZ198" s="4"/>
-      <c r="BA198" s="4"/>
-      <c r="BB198" s="4"/>
-      <c r="BC198" s="4"/>
-      <c r="BD198" s="4"/>
+      <c r="AR198" s="20"/>
+      <c r="AS198" s="20"/>
+      <c r="AT198" s="20"/>
+      <c r="AU198" s="20"/>
+      <c r="AV198" s="20"/>
+      <c r="AW198" s="20"/>
+      <c r="AX198" s="20"/>
+      <c r="AY198" s="20"/>
+      <c r="AZ198" s="20"/>
+      <c r="BA198" s="20"/>
+      <c r="BB198" s="20"/>
+      <c r="BC198" s="20"/>
+      <c r="BD198" s="20"/>
       <c r="BE198" s="4"/>
       <c r="BF198" s="4"/>
-      <c r="BG198" s="4"/>
-      <c r="BH198" s="4"/>
-      <c r="BI198" s="4"/>
-      <c r="BJ198" s="4"/>
-      <c r="BK198" s="20"/>
-      <c r="BL198" s="4"/>
+      <c r="BH198" s="20"/>
+      <c r="BI198" s="20"/>
+      <c r="BJ198" s="20"/>
+      <c r="BK198" s="4"/>
       <c r="BM198" s="4"/>
       <c r="BN198" s="4"/>
       <c r="BO198" s="4"/>
@@ -17235,9 +17300,20 @@
     <row r="199" spans="1:78" ht="14.25" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
-      <c r="D199" s="59" t="s">
-        <v>168</v>
-      </c>
+      <c r="D199" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="20"/>
+      <c r="S199" s="20"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
@@ -17257,19 +17333,19 @@
       <c r="AO199" s="4"/>
       <c r="AP199" s="4"/>
       <c r="AQ199" s="4"/>
-      <c r="AR199" s="4"/>
-      <c r="AS199" s="4"/>
-      <c r="AT199" s="4"/>
-      <c r="AU199" s="4"/>
-      <c r="AV199" s="4"/>
-      <c r="AW199" s="4"/>
-      <c r="AX199" s="4"/>
-      <c r="AY199" s="4"/>
-      <c r="AZ199" s="4"/>
-      <c r="BA199" s="4"/>
-      <c r="BB199" s="4"/>
-      <c r="BC199" s="4"/>
-      <c r="BD199" s="4"/>
+      <c r="AR199" s="20"/>
+      <c r="AS199" s="20"/>
+      <c r="AT199" s="20"/>
+      <c r="AU199" s="20"/>
+      <c r="AV199" s="20"/>
+      <c r="AW199" s="20"/>
+      <c r="AX199" s="20"/>
+      <c r="AY199" s="20"/>
+      <c r="AZ199" s="20"/>
+      <c r="BA199" s="20"/>
+      <c r="BB199" s="20"/>
+      <c r="BC199" s="20"/>
+      <c r="BD199" s="20"/>
       <c r="BE199" s="4"/>
       <c r="BF199" s="4"/>
       <c r="BG199" s="4"/>
@@ -17296,6 +17372,12 @@
     <row r="200" spans="1:78" ht="14.25" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
+      <c r="E200" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
@@ -17312,6 +17394,7 @@
       <c r="AL200" s="4"/>
       <c r="AM200" s="5"/>
       <c r="AN200" s="4"/>
+      <c r="AO200" s="4"/>
       <c r="AP200" s="4"/>
       <c r="AQ200" s="4"/>
       <c r="AR200" s="4"/>
@@ -17333,7 +17416,7 @@
       <c r="BH200" s="4"/>
       <c r="BI200" s="4"/>
       <c r="BJ200" s="4"/>
-      <c r="BK200" s="4"/>
+      <c r="BK200" s="20"/>
       <c r="BL200" s="4"/>
       <c r="BM200" s="4"/>
       <c r="BN200" s="4"/>
@@ -17353,9 +17436,6 @@
     <row r="201" spans="1:78" ht="14.25" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
-      <c r="D201" s="55" t="s">
-        <v>170</v>
-      </c>
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
       <c r="X201" s="4"/>
@@ -17375,7 +17455,6 @@
       <c r="AL201" s="4"/>
       <c r="AM201" s="5"/>
       <c r="AN201" s="4"/>
-      <c r="AO201" s="4"/>
       <c r="AP201" s="4"/>
       <c r="AQ201" s="4"/>
       <c r="AR201" s="4"/>
@@ -17397,7 +17476,7 @@
       <c r="BH201" s="4"/>
       <c r="BI201" s="4"/>
       <c r="BJ201" s="4"/>
-      <c r="BK201" s="4"/>
+      <c r="BK201" s="20"/>
       <c r="BL201" s="4"/>
       <c r="BM201" s="4"/>
       <c r="BN201" s="4"/>
@@ -17417,9 +17496,9 @@
     <row r="202" spans="1:78" ht="14.25" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
+      <c r="D202" s="59" t="s">
+        <v>167</v>
+      </c>
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
@@ -17478,22 +17557,15 @@
     <row r="203" spans="1:78" ht="14.25" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
-      <c r="E203" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="J203" s="60"/>
-      <c r="V203" s="4"/>
-      <c r="W203" s="4"/>
-      <c r="X203" s="4"/>
-      <c r="Y203" s="20"/>
-      <c r="Z203" s="20"/>
-      <c r="AA203" s="20"/>
-      <c r="AB203" s="20"/>
-      <c r="AC203" s="20"/>
-      <c r="AD203" s="20"/>
-      <c r="AE203" s="20"/>
-      <c r="AF203" s="20"/>
-      <c r="AG203" s="20"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
+      <c r="AB203" s="4"/>
+      <c r="AC203" s="4"/>
+      <c r="AD203" s="4"/>
+      <c r="AE203" s="4"/>
+      <c r="AF203" s="4"/>
+      <c r="AG203" s="4"/>
       <c r="AH203" s="4"/>
       <c r="AI203" s="4"/>
       <c r="AJ203" s="4"/>
@@ -17501,7 +17573,6 @@
       <c r="AL203" s="4"/>
       <c r="AM203" s="5"/>
       <c r="AN203" s="4"/>
-      <c r="AO203" s="4"/>
       <c r="AP203" s="4"/>
       <c r="AQ203" s="4"/>
       <c r="AR203" s="4"/>
@@ -17543,18 +17614,21 @@
     <row r="204" spans="1:78" ht="14.25" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
+      <c r="D204" s="55" t="s">
+        <v>169</v>
+      </c>
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
-      <c r="Y204" s="20"/>
-      <c r="Z204" s="20"/>
-      <c r="AA204" s="20"/>
-      <c r="AB204" s="20"/>
-      <c r="AC204" s="20"/>
-      <c r="AD204" s="20"/>
-      <c r="AE204" s="20"/>
-      <c r="AF204" s="20"/>
-      <c r="AG204" s="20"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
+      <c r="AB204" s="4"/>
+      <c r="AC204" s="4"/>
+      <c r="AD204" s="4"/>
+      <c r="AE204" s="4"/>
+      <c r="AF204" s="4"/>
+      <c r="AG204" s="4"/>
       <c r="AH204" s="4"/>
       <c r="AI204" s="4"/>
       <c r="AJ204" s="4"/>
@@ -17604,17 +17678,17 @@
     <row r="205" spans="1:78" ht="14.25" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
-      <c r="V205" s="20"/>
-      <c r="W205" s="20"/>
-      <c r="X205" s="20"/>
-      <c r="Y205" s="20"/>
-      <c r="Z205" s="20"/>
-      <c r="AA205" s="20"/>
-      <c r="AB205" s="20"/>
-      <c r="AC205" s="20"/>
-      <c r="AD205" s="20"/>
-      <c r="AE205" s="20"/>
-      <c r="AF205" s="20"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
+      <c r="AB205" s="4"/>
+      <c r="AC205" s="4"/>
+      <c r="AD205" s="4"/>
+      <c r="AE205" s="4"/>
+      <c r="AF205" s="4"/>
       <c r="AG205" s="4"/>
       <c r="AH205" s="4"/>
       <c r="AI205" s="4"/>
@@ -17665,9 +17739,13 @@
     <row r="206" spans="1:78" ht="14.25" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
-      <c r="V206" s="20"/>
-      <c r="W206" s="20"/>
-      <c r="X206" s="20"/>
+      <c r="E206" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="J206" s="60"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
       <c r="Y206" s="20"/>
       <c r="Z206" s="20"/>
       <c r="AA206" s="20"/>
@@ -17676,7 +17754,7 @@
       <c r="AD206" s="20"/>
       <c r="AE206" s="20"/>
       <c r="AF206" s="20"/>
-      <c r="AG206" s="4"/>
+      <c r="AG206" s="20"/>
       <c r="AH206" s="4"/>
       <c r="AI206" s="4"/>
       <c r="AJ206" s="4"/>
@@ -17694,7 +17772,7 @@
       <c r="AV206" s="4"/>
       <c r="AW206" s="4"/>
       <c r="AX206" s="4"/>
-      <c r="AY206" s="21"/>
+      <c r="AY206" s="4"/>
       <c r="AZ206" s="4"/>
       <c r="BA206" s="4"/>
       <c r="BB206" s="4"/>
@@ -17726,9 +17804,9 @@
     <row r="207" spans="1:78" ht="14.25" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
-      <c r="V207" s="20"/>
-      <c r="W207" s="20"/>
-      <c r="X207" s="20"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+      <c r="X207" s="4"/>
       <c r="Y207" s="20"/>
       <c r="Z207" s="20"/>
       <c r="AA207" s="20"/>
@@ -17737,7 +17815,7 @@
       <c r="AD207" s="20"/>
       <c r="AE207" s="20"/>
       <c r="AF207" s="20"/>
-      <c r="AG207" s="4"/>
+      <c r="AG207" s="20"/>
       <c r="AH207" s="4"/>
       <c r="AI207" s="4"/>
       <c r="AJ207" s="4"/>
@@ -17787,36 +17865,17 @@
     <row r="208" spans="1:78" ht="14.25" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
-      <c r="W208" s="4"/>
-      <c r="X208" s="4"/>
-      <c r="Y208" s="4"/>
-      <c r="Z208" s="4"/>
-      <c r="AA208" s="4"/>
-      <c r="AB208" s="4"/>
-      <c r="AC208" s="4"/>
-      <c r="AD208" s="4"/>
-      <c r="AE208" s="4"/>
-      <c r="AF208" s="4"/>
+      <c r="V208" s="20"/>
+      <c r="W208" s="20"/>
+      <c r="X208" s="20"/>
+      <c r="Y208" s="20"/>
+      <c r="Z208" s="20"/>
+      <c r="AA208" s="20"/>
+      <c r="AB208" s="20"/>
+      <c r="AC208" s="20"/>
+      <c r="AD208" s="20"/>
+      <c r="AE208" s="20"/>
+      <c r="AF208" s="20"/>
       <c r="AG208" s="4"/>
       <c r="AH208" s="4"/>
       <c r="AI208" s="4"/>
@@ -17864,126 +17923,354 @@
       <c r="BY208" s="4"/>
       <c r="BZ208" s="4"/>
     </row>
-    <row r="209" spans="1:78" ht="13.5">
-      <c r="A209" s="13"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="14"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="14"/>
-      <c r="K209" s="14"/>
-      <c r="L209" s="14"/>
-      <c r="M209" s="14"/>
-      <c r="N209" s="14"/>
-      <c r="O209" s="14"/>
-      <c r="P209" s="14"/>
-      <c r="Q209" s="14"/>
-      <c r="R209" s="14"/>
-      <c r="S209" s="14"/>
-      <c r="T209" s="14"/>
-      <c r="U209" s="14"/>
-      <c r="V209" s="14"/>
-      <c r="W209" s="14"/>
-      <c r="X209" s="14"/>
-      <c r="Y209" s="14"/>
-      <c r="Z209" s="14"/>
-      <c r="AA209" s="14"/>
-      <c r="AB209" s="14"/>
-      <c r="AC209" s="14"/>
-      <c r="AD209" s="14"/>
-      <c r="AE209" s="14"/>
-      <c r="AF209" s="14"/>
-      <c r="AG209" s="14"/>
-      <c r="AH209" s="14"/>
-      <c r="AI209" s="14"/>
-      <c r="AJ209" s="14"/>
-      <c r="AK209" s="14"/>
-      <c r="AL209" s="14"/>
-      <c r="AM209" s="15"/>
-      <c r="AN209" s="14"/>
-      <c r="AO209" s="14"/>
-      <c r="AP209" s="14"/>
-      <c r="AQ209" s="14"/>
-      <c r="AR209" s="14"/>
-      <c r="AS209" s="14"/>
-      <c r="AT209" s="14"/>
-      <c r="AU209" s="14"/>
-      <c r="AV209" s="14"/>
-      <c r="AW209" s="14"/>
-      <c r="AX209" s="14"/>
-      <c r="AY209" s="14"/>
-      <c r="AZ209" s="14"/>
-      <c r="BA209" s="14"/>
-      <c r="BB209" s="14"/>
-      <c r="BC209" s="14"/>
-      <c r="BD209" s="14"/>
-      <c r="BE209" s="14"/>
-      <c r="BF209" s="14"/>
-      <c r="BG209" s="14"/>
-      <c r="BH209" s="14"/>
-      <c r="BI209" s="14"/>
-      <c r="BJ209" s="14"/>
-      <c r="BK209" s="14"/>
-      <c r="BL209" s="14"/>
-      <c r="BM209" s="14"/>
-      <c r="BN209" s="14"/>
-      <c r="BO209" s="14"/>
-      <c r="BP209" s="14"/>
-      <c r="BQ209" s="14"/>
-      <c r="BR209" s="14"/>
-      <c r="BS209" s="14"/>
-      <c r="BT209" s="14"/>
-      <c r="BU209" s="14"/>
-      <c r="BV209" s="14"/>
-      <c r="BW209" s="14"/>
-      <c r="BX209" s="16"/>
+    <row r="209" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A209" s="7"/>
+      <c r="B209" s="4"/>
+      <c r="V209" s="20"/>
+      <c r="W209" s="20"/>
+      <c r="X209" s="20"/>
+      <c r="Y209" s="20"/>
+      <c r="Z209" s="20"/>
+      <c r="AA209" s="20"/>
+      <c r="AB209" s="20"/>
+      <c r="AC209" s="20"/>
+      <c r="AD209" s="20"/>
+      <c r="AE209" s="20"/>
+      <c r="AF209" s="20"/>
+      <c r="AG209" s="4"/>
+      <c r="AH209" s="4"/>
+      <c r="AI209" s="4"/>
+      <c r="AJ209" s="4"/>
+      <c r="AK209" s="4"/>
+      <c r="AL209" s="4"/>
+      <c r="AM209" s="5"/>
+      <c r="AN209" s="4"/>
+      <c r="AO209" s="4"/>
+      <c r="AP209" s="4"/>
+      <c r="AQ209" s="4"/>
+      <c r="AR209" s="4"/>
+      <c r="AS209" s="4"/>
+      <c r="AT209" s="4"/>
+      <c r="AU209" s="4"/>
+      <c r="AV209" s="4"/>
+      <c r="AW209" s="4"/>
+      <c r="AX209" s="4"/>
+      <c r="AY209" s="21"/>
+      <c r="AZ209" s="4"/>
+      <c r="BA209" s="4"/>
+      <c r="BB209" s="4"/>
+      <c r="BC209" s="4"/>
+      <c r="BD209" s="4"/>
+      <c r="BE209" s="4"/>
+      <c r="BF209" s="4"/>
+      <c r="BG209" s="4"/>
+      <c r="BH209" s="4"/>
+      <c r="BI209" s="4"/>
+      <c r="BJ209" s="4"/>
+      <c r="BK209" s="4"/>
+      <c r="BL209" s="4"/>
+      <c r="BM209" s="4"/>
+      <c r="BN209" s="4"/>
+      <c r="BO209" s="4"/>
+      <c r="BP209" s="4"/>
+      <c r="BQ209" s="4"/>
+      <c r="BR209" s="4"/>
+      <c r="BS209" s="4"/>
+      <c r="BT209" s="4"/>
+      <c r="BU209" s="4"/>
+      <c r="BV209" s="4"/>
+      <c r="BW209" s="4"/>
+      <c r="BX209" s="6"/>
       <c r="BY209" s="4"/>
       <c r="BZ209" s="4"/>
     </row>
-    <row r="210" spans="1:78" ht="15" customHeight="1">
-      <c r="A210" s="63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="211" spans="1:78" ht="15" customHeight="1">
-      <c r="A211" s="64" t="s">
+    <row r="210" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A210" s="7"/>
+      <c r="B210" s="4"/>
+      <c r="V210" s="20"/>
+      <c r="W210" s="20"/>
+      <c r="X210" s="20"/>
+      <c r="Y210" s="20"/>
+      <c r="Z210" s="20"/>
+      <c r="AA210" s="20"/>
+      <c r="AB210" s="20"/>
+      <c r="AC210" s="20"/>
+      <c r="AD210" s="20"/>
+      <c r="AE210" s="20"/>
+      <c r="AF210" s="20"/>
+      <c r="AG210" s="4"/>
+      <c r="AH210" s="4"/>
+      <c r="AI210" s="4"/>
+      <c r="AJ210" s="4"/>
+      <c r="AK210" s="4"/>
+      <c r="AL210" s="4"/>
+      <c r="AM210" s="5"/>
+      <c r="AN210" s="4"/>
+      <c r="AO210" s="4"/>
+      <c r="AP210" s="4"/>
+      <c r="AQ210" s="4"/>
+      <c r="AR210" s="4"/>
+      <c r="AS210" s="4"/>
+      <c r="AT210" s="4"/>
+      <c r="AU210" s="4"/>
+      <c r="AV210" s="4"/>
+      <c r="AW210" s="4"/>
+      <c r="AX210" s="4"/>
+      <c r="AY210" s="4"/>
+      <c r="AZ210" s="4"/>
+      <c r="BA210" s="4"/>
+      <c r="BB210" s="4"/>
+      <c r="BC210" s="4"/>
+      <c r="BD210" s="4"/>
+      <c r="BE210" s="4"/>
+      <c r="BF210" s="4"/>
+      <c r="BG210" s="4"/>
+      <c r="BH210" s="4"/>
+      <c r="BI210" s="4"/>
+      <c r="BJ210" s="4"/>
+      <c r="BK210" s="4"/>
+      <c r="BL210" s="4"/>
+      <c r="BM210" s="4"/>
+      <c r="BN210" s="4"/>
+      <c r="BO210" s="4"/>
+      <c r="BP210" s="4"/>
+      <c r="BQ210" s="4"/>
+      <c r="BR210" s="4"/>
+      <c r="BS210" s="4"/>
+      <c r="BT210" s="4"/>
+      <c r="BU210" s="4"/>
+      <c r="BV210" s="4"/>
+      <c r="BW210" s="4"/>
+      <c r="BX210" s="6"/>
+      <c r="BY210" s="4"/>
+      <c r="BZ210" s="4"/>
+    </row>
+    <row r="211" spans="1:78" ht="14.25" customHeight="1">
+      <c r="A211" s="7"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
+      <c r="AA211" s="4"/>
+      <c r="AB211" s="4"/>
+      <c r="AC211" s="4"/>
+      <c r="AD211" s="4"/>
+      <c r="AE211" s="4"/>
+      <c r="AF211" s="4"/>
+      <c r="AG211" s="4"/>
+      <c r="AH211" s="4"/>
+      <c r="AI211" s="4"/>
+      <c r="AJ211" s="4"/>
+      <c r="AK211" s="4"/>
+      <c r="AL211" s="4"/>
+      <c r="AM211" s="5"/>
+      <c r="AN211" s="4"/>
+      <c r="AO211" s="4"/>
+      <c r="AP211" s="4"/>
+      <c r="AQ211" s="4"/>
+      <c r="AR211" s="4"/>
+      <c r="AS211" s="4"/>
+      <c r="AT211" s="4"/>
+      <c r="AU211" s="4"/>
+      <c r="AV211" s="4"/>
+      <c r="AW211" s="4"/>
+      <c r="AX211" s="4"/>
+      <c r="AY211" s="4"/>
+      <c r="AZ211" s="4"/>
+      <c r="BA211" s="4"/>
+      <c r="BB211" s="4"/>
+      <c r="BC211" s="4"/>
+      <c r="BD211" s="4"/>
+      <c r="BE211" s="4"/>
+      <c r="BF211" s="4"/>
+      <c r="BG211" s="4"/>
+      <c r="BH211" s="4"/>
+      <c r="BI211" s="4"/>
+      <c r="BJ211" s="4"/>
+      <c r="BK211" s="4"/>
+      <c r="BL211" s="4"/>
+      <c r="BM211" s="4"/>
+      <c r="BN211" s="4"/>
+      <c r="BO211" s="4"/>
+      <c r="BP211" s="4"/>
+      <c r="BQ211" s="4"/>
+      <c r="BR211" s="4"/>
+      <c r="BS211" s="4"/>
+      <c r="BT211" s="4"/>
+      <c r="BU211" s="4"/>
+      <c r="BV211" s="4"/>
+      <c r="BW211" s="4"/>
+      <c r="BX211" s="6"/>
+      <c r="BY211" s="4"/>
+      <c r="BZ211" s="4"/>
+    </row>
+    <row r="212" spans="1:78" ht="13.5">
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="14"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="14"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+      <c r="R212" s="14"/>
+      <c r="S212" s="14"/>
+      <c r="T212" s="14"/>
+      <c r="U212" s="14"/>
+      <c r="V212" s="14"/>
+      <c r="W212" s="14"/>
+      <c r="X212" s="14"/>
+      <c r="Y212" s="14"/>
+      <c r="Z212" s="14"/>
+      <c r="AA212" s="14"/>
+      <c r="AB212" s="14"/>
+      <c r="AC212" s="14"/>
+      <c r="AD212" s="14"/>
+      <c r="AE212" s="14"/>
+      <c r="AF212" s="14"/>
+      <c r="AG212" s="14"/>
+      <c r="AH212" s="14"/>
+      <c r="AI212" s="14"/>
+      <c r="AJ212" s="14"/>
+      <c r="AK212" s="14"/>
+      <c r="AL212" s="14"/>
+      <c r="AM212" s="15"/>
+      <c r="AN212" s="14"/>
+      <c r="AO212" s="14"/>
+      <c r="AP212" s="14"/>
+      <c r="AQ212" s="14"/>
+      <c r="AR212" s="14"/>
+      <c r="AS212" s="14"/>
+      <c r="AT212" s="14"/>
+      <c r="AU212" s="14"/>
+      <c r="AV212" s="14"/>
+      <c r="AW212" s="14"/>
+      <c r="AX212" s="14"/>
+      <c r="AY212" s="14"/>
+      <c r="AZ212" s="14"/>
+      <c r="BA212" s="14"/>
+      <c r="BB212" s="14"/>
+      <c r="BC212" s="14"/>
+      <c r="BD212" s="14"/>
+      <c r="BE212" s="14"/>
+      <c r="BF212" s="14"/>
+      <c r="BG212" s="14"/>
+      <c r="BH212" s="14"/>
+      <c r="BI212" s="14"/>
+      <c r="BJ212" s="14"/>
+      <c r="BK212" s="14"/>
+      <c r="BL212" s="14"/>
+      <c r="BM212" s="14"/>
+      <c r="BN212" s="14"/>
+      <c r="BO212" s="14"/>
+      <c r="BP212" s="14"/>
+      <c r="BQ212" s="14"/>
+      <c r="BR212" s="14"/>
+      <c r="BS212" s="14"/>
+      <c r="BT212" s="14"/>
+      <c r="BU212" s="14"/>
+      <c r="BV212" s="14"/>
+      <c r="BW212" s="14"/>
+      <c r="BX212" s="16"/>
+      <c r="BY212" s="4"/>
+      <c r="BZ212" s="4"/>
+    </row>
+    <row r="213" spans="1:78" ht="15" customHeight="1">
+      <c r="A213" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:78" ht="15" customHeight="1">
+      <c r="A214" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:78" ht="15" customHeight="1">
+      <c r="B216" s="65" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:78" ht="15" customHeight="1">
-      <c r="B213" s="65" t="s">
+    <row r="218" spans="1:78" ht="15" customHeight="1">
+      <c r="B218" s="65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="1:78" ht="15" customHeight="1">
-      <c r="B215" s="65" t="s">
+    <row r="220" spans="1:78" ht="15" customHeight="1">
+      <c r="B220" s="65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="217" spans="1:78" ht="15" customHeight="1">
-      <c r="B217" s="65" t="s">
+    <row r="221" spans="1:78" ht="15" customHeight="1">
+      <c r="J221" s="60"/>
+      <c r="N221" s="66" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:78" ht="15" customHeight="1">
-      <c r="J218" s="60"/>
-      <c r="N218" s="66" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="F154:AV154"/>
+    <mergeCell ref="AW154:BA154"/>
+    <mergeCell ref="AE115:AV115"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="Z115:AD115"/>
+    <mergeCell ref="BK114:BO114"/>
+    <mergeCell ref="BB114:BJ114"/>
+    <mergeCell ref="BK115:BO115"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="F114:AV114"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW114:BA114"/>
+    <mergeCell ref="F53:Y53"/>
     <mergeCell ref="BP114:BX114"/>
     <mergeCell ref="F115:Y115"/>
     <mergeCell ref="A115:E115"/>
@@ -18000,39 +18287,13 @@
     <mergeCell ref="A154:E154"/>
     <mergeCell ref="BK154:BO154"/>
     <mergeCell ref="BB154:BJ154"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="F114:AV114"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW114:BA114"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="BK114:BO114"/>
-    <mergeCell ref="BB114:BJ114"/>
-    <mergeCell ref="BK115:BO115"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="F154:AV154"/>
-    <mergeCell ref="AW154:BA154"/>
-    <mergeCell ref="AE115:AV115"/>
-    <mergeCell ref="AW115:BA115"/>
-    <mergeCell ref="BB115:BJ115"/>
-    <mergeCell ref="Z115:AD115"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
